--- a/BackTest/2020-01-22 BackTest TRV.xlsx
+++ b/BackTest/2020-01-22 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12.12</v>
+        <v>12.14</v>
       </c>
       <c r="C2" t="n">
-        <v>12.12</v>
+        <v>12.14</v>
       </c>
       <c r="D2" t="n">
-        <v>12.12</v>
+        <v>12.14</v>
       </c>
       <c r="E2" t="n">
-        <v>12.12</v>
+        <v>12.14</v>
       </c>
       <c r="F2" t="n">
-        <v>24691.0125</v>
+        <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>11.97999999999999</v>
+        <v>11.97799999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>12.12</v>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>12.12</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>12.12</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>12.12</v>
       </c>
       <c r="F3" t="n">
-        <v>34440.8622</v>
+        <v>24691.0125</v>
       </c>
       <c r="G3" t="n">
-        <v>11.98316666666666</v>
+        <v>11.97999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
-        <v>1726.3091</v>
+        <v>34440.8622</v>
       </c>
       <c r="G4" t="n">
-        <v>11.98549999999999</v>
+        <v>11.98316666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.96</v>
+        <v>11.95</v>
       </c>
       <c r="C5" t="n">
-        <v>11.96</v>
+        <v>11.95</v>
       </c>
       <c r="D5" t="n">
-        <v>11.96</v>
+        <v>11.95</v>
       </c>
       <c r="E5" t="n">
         <v>11.95</v>
       </c>
       <c r="F5" t="n">
-        <v>55531.8986</v>
+        <v>1726.3091</v>
       </c>
       <c r="G5" t="n">
-        <v>11.988</v>
+        <v>11.98549999999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.95</v>
+        <v>11.96</v>
       </c>
       <c r="C6" t="n">
-        <v>12.1</v>
+        <v>11.96</v>
       </c>
       <c r="D6" t="n">
-        <v>12.1</v>
+        <v>11.96</v>
       </c>
       <c r="E6" t="n">
         <v>11.95</v>
       </c>
       <c r="F6" t="n">
-        <v>28895.5459</v>
+        <v>55531.8986</v>
       </c>
       <c r="G6" t="n">
-        <v>11.98916666666666</v>
+        <v>11.988</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,19 +608,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.89</v>
+        <v>11.95</v>
       </c>
       <c r="C7" t="n">
-        <v>11.87</v>
+        <v>12.1</v>
       </c>
       <c r="D7" t="n">
-        <v>11.89</v>
+        <v>12.1</v>
       </c>
       <c r="E7" t="n">
-        <v>11.87</v>
+        <v>11.95</v>
       </c>
       <c r="F7" t="n">
-        <v>86501.61139999999</v>
+        <v>28895.5459</v>
       </c>
       <c r="G7" t="n">
         <v>11.98916666666666</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.87</v>
+        <v>11.89</v>
       </c>
       <c r="C8" t="n">
         <v>11.87</v>
       </c>
       <c r="D8" t="n">
-        <v>11.87</v>
+        <v>11.89</v>
       </c>
       <c r="E8" t="n">
         <v>11.87</v>
       </c>
       <c r="F8" t="n">
-        <v>10000</v>
+        <v>86501.61139999999</v>
       </c>
       <c r="G8" t="n">
-        <v>11.989</v>
+        <v>11.98916666666666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.91</v>
+        <v>11.87</v>
       </c>
       <c r="C9" t="n">
-        <v>11.91</v>
+        <v>11.87</v>
       </c>
       <c r="D9" t="n">
-        <v>11.91</v>
+        <v>11.87</v>
       </c>
       <c r="E9" t="n">
-        <v>11.91</v>
+        <v>11.87</v>
       </c>
       <c r="F9" t="n">
-        <v>852.9251</v>
+        <v>10000</v>
       </c>
       <c r="G9" t="n">
-        <v>11.98933333333333</v>
+        <v>11.989</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,19 +725,23 @@
         <v>11.91</v>
       </c>
       <c r="F10" t="n">
-        <v>6841.9735</v>
+        <v>852.9251</v>
       </c>
       <c r="G10" t="n">
-        <v>11.98966666666666</v>
+        <v>11.98933333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11.87</v>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
@@ -748,32 +752,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.11</v>
+        <v>11.91</v>
       </c>
       <c r="C11" t="n">
-        <v>12.11</v>
+        <v>11.91</v>
       </c>
       <c r="D11" t="n">
-        <v>12.11</v>
+        <v>11.91</v>
       </c>
       <c r="E11" t="n">
-        <v>12.11</v>
+        <v>11.91</v>
       </c>
       <c r="F11" t="n">
-        <v>39966.377</v>
+        <v>6841.9735</v>
       </c>
       <c r="G11" t="n">
-        <v>11.99133333333333</v>
+        <v>11.98966666666666</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="K11" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,32 +795,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.14</v>
+        <v>12.11</v>
       </c>
       <c r="C12" t="n">
         <v>12.11</v>
       </c>
       <c r="D12" t="n">
-        <v>12.14</v>
+        <v>12.11</v>
       </c>
       <c r="E12" t="n">
         <v>12.11</v>
       </c>
       <c r="F12" t="n">
-        <v>14967.0747</v>
+        <v>39966.377</v>
       </c>
       <c r="G12" t="n">
-        <v>11.99533333333333</v>
+        <v>11.99133333333333</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -818,22 +838,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.09</v>
+        <v>12.14</v>
       </c>
       <c r="C13" t="n">
-        <v>12.09</v>
+        <v>12.11</v>
       </c>
       <c r="D13" t="n">
-        <v>12.09</v>
+        <v>12.14</v>
       </c>
       <c r="E13" t="n">
-        <v>12.09</v>
+        <v>12.11</v>
       </c>
       <c r="F13" t="n">
-        <v>218.5619</v>
+        <v>14967.0747</v>
       </c>
       <c r="G13" t="n">
-        <v>11.999</v>
+        <v>11.99533333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +873,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.9</v>
+        <v>12.09</v>
       </c>
       <c r="C14" t="n">
-        <v>11.89</v>
+        <v>12.09</v>
       </c>
       <c r="D14" t="n">
-        <v>11.9</v>
+        <v>12.09</v>
       </c>
       <c r="E14" t="n">
-        <v>11.89</v>
+        <v>12.09</v>
       </c>
       <c r="F14" t="n">
-        <v>14259</v>
+        <v>218.5619</v>
       </c>
       <c r="G14" t="n">
-        <v>11.99933333333333</v>
+        <v>11.999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +908,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.07</v>
+        <v>11.9</v>
       </c>
       <c r="C15" t="n">
-        <v>12.07</v>
+        <v>11.89</v>
       </c>
       <c r="D15" t="n">
-        <v>12.07</v>
+        <v>11.9</v>
       </c>
       <c r="E15" t="n">
-        <v>12.07</v>
+        <v>11.89</v>
       </c>
       <c r="F15" t="n">
-        <v>41.4251</v>
+        <v>14259</v>
       </c>
       <c r="G15" t="n">
-        <v>12.00033333333333</v>
+        <v>11.99933333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,19 +943,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.9</v>
+        <v>12.07</v>
       </c>
       <c r="C16" t="n">
-        <v>11.87</v>
+        <v>12.07</v>
       </c>
       <c r="D16" t="n">
-        <v>11.9</v>
+        <v>12.07</v>
       </c>
       <c r="E16" t="n">
-        <v>11.87</v>
+        <v>12.07</v>
       </c>
       <c r="F16" t="n">
-        <v>41228.1915</v>
+        <v>41.4251</v>
       </c>
       <c r="G16" t="n">
         <v>12.00033333333333</v>
@@ -958,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.07</v>
+        <v>11.9</v>
       </c>
       <c r="C17" t="n">
-        <v>12.07</v>
+        <v>11.87</v>
       </c>
       <c r="D17" t="n">
-        <v>12.07</v>
+        <v>11.9</v>
       </c>
       <c r="E17" t="n">
-        <v>12.07</v>
+        <v>11.87</v>
       </c>
       <c r="F17" t="n">
-        <v>41.4251</v>
+        <v>41228.1915</v>
       </c>
       <c r="G17" t="n">
-        <v>12.00133333333333</v>
+        <v>12.00033333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +1013,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.9</v>
+        <v>12.07</v>
       </c>
       <c r="C18" t="n">
-        <v>11.9</v>
+        <v>12.07</v>
       </c>
       <c r="D18" t="n">
-        <v>11.9</v>
+        <v>12.07</v>
       </c>
       <c r="E18" t="n">
-        <v>11.9</v>
+        <v>12.07</v>
       </c>
       <c r="F18" t="n">
-        <v>3731.9738</v>
+        <v>41.4251</v>
       </c>
       <c r="G18" t="n">
-        <v>11.99933333333333</v>
+        <v>12.00133333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1048,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.03</v>
+        <v>11.9</v>
       </c>
       <c r="C19" t="n">
-        <v>11.93</v>
+        <v>11.9</v>
       </c>
       <c r="D19" t="n">
-        <v>12.03</v>
+        <v>11.9</v>
       </c>
       <c r="E19" t="n">
-        <v>11.93</v>
+        <v>11.9</v>
       </c>
       <c r="F19" t="n">
-        <v>1660.6024</v>
+        <v>3731.9738</v>
       </c>
       <c r="G19" t="n">
-        <v>11.998</v>
+        <v>11.99933333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1066,19 +1086,19 @@
         <v>12.03</v>
       </c>
       <c r="C20" t="n">
-        <v>12.03</v>
+        <v>11.93</v>
       </c>
       <c r="D20" t="n">
         <v>12.03</v>
       </c>
       <c r="E20" t="n">
-        <v>12.03</v>
+        <v>11.93</v>
       </c>
       <c r="F20" t="n">
-        <v>42</v>
+        <v>1660.6024</v>
       </c>
       <c r="G20" t="n">
-        <v>11.9985</v>
+        <v>11.998</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1130,10 @@
         <v>12.03</v>
       </c>
       <c r="F21" t="n">
-        <v>50205.8385</v>
+        <v>42</v>
       </c>
       <c r="G21" t="n">
-        <v>11.99983333333333</v>
+        <v>11.9985</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1153,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.93</v>
+        <v>12.03</v>
       </c>
       <c r="C22" t="n">
-        <v>11.93</v>
+        <v>12.03</v>
       </c>
       <c r="D22" t="n">
-        <v>11.93</v>
+        <v>12.03</v>
       </c>
       <c r="E22" t="n">
-        <v>11.93</v>
+        <v>12.03</v>
       </c>
       <c r="F22" t="n">
-        <v>20000</v>
+        <v>50205.8385</v>
       </c>
       <c r="G22" t="n">
-        <v>11.99966666666666</v>
+        <v>11.99983333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1200,10 @@
         <v>11.93</v>
       </c>
       <c r="F23" t="n">
-        <v>17225.2894</v>
+        <v>20000</v>
       </c>
       <c r="G23" t="n">
-        <v>11.99949999999999</v>
+        <v>11.99966666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1223,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.95</v>
+        <v>11.93</v>
       </c>
       <c r="C24" t="n">
-        <v>11.95</v>
+        <v>11.93</v>
       </c>
       <c r="D24" t="n">
-        <v>11.95</v>
+        <v>11.93</v>
       </c>
       <c r="E24" t="n">
-        <v>11.95</v>
+        <v>11.93</v>
       </c>
       <c r="F24" t="n">
-        <v>25027.9771</v>
+        <v>17225.2894</v>
       </c>
       <c r="G24" t="n">
-        <v>11.99966666666666</v>
+        <v>11.99949999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1270,10 @@
         <v>11.95</v>
       </c>
       <c r="F25" t="n">
-        <v>15351.2296</v>
+        <v>25027.9771</v>
       </c>
       <c r="G25" t="n">
-        <v>12.00033333333333</v>
+        <v>11.99966666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1293,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.05</v>
+        <v>11.95</v>
       </c>
       <c r="C26" t="n">
-        <v>12.06</v>
+        <v>11.95</v>
       </c>
       <c r="D26" t="n">
-        <v>12.06</v>
+        <v>11.95</v>
       </c>
       <c r="E26" t="n">
-        <v>12.05</v>
+        <v>11.95</v>
       </c>
       <c r="F26" t="n">
-        <v>83.49379999999999</v>
+        <v>15351.2296</v>
       </c>
       <c r="G26" t="n">
-        <v>12.00349999999999</v>
+        <v>12.00033333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1311,19 +1331,19 @@
         <v>12.05</v>
       </c>
       <c r="C27" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="D27" t="n">
-        <v>12.05</v>
+        <v>12.06</v>
       </c>
       <c r="E27" t="n">
         <v>12.05</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5062</v>
+        <v>83.49379999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>12.00649999999999</v>
+        <v>12.00349999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1363,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.93</v>
+        <v>12.05</v>
       </c>
       <c r="C28" t="n">
-        <v>11.87</v>
+        <v>12.05</v>
       </c>
       <c r="D28" t="n">
-        <v>11.93</v>
+        <v>12.05</v>
       </c>
       <c r="E28" t="n">
-        <v>11.87</v>
+        <v>12.05</v>
       </c>
       <c r="F28" t="n">
-        <v>14546</v>
+        <v>0.5062</v>
       </c>
       <c r="G28" t="n">
-        <v>12.00583333333333</v>
+        <v>12.00649999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1398,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.06</v>
+        <v>11.93</v>
       </c>
       <c r="C29" t="n">
-        <v>12.06</v>
+        <v>11.87</v>
       </c>
       <c r="D29" t="n">
-        <v>12.06</v>
+        <v>11.93</v>
       </c>
       <c r="E29" t="n">
-        <v>12.06</v>
+        <v>11.87</v>
       </c>
       <c r="F29" t="n">
-        <v>42</v>
+        <v>14546</v>
       </c>
       <c r="G29" t="n">
-        <v>12.00916666666666</v>
+        <v>12.00583333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1445,10 @@
         <v>12.06</v>
       </c>
       <c r="F30" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G30" t="n">
-        <v>12.01283333333332</v>
+        <v>12.00916666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1468,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.01</v>
+        <v>12.06</v>
       </c>
       <c r="C31" t="n">
-        <v>12.01</v>
+        <v>12.06</v>
       </c>
       <c r="D31" t="n">
-        <v>12.01</v>
+        <v>12.06</v>
       </c>
       <c r="E31" t="n">
-        <v>12.01</v>
+        <v>12.06</v>
       </c>
       <c r="F31" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G31" t="n">
-        <v>12.01633333333332</v>
+        <v>12.01283333333332</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1503,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.91</v>
+        <v>12.01</v>
       </c>
       <c r="C32" t="n">
-        <v>11.82</v>
+        <v>12.01</v>
       </c>
       <c r="D32" t="n">
-        <v>11.91</v>
+        <v>12.01</v>
       </c>
       <c r="E32" t="n">
-        <v>11.82</v>
+        <v>12.01</v>
       </c>
       <c r="F32" t="n">
-        <v>61733.4252</v>
+        <v>42</v>
       </c>
       <c r="G32" t="n">
-        <v>12.01349999999999</v>
+        <v>12.01633333333332</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1541,19 @@
         <v>11.91</v>
       </c>
       <c r="C33" t="n">
-        <v>11.91</v>
+        <v>11.82</v>
       </c>
       <c r="D33" t="n">
         <v>11.91</v>
       </c>
       <c r="E33" t="n">
-        <v>11.91</v>
+        <v>11.82</v>
       </c>
       <c r="F33" t="n">
-        <v>3175.0753</v>
+        <v>61733.4252</v>
       </c>
       <c r="G33" t="n">
-        <v>12.01216666666666</v>
+        <v>12.01349999999999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1573,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.9</v>
+        <v>11.91</v>
       </c>
       <c r="C34" t="n">
-        <v>11.9</v>
+        <v>11.91</v>
       </c>
       <c r="D34" t="n">
-        <v>11.9</v>
+        <v>11.91</v>
       </c>
       <c r="E34" t="n">
-        <v>11.9</v>
+        <v>11.91</v>
       </c>
       <c r="F34" t="n">
-        <v>3533.4512</v>
+        <v>3175.0753</v>
       </c>
       <c r="G34" t="n">
-        <v>12.01066666666666</v>
+        <v>12.01216666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1608,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.82</v>
+        <v>11.9</v>
       </c>
       <c r="C35" t="n">
-        <v>11.82</v>
+        <v>11.9</v>
       </c>
       <c r="D35" t="n">
-        <v>11.82</v>
+        <v>11.9</v>
       </c>
       <c r="E35" t="n">
-        <v>11.82</v>
+        <v>11.9</v>
       </c>
       <c r="F35" t="n">
-        <v>9687.283600000001</v>
+        <v>3533.4512</v>
       </c>
       <c r="G35" t="n">
-        <v>12.00783333333333</v>
+        <v>12.01066666666666</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1643,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.81</v>
+        <v>11.82</v>
       </c>
       <c r="C36" t="n">
-        <v>11.81</v>
+        <v>11.82</v>
       </c>
       <c r="D36" t="n">
-        <v>11.81</v>
+        <v>11.82</v>
       </c>
       <c r="E36" t="n">
-        <v>11.81</v>
+        <v>11.82</v>
       </c>
       <c r="F36" t="n">
-        <v>34698.1853</v>
+        <v>9687.283600000001</v>
       </c>
       <c r="G36" t="n">
-        <v>12.00466666666666</v>
+        <v>12.00783333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1678,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.99</v>
+        <v>11.81</v>
       </c>
       <c r="C37" t="n">
-        <v>11.99</v>
+        <v>11.81</v>
       </c>
       <c r="D37" t="n">
-        <v>11.99</v>
+        <v>11.81</v>
       </c>
       <c r="E37" t="n">
-        <v>11.99</v>
+        <v>11.81</v>
       </c>
       <c r="F37" t="n">
-        <v>42</v>
+        <v>34698.1853</v>
       </c>
       <c r="G37" t="n">
-        <v>12.00349999999999</v>
+        <v>12.00466666666666</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1725,10 @@
         <v>11.99</v>
       </c>
       <c r="F38" t="n">
-        <v>127.8395</v>
+        <v>42</v>
       </c>
       <c r="G38" t="n">
-        <v>12.00033333333332</v>
+        <v>12.00349999999999</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1740,10 +1760,10 @@
         <v>11.99</v>
       </c>
       <c r="F39" t="n">
-        <v>28667.7315</v>
+        <v>127.8395</v>
       </c>
       <c r="G39" t="n">
-        <v>11.99866666666666</v>
+        <v>12.00033333333332</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1783,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="C40" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="D40" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="E40" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="F40" t="n">
-        <v>3533.4512</v>
+        <v>28667.7315</v>
       </c>
       <c r="G40" t="n">
-        <v>11.99699999999999</v>
+        <v>11.99866666666666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1810,10 +1830,10 @@
         <v>12</v>
       </c>
       <c r="F41" t="n">
-        <v>7676.076</v>
+        <v>3533.4512</v>
       </c>
       <c r="G41" t="n">
-        <v>11.99533333333332</v>
+        <v>11.99699999999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1845,10 +1865,10 @@
         <v>12</v>
       </c>
       <c r="F42" t="n">
-        <v>2700</v>
+        <v>7676.076</v>
       </c>
       <c r="G42" t="n">
-        <v>11.99499999999999</v>
+        <v>11.99533333333332</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1900,10 @@
         <v>12</v>
       </c>
       <c r="F43" t="n">
-        <v>17360.0089</v>
+        <v>2700</v>
       </c>
       <c r="G43" t="n">
-        <v>11.99199999999999</v>
+        <v>11.99499999999999</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1923,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.07</v>
+        <v>12</v>
       </c>
       <c r="C44" t="n">
-        <v>12.08</v>
+        <v>12</v>
       </c>
       <c r="D44" t="n">
-        <v>12.08</v>
+        <v>12</v>
       </c>
       <c r="E44" t="n">
-        <v>12.07</v>
+        <v>12</v>
       </c>
       <c r="F44" t="n">
-        <v>42.9999</v>
+        <v>17360.0089</v>
       </c>
       <c r="G44" t="n">
-        <v>11.99166666666666</v>
+        <v>11.99199999999999</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1941,19 +1961,19 @@
         <v>12.07</v>
       </c>
       <c r="C45" t="n">
-        <v>12.07</v>
+        <v>12.08</v>
       </c>
       <c r="D45" t="n">
-        <v>12.07</v>
+        <v>12.08</v>
       </c>
       <c r="E45" t="n">
         <v>12.07</v>
       </c>
       <c r="F45" t="n">
-        <v>41.0001</v>
+        <v>42.9999</v>
       </c>
       <c r="G45" t="n">
-        <v>11.99099999999999</v>
+        <v>11.99166666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1993,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12</v>
+        <v>12.07</v>
       </c>
       <c r="C46" t="n">
-        <v>11.95</v>
+        <v>12.07</v>
       </c>
       <c r="D46" t="n">
-        <v>12</v>
+        <v>12.07</v>
       </c>
       <c r="E46" t="n">
-        <v>11.95</v>
+        <v>12.07</v>
       </c>
       <c r="F46" t="n">
-        <v>18224.8803</v>
+        <v>41.0001</v>
       </c>
       <c r="G46" t="n">
-        <v>11.98833333333333</v>
+        <v>11.99099999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2028,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.08</v>
+        <v>12</v>
       </c>
       <c r="C47" t="n">
-        <v>12.08</v>
+        <v>11.95</v>
       </c>
       <c r="D47" t="n">
-        <v>12.08</v>
+        <v>12</v>
       </c>
       <c r="E47" t="n">
-        <v>12.08</v>
+        <v>11.95</v>
       </c>
       <c r="F47" t="n">
-        <v>42</v>
+        <v>18224.8803</v>
       </c>
       <c r="G47" t="n">
-        <v>11.98666666666666</v>
+        <v>11.98833333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2055,10 +2075,10 @@
         <v>12.08</v>
       </c>
       <c r="F48" t="n">
-        <v>862.1411000000001</v>
+        <v>42</v>
       </c>
       <c r="G48" t="n">
-        <v>11.985</v>
+        <v>11.98666666666666</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2098,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.96</v>
+        <v>12.08</v>
       </c>
       <c r="C49" t="n">
-        <v>11.94</v>
+        <v>12.08</v>
       </c>
       <c r="D49" t="n">
-        <v>11.96</v>
+        <v>12.08</v>
       </c>
       <c r="E49" t="n">
-        <v>11.94</v>
+        <v>12.08</v>
       </c>
       <c r="F49" t="n">
-        <v>14816</v>
+        <v>862.1411000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>11.981</v>
+        <v>11.985</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2133,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.07</v>
+        <v>11.96</v>
       </c>
       <c r="C50" t="n">
-        <v>12.07</v>
+        <v>11.94</v>
       </c>
       <c r="D50" t="n">
-        <v>12.07</v>
+        <v>11.96</v>
       </c>
       <c r="E50" t="n">
-        <v>12.07</v>
+        <v>11.94</v>
       </c>
       <c r="F50" t="n">
-        <v>1000</v>
+        <v>14816</v>
       </c>
       <c r="G50" t="n">
-        <v>11.98066666666667</v>
+        <v>11.981</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2168,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.95</v>
+        <v>12.07</v>
       </c>
       <c r="C51" t="n">
-        <v>11.95</v>
+        <v>12.07</v>
       </c>
       <c r="D51" t="n">
-        <v>11.95</v>
+        <v>12.07</v>
       </c>
       <c r="E51" t="n">
-        <v>11.95</v>
+        <v>12.07</v>
       </c>
       <c r="F51" t="n">
-        <v>10780.8582</v>
+        <v>1000</v>
       </c>
       <c r="G51" t="n">
-        <v>11.97916666666667</v>
+        <v>11.98066666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2203,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.01</v>
+        <v>11.95</v>
       </c>
       <c r="C52" t="n">
-        <v>12.01</v>
+        <v>11.95</v>
       </c>
       <c r="D52" t="n">
-        <v>12.01</v>
+        <v>11.95</v>
       </c>
       <c r="E52" t="n">
-        <v>12.01</v>
+        <v>11.95</v>
       </c>
       <c r="F52" t="n">
-        <v>42</v>
+        <v>10780.8582</v>
       </c>
       <c r="G52" t="n">
-        <v>11.97866666666667</v>
+        <v>11.97916666666667</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2238,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.95</v>
+        <v>12.01</v>
       </c>
       <c r="C53" t="n">
-        <v>11.95</v>
+        <v>12.01</v>
       </c>
       <c r="D53" t="n">
-        <v>11.95</v>
+        <v>12.01</v>
       </c>
       <c r="E53" t="n">
-        <v>11.95</v>
+        <v>12.01</v>
       </c>
       <c r="F53" t="n">
-        <v>342.1418</v>
+        <v>42</v>
       </c>
       <c r="G53" t="n">
-        <v>11.97933333333333</v>
+        <v>11.97866666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2273,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.94</v>
+        <v>11.95</v>
       </c>
       <c r="C54" t="n">
-        <v>11.94</v>
+        <v>11.95</v>
       </c>
       <c r="D54" t="n">
-        <v>11.94</v>
+        <v>11.95</v>
       </c>
       <c r="E54" t="n">
-        <v>11.94</v>
+        <v>11.95</v>
       </c>
       <c r="F54" t="n">
-        <v>842.5176</v>
+        <v>342.1418</v>
       </c>
       <c r="G54" t="n">
-        <v>11.97983333333334</v>
+        <v>11.97933333333333</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2308,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.93</v>
+        <v>11.94</v>
       </c>
       <c r="C55" t="n">
-        <v>11.95</v>
+        <v>11.94</v>
       </c>
       <c r="D55" t="n">
-        <v>11.95</v>
+        <v>11.94</v>
       </c>
       <c r="E55" t="n">
-        <v>11.93</v>
+        <v>11.94</v>
       </c>
       <c r="F55" t="n">
-        <v>124507.949</v>
+        <v>842.5176</v>
       </c>
       <c r="G55" t="n">
-        <v>11.9805</v>
+        <v>11.97983333333334</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2343,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.02</v>
+        <v>11.93</v>
       </c>
       <c r="C56" t="n">
-        <v>12.02</v>
+        <v>11.95</v>
       </c>
       <c r="D56" t="n">
-        <v>12.02</v>
+        <v>11.95</v>
       </c>
       <c r="E56" t="n">
-        <v>12.02</v>
+        <v>11.93</v>
       </c>
       <c r="F56" t="n">
-        <v>21757.3493</v>
+        <v>124507.949</v>
       </c>
       <c r="G56" t="n">
-        <v>11.98133333333334</v>
+        <v>11.9805</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2378,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.06</v>
+        <v>12.02</v>
       </c>
       <c r="C57" t="n">
-        <v>12.14</v>
+        <v>12.02</v>
       </c>
       <c r="D57" t="n">
-        <v>12.14</v>
+        <v>12.02</v>
       </c>
       <c r="E57" t="n">
-        <v>12.06</v>
+        <v>12.02</v>
       </c>
       <c r="F57" t="n">
-        <v>162284.2769</v>
+        <v>21757.3493</v>
       </c>
       <c r="G57" t="n">
-        <v>11.984</v>
+        <v>11.98133333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2413,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="C58" t="n">
         <v>12.14</v>
       </c>
-      <c r="C58" t="n">
-        <v>12.19</v>
-      </c>
       <c r="D58" t="n">
-        <v>12.19</v>
+        <v>12.14</v>
       </c>
       <c r="E58" t="n">
-        <v>12.14</v>
+        <v>12.06</v>
       </c>
       <c r="F58" t="n">
-        <v>235544.2812</v>
+        <v>162284.2769</v>
       </c>
       <c r="G58" t="n">
-        <v>11.9875</v>
+        <v>11.984</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2448,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.26</v>
+        <v>12.14</v>
       </c>
       <c r="C59" t="n">
-        <v>12.26</v>
+        <v>12.19</v>
       </c>
       <c r="D59" t="n">
-        <v>12.26</v>
+        <v>12.19</v>
       </c>
       <c r="E59" t="n">
-        <v>12.26</v>
+        <v>12.14</v>
       </c>
       <c r="F59" t="n">
-        <v>1032.0253</v>
+        <v>235544.2812</v>
       </c>
       <c r="G59" t="n">
-        <v>11.993</v>
+        <v>11.9875</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2466,19 +2486,19 @@
         <v>12.26</v>
       </c>
       <c r="C60" t="n">
-        <v>12.35</v>
+        <v>12.26</v>
       </c>
       <c r="D60" t="n">
-        <v>12.35</v>
+        <v>12.26</v>
       </c>
       <c r="E60" t="n">
         <v>12.26</v>
       </c>
       <c r="F60" t="n">
-        <v>240762.7536</v>
+        <v>1032.0253</v>
       </c>
       <c r="G60" t="n">
-        <v>12.001</v>
+        <v>11.993</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2518,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="C61" t="n">
         <v>12.35</v>
       </c>
-      <c r="C61" t="n">
-        <v>12.39</v>
-      </c>
       <c r="D61" t="n">
-        <v>12.39</v>
+        <v>12.35</v>
       </c>
       <c r="E61" t="n">
-        <v>12.35</v>
+        <v>12.26</v>
       </c>
       <c r="F61" t="n">
-        <v>226745.5374</v>
+        <v>240762.7536</v>
       </c>
       <c r="G61" t="n">
-        <v>12.00516666666667</v>
+        <v>12.001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2553,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="C62" t="n">
         <v>12.39</v>
       </c>
-      <c r="C62" t="n">
-        <v>12.45</v>
-      </c>
       <c r="D62" t="n">
-        <v>12.45</v>
+        <v>12.39</v>
       </c>
       <c r="E62" t="n">
-        <v>12.39</v>
+        <v>12.35</v>
       </c>
       <c r="F62" t="n">
-        <v>102437.2155</v>
+        <v>226745.5374</v>
       </c>
       <c r="G62" t="n">
-        <v>12.01066666666667</v>
+        <v>12.00516666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,28 +2588,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.44</v>
+        <v>12.39</v>
       </c>
       <c r="C63" t="n">
-        <v>12.44</v>
+        <v>12.45</v>
       </c>
       <c r="D63" t="n">
-        <v>12.44</v>
+        <v>12.45</v>
       </c>
       <c r="E63" t="n">
-        <v>12.44</v>
+        <v>12.39</v>
       </c>
       <c r="F63" t="n">
-        <v>770.776</v>
+        <v>102437.2155</v>
       </c>
       <c r="G63" t="n">
-        <v>12.01800000000001</v>
+        <v>12.01066666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2615,16 +2635,16 @@
         <v>12.44</v>
       </c>
       <c r="F64" t="n">
-        <v>816.3988000000001</v>
+        <v>770.776</v>
       </c>
       <c r="G64" t="n">
-        <v>12.02616666666667</v>
+        <v>12.01800000000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2638,7 +2658,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.31</v>
+        <v>12.44</v>
       </c>
       <c r="C65" t="n">
         <v>12.44</v>
@@ -2647,13 +2667,13 @@
         <v>12.44</v>
       </c>
       <c r="E65" t="n">
-        <v>12.3</v>
+        <v>12.44</v>
       </c>
       <c r="F65" t="n">
-        <v>44636.6999</v>
+        <v>816.3988000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>12.03416666666667</v>
+        <v>12.02616666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2693,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.45</v>
+        <v>12.31</v>
       </c>
       <c r="C66" t="n">
-        <v>12.35</v>
+        <v>12.44</v>
       </c>
       <c r="D66" t="n">
-        <v>12.45</v>
+        <v>12.44</v>
       </c>
       <c r="E66" t="n">
-        <v>12.35</v>
+        <v>12.3</v>
       </c>
       <c r="F66" t="n">
-        <v>110</v>
+        <v>44636.6999</v>
       </c>
       <c r="G66" t="n">
-        <v>12.03833333333334</v>
+        <v>12.03416666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2711,19 +2731,19 @@
         <v>12.45</v>
       </c>
       <c r="C67" t="n">
-        <v>12.43</v>
+        <v>12.35</v>
       </c>
       <c r="D67" t="n">
         <v>12.45</v>
       </c>
       <c r="E67" t="n">
-        <v>12.22</v>
+        <v>12.35</v>
       </c>
       <c r="F67" t="n">
-        <v>27361.492</v>
+        <v>110</v>
       </c>
       <c r="G67" t="n">
-        <v>12.04766666666667</v>
+        <v>12.03833333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2763,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="C68" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="D68" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="E68" t="n">
         <v>12.22</v>
       </c>
-      <c r="C68" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="D68" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="E68" t="n">
-        <v>12.11</v>
-      </c>
       <c r="F68" t="n">
-        <v>158930.2328</v>
+        <v>27361.492</v>
       </c>
       <c r="G68" t="n">
-        <v>12.05166666666667</v>
+        <v>12.04766666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2798,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.37</v>
+        <v>12.22</v>
       </c>
       <c r="C69" t="n">
-        <v>12.37</v>
+        <v>12.11</v>
       </c>
       <c r="D69" t="n">
-        <v>12.37</v>
+        <v>12.22</v>
       </c>
       <c r="E69" t="n">
-        <v>12.36</v>
+        <v>12.11</v>
       </c>
       <c r="F69" t="n">
-        <v>99</v>
+        <v>158930.2328</v>
       </c>
       <c r="G69" t="n">
-        <v>12.05933333333334</v>
+        <v>12.05166666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2822,13 +2842,13 @@
         <v>12.37</v>
       </c>
       <c r="E70" t="n">
-        <v>12.37</v>
+        <v>12.36</v>
       </c>
       <c r="F70" t="n">
-        <v>8216.151599999999</v>
+        <v>99</v>
       </c>
       <c r="G70" t="n">
-        <v>12.06700000000001</v>
+        <v>12.05933333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2868,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.36</v>
+        <v>12.37</v>
       </c>
       <c r="C71" t="n">
-        <v>12.36</v>
+        <v>12.37</v>
       </c>
       <c r="D71" t="n">
-        <v>12.36</v>
+        <v>12.37</v>
       </c>
       <c r="E71" t="n">
-        <v>12.36</v>
+        <v>12.37</v>
       </c>
       <c r="F71" t="n">
-        <v>41</v>
+        <v>8216.151599999999</v>
       </c>
       <c r="G71" t="n">
-        <v>12.07116666666667</v>
+        <v>12.06700000000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2903,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.37</v>
+        <v>12.36</v>
       </c>
       <c r="C72" t="n">
         <v>12.36</v>
       </c>
       <c r="D72" t="n">
-        <v>12.37</v>
+        <v>12.36</v>
       </c>
       <c r="E72" t="n">
         <v>12.36</v>
       </c>
       <c r="F72" t="n">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="G72" t="n">
-        <v>12.07533333333334</v>
+        <v>12.07116666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2938,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.25</v>
+        <v>12.37</v>
       </c>
       <c r="C73" t="n">
-        <v>12.22</v>
+        <v>12.36</v>
       </c>
       <c r="D73" t="n">
-        <v>12.25</v>
+        <v>12.37</v>
       </c>
       <c r="E73" t="n">
-        <v>12.22</v>
+        <v>12.36</v>
       </c>
       <c r="F73" t="n">
-        <v>16134.8063</v>
+        <v>83</v>
       </c>
       <c r="G73" t="n">
-        <v>12.07750000000001</v>
+        <v>12.07533333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2973,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.23</v>
+        <v>12.25</v>
       </c>
       <c r="C74" t="n">
-        <v>12.23</v>
+        <v>12.22</v>
       </c>
       <c r="D74" t="n">
-        <v>12.23</v>
+        <v>12.25</v>
       </c>
       <c r="E74" t="n">
-        <v>12.23</v>
+        <v>12.22</v>
       </c>
       <c r="F74" t="n">
-        <v>50</v>
+        <v>16134.8063</v>
       </c>
       <c r="G74" t="n">
-        <v>12.08316666666667</v>
+        <v>12.07750000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3008,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.2</v>
+        <v>12.23</v>
       </c>
       <c r="C75" t="n">
-        <v>12.21</v>
+        <v>12.23</v>
       </c>
       <c r="D75" t="n">
-        <v>12.21</v>
+        <v>12.23</v>
       </c>
       <c r="E75" t="n">
-        <v>12.2</v>
+        <v>12.23</v>
       </c>
       <c r="F75" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G75" t="n">
-        <v>12.08550000000001</v>
+        <v>12.08316666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3043,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C76" t="n">
         <v>12.21</v>
       </c>
-      <c r="C76" t="n">
-        <v>12.3</v>
-      </c>
       <c r="D76" t="n">
-        <v>12.3</v>
+        <v>12.21</v>
       </c>
       <c r="E76" t="n">
-        <v>12.21</v>
+        <v>12.2</v>
       </c>
       <c r="F76" t="n">
-        <v>21999.8737</v>
+        <v>49</v>
       </c>
       <c r="G76" t="n">
-        <v>12.09266666666667</v>
+        <v>12.08550000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,7 +3078,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.2</v>
+        <v>12.21</v>
       </c>
       <c r="C77" t="n">
         <v>12.3</v>
@@ -3067,13 +3087,13 @@
         <v>12.3</v>
       </c>
       <c r="E77" t="n">
-        <v>12.2</v>
+        <v>12.21</v>
       </c>
       <c r="F77" t="n">
-        <v>121</v>
+        <v>21999.8737</v>
       </c>
       <c r="G77" t="n">
-        <v>12.0965</v>
+        <v>12.09266666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,7 +3113,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.29</v>
+        <v>12.2</v>
       </c>
       <c r="C78" t="n">
         <v>12.3</v>
@@ -3102,13 +3122,13 @@
         <v>12.3</v>
       </c>
       <c r="E78" t="n">
-        <v>12.29</v>
+        <v>12.2</v>
       </c>
       <c r="F78" t="n">
-        <v>1223.6582</v>
+        <v>121</v>
       </c>
       <c r="G78" t="n">
-        <v>12.10316666666667</v>
+        <v>12.0965</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3148,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.24</v>
+        <v>12.29</v>
       </c>
       <c r="C79" t="n">
-        <v>12.12</v>
+        <v>12.3</v>
       </c>
       <c r="D79" t="n">
-        <v>12.24</v>
+        <v>12.3</v>
       </c>
       <c r="E79" t="n">
-        <v>12.12</v>
+        <v>12.29</v>
       </c>
       <c r="F79" t="n">
-        <v>28739.4609</v>
+        <v>1223.6582</v>
       </c>
       <c r="G79" t="n">
-        <v>12.10633333333334</v>
+        <v>12.10316666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3183,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.09</v>
+        <v>12.24</v>
       </c>
       <c r="C80" t="n">
-        <v>12.24</v>
+        <v>12.12</v>
       </c>
       <c r="D80" t="n">
         <v>12.24</v>
       </c>
       <c r="E80" t="n">
-        <v>12.07</v>
+        <v>12.12</v>
       </c>
       <c r="F80" t="n">
-        <v>29551.3407</v>
+        <v>28739.4609</v>
       </c>
       <c r="G80" t="n">
-        <v>12.10983333333334</v>
+        <v>12.10633333333334</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3201,19 +3221,19 @@
         <v>12.09</v>
       </c>
       <c r="C81" t="n">
-        <v>12</v>
+        <v>12.24</v>
       </c>
       <c r="D81" t="n">
-        <v>12.09</v>
+        <v>12.24</v>
       </c>
       <c r="E81" t="n">
-        <v>12</v>
+        <v>12.07</v>
       </c>
       <c r="F81" t="n">
-        <v>265434.0665</v>
+        <v>29551.3407</v>
       </c>
       <c r="G81" t="n">
-        <v>12.10933333333334</v>
+        <v>12.10983333333334</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3253,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.03</v>
+        <v>12.09</v>
       </c>
       <c r="C82" t="n">
-        <v>11.98</v>
+        <v>12</v>
       </c>
       <c r="D82" t="n">
-        <v>12.03</v>
+        <v>12.09</v>
       </c>
       <c r="E82" t="n">
-        <v>11.98</v>
+        <v>12</v>
       </c>
       <c r="F82" t="n">
-        <v>158930.2328</v>
+        <v>265434.0665</v>
       </c>
       <c r="G82" t="n">
-        <v>12.11016666666668</v>
+        <v>12.10933333333334</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3288,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.1</v>
+        <v>12.03</v>
       </c>
       <c r="C83" t="n">
-        <v>12.09</v>
+        <v>11.98</v>
       </c>
       <c r="D83" t="n">
-        <v>12.1</v>
+        <v>12.03</v>
       </c>
       <c r="E83" t="n">
-        <v>11.99</v>
+        <v>11.98</v>
       </c>
       <c r="F83" t="n">
-        <v>19981.4137</v>
+        <v>158930.2328</v>
       </c>
       <c r="G83" t="n">
-        <v>12.11283333333334</v>
+        <v>12.11016666666668</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3323,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.99</v>
+        <v>12.1</v>
       </c>
       <c r="C84" t="n">
-        <v>11.99</v>
+        <v>12.09</v>
       </c>
       <c r="D84" t="n">
-        <v>11.99</v>
+        <v>12.1</v>
       </c>
       <c r="E84" t="n">
         <v>11.99</v>
       </c>
       <c r="F84" t="n">
-        <v>2433.558</v>
+        <v>19981.4137</v>
       </c>
       <c r="G84" t="n">
-        <v>12.11350000000001</v>
+        <v>12.11283333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3358,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="C85" t="n">
-        <v>12.02</v>
+        <v>11.99</v>
       </c>
       <c r="D85" t="n">
-        <v>12.02</v>
+        <v>11.99</v>
       </c>
       <c r="E85" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="F85" t="n">
-        <v>19412.3212</v>
+        <v>2433.558</v>
       </c>
       <c r="G85" t="n">
-        <v>12.11466666666667</v>
+        <v>12.11350000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3393,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.01</v>
+        <v>12</v>
       </c>
       <c r="C86" t="n">
-        <v>12.01</v>
+        <v>12.02</v>
       </c>
       <c r="D86" t="n">
-        <v>12.01</v>
+        <v>12.02</v>
       </c>
       <c r="E86" t="n">
-        <v>12.01</v>
+        <v>12</v>
       </c>
       <c r="F86" t="n">
-        <v>33643.14</v>
+        <v>19412.3212</v>
       </c>
       <c r="G86" t="n">
-        <v>12.11383333333334</v>
+        <v>12.11466666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3428,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.02</v>
+        <v>12.01</v>
       </c>
       <c r="C87" t="n">
-        <v>12.02</v>
+        <v>12.01</v>
       </c>
       <c r="D87" t="n">
-        <v>12.02</v>
+        <v>12.01</v>
       </c>
       <c r="E87" t="n">
-        <v>12.02</v>
+        <v>12.01</v>
       </c>
       <c r="F87" t="n">
-        <v>14000</v>
+        <v>33643.14</v>
       </c>
       <c r="G87" t="n">
-        <v>12.11333333333334</v>
+        <v>12.11383333333334</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3463,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.03</v>
+        <v>12.02</v>
       </c>
       <c r="C88" t="n">
-        <v>12.03</v>
+        <v>12.02</v>
       </c>
       <c r="D88" t="n">
-        <v>12.03</v>
+        <v>12.02</v>
       </c>
       <c r="E88" t="n">
-        <v>12.03</v>
+        <v>12.02</v>
       </c>
       <c r="F88" t="n">
-        <v>47</v>
+        <v>14000</v>
       </c>
       <c r="G88" t="n">
-        <v>12.11600000000001</v>
+        <v>12.11333333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3498,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.04</v>
+        <v>12.03</v>
       </c>
       <c r="C89" t="n">
-        <v>12.04</v>
+        <v>12.03</v>
       </c>
       <c r="D89" t="n">
-        <v>12.04</v>
+        <v>12.03</v>
       </c>
       <c r="E89" t="n">
-        <v>12.04</v>
+        <v>12.03</v>
       </c>
       <c r="F89" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G89" t="n">
-        <v>12.11566666666667</v>
+        <v>12.11600000000001</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3516,19 +3536,19 @@
         <v>12.04</v>
       </c>
       <c r="C90" t="n">
-        <v>12.08</v>
+        <v>12.04</v>
       </c>
       <c r="D90" t="n">
-        <v>12.08</v>
+        <v>12.04</v>
       </c>
       <c r="E90" t="n">
         <v>12.04</v>
       </c>
       <c r="F90" t="n">
-        <v>9408.272199999999</v>
+        <v>46</v>
       </c>
       <c r="G90" t="n">
-        <v>12.11600000000001</v>
+        <v>12.11566666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,7 +3568,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.08</v>
+        <v>12.04</v>
       </c>
       <c r="C91" t="n">
         <v>12.08</v>
@@ -3557,13 +3577,13 @@
         <v>12.08</v>
       </c>
       <c r="E91" t="n">
-        <v>12.08</v>
+        <v>12.04</v>
       </c>
       <c r="F91" t="n">
-        <v>18882.279</v>
+        <v>9408.272199999999</v>
       </c>
       <c r="G91" t="n">
-        <v>12.11716666666668</v>
+        <v>12.11600000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3603,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.09</v>
+        <v>12.08</v>
       </c>
       <c r="C92" t="n">
-        <v>12.12</v>
+        <v>12.08</v>
       </c>
       <c r="D92" t="n">
-        <v>12.13</v>
+        <v>12.08</v>
       </c>
       <c r="E92" t="n">
-        <v>12.09</v>
+        <v>12.08</v>
       </c>
       <c r="F92" t="n">
-        <v>34139.14</v>
+        <v>18882.279</v>
       </c>
       <c r="G92" t="n">
-        <v>12.12216666666668</v>
+        <v>12.11716666666668</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3638,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.14</v>
+        <v>12.09</v>
       </c>
       <c r="C93" t="n">
-        <v>12.17</v>
+        <v>12.12</v>
       </c>
       <c r="D93" t="n">
-        <v>12.17</v>
+        <v>12.13</v>
       </c>
       <c r="E93" t="n">
-        <v>12.14</v>
+        <v>12.09</v>
       </c>
       <c r="F93" t="n">
-        <v>14495.0481</v>
+        <v>34139.14</v>
       </c>
       <c r="G93" t="n">
-        <v>12.12650000000001</v>
+        <v>12.12216666666668</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,35 +3673,31 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.18</v>
+        <v>12.14</v>
       </c>
       <c r="C94" t="n">
-        <v>12.2</v>
+        <v>12.17</v>
       </c>
       <c r="D94" t="n">
-        <v>12.2</v>
+        <v>12.17</v>
       </c>
       <c r="E94" t="n">
-        <v>12.18</v>
+        <v>12.14</v>
       </c>
       <c r="F94" t="n">
-        <v>29895.1174</v>
+        <v>14495.0481</v>
       </c>
       <c r="G94" t="n">
-        <v>12.13150000000001</v>
+        <v>12.12650000000001</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="K94" t="n">
-        <v>12.17</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
@@ -3692,40 +3708,32 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="C95" t="n">
         <v>12.2</v>
       </c>
-      <c r="C95" t="n">
-        <v>12.21</v>
-      </c>
       <c r="D95" t="n">
-        <v>12.21</v>
+        <v>12.2</v>
       </c>
       <c r="E95" t="n">
-        <v>12.2</v>
+        <v>12.18</v>
       </c>
       <c r="F95" t="n">
-        <v>1154.3915</v>
+        <v>29895.1174</v>
       </c>
       <c r="G95" t="n">
-        <v>12.13800000000001</v>
+        <v>12.13150000000001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K95" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3738,37 +3746,29 @@
         <v>12.2</v>
       </c>
       <c r="C96" t="n">
-        <v>12.2</v>
+        <v>12.21</v>
       </c>
       <c r="D96" t="n">
-        <v>12.2</v>
+        <v>12.21</v>
       </c>
       <c r="E96" t="n">
         <v>12.2</v>
       </c>
       <c r="F96" t="n">
-        <v>9096.7556</v>
+        <v>1154.3915</v>
       </c>
       <c r="G96" t="n">
-        <v>12.14450000000001</v>
+        <v>12.13800000000001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="K96" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3778,22 +3778,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.15</v>
+        <v>12.2</v>
       </c>
       <c r="C97" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D97" t="n">
-        <v>12.15</v>
+        <v>12.2</v>
       </c>
       <c r="E97" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F97" t="n">
-        <v>18818.3285</v>
+        <v>9096.7556</v>
       </c>
       <c r="G97" t="n">
-        <v>12.14633333333335</v>
+        <v>12.14450000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3813,22 +3813,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.2</v>
+        <v>12.15</v>
       </c>
       <c r="C98" t="n">
-        <v>12.04</v>
+        <v>12.1</v>
       </c>
       <c r="D98" t="n">
-        <v>12.2</v>
+        <v>12.15</v>
       </c>
       <c r="E98" t="n">
-        <v>12.04</v>
+        <v>12.1</v>
       </c>
       <c r="F98" t="n">
-        <v>8257.151599999999</v>
+        <v>18818.3285</v>
       </c>
       <c r="G98" t="n">
-        <v>12.14716666666668</v>
+        <v>12.14633333333335</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3848,22 +3848,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.19</v>
+        <v>12.2</v>
       </c>
       <c r="C99" t="n">
-        <v>12.19</v>
+        <v>12.04</v>
       </c>
       <c r="D99" t="n">
-        <v>12.19</v>
+        <v>12.2</v>
       </c>
       <c r="E99" t="n">
-        <v>12.19</v>
+        <v>12.04</v>
       </c>
       <c r="F99" t="n">
-        <v>42</v>
+        <v>8257.151599999999</v>
       </c>
       <c r="G99" t="n">
-        <v>12.15050000000001</v>
+        <v>12.14716666666668</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3883,22 +3883,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.15</v>
+        <v>12.19</v>
       </c>
       <c r="C100" t="n">
-        <v>12.15</v>
+        <v>12.19</v>
       </c>
       <c r="D100" t="n">
-        <v>12.15</v>
+        <v>12.19</v>
       </c>
       <c r="E100" t="n">
-        <v>12.15</v>
+        <v>12.19</v>
       </c>
       <c r="F100" t="n">
-        <v>6206.91</v>
+        <v>42</v>
       </c>
       <c r="G100" t="n">
-        <v>12.15300000000001</v>
+        <v>12.15050000000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3918,22 +3918,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.03</v>
+        <v>12.15</v>
       </c>
       <c r="C101" t="n">
-        <v>12.03</v>
+        <v>12.15</v>
       </c>
       <c r="D101" t="n">
-        <v>12.03</v>
+        <v>12.15</v>
       </c>
       <c r="E101" t="n">
-        <v>12.03</v>
+        <v>12.15</v>
       </c>
       <c r="F101" t="n">
-        <v>2218.4334</v>
+        <v>6206.91</v>
       </c>
       <c r="G101" t="n">
-        <v>12.15350000000001</v>
+        <v>12.15300000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3965,10 +3965,10 @@
         <v>12.03</v>
       </c>
       <c r="F102" t="n">
-        <v>4000</v>
+        <v>2218.4334</v>
       </c>
       <c r="G102" t="n">
-        <v>12.15400000000001</v>
+        <v>12.15350000000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3988,19 +3988,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12</v>
+        <v>12.03</v>
       </c>
       <c r="C103" t="n">
-        <v>12</v>
+        <v>12.03</v>
       </c>
       <c r="D103" t="n">
-        <v>12</v>
+        <v>12.03</v>
       </c>
       <c r="E103" t="n">
-        <v>12</v>
+        <v>12.03</v>
       </c>
       <c r="F103" t="n">
-        <v>478307.7198</v>
+        <v>4000</v>
       </c>
       <c r="G103" t="n">
         <v>12.15400000000001</v>
@@ -4023,22 +4023,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.15</v>
+        <v>12</v>
       </c>
       <c r="C104" t="n">
-        <v>12.15</v>
+        <v>12</v>
       </c>
       <c r="D104" t="n">
-        <v>12.15</v>
+        <v>12</v>
       </c>
       <c r="E104" t="n">
-        <v>12.15</v>
+        <v>12</v>
       </c>
       <c r="F104" t="n">
-        <v>664.3946</v>
+        <v>478307.7198</v>
       </c>
       <c r="G104" t="n">
-        <v>12.15516666666668</v>
+        <v>12.15400000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4070,23 +4070,19 @@
         <v>12.15</v>
       </c>
       <c r="F105" t="n">
-        <v>5264.9453</v>
+        <v>664.3946</v>
       </c>
       <c r="G105" t="n">
-        <v>12.15650000000001</v>
+        <v>12.15516666666668</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="K105" t="n">
-        <v>12.15</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
@@ -4097,22 +4093,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.08</v>
+        <v>12.15</v>
       </c>
       <c r="C106" t="n">
-        <v>12.08</v>
+        <v>12.15</v>
       </c>
       <c r="D106" t="n">
-        <v>12.08</v>
+        <v>12.15</v>
       </c>
       <c r="E106" t="n">
-        <v>12.08</v>
+        <v>12.15</v>
       </c>
       <c r="F106" t="n">
-        <v>11904.5064</v>
+        <v>5264.9453</v>
       </c>
       <c r="G106" t="n">
-        <v>12.15866666666668</v>
+        <v>12.15650000000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4121,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4138,22 +4128,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.05</v>
+        <v>12.08</v>
       </c>
       <c r="C107" t="n">
-        <v>12.01</v>
+        <v>12.08</v>
       </c>
       <c r="D107" t="n">
-        <v>12.05</v>
+        <v>12.08</v>
       </c>
       <c r="E107" t="n">
-        <v>12.01</v>
+        <v>12.08</v>
       </c>
       <c r="F107" t="n">
-        <v>67041.3982</v>
+        <v>11904.5064</v>
       </c>
       <c r="G107" t="n">
-        <v>12.15750000000001</v>
+        <v>12.15866666666668</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4162,14 +4152,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4179,22 +4163,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.02</v>
+        <v>12.05</v>
       </c>
       <c r="C108" t="n">
-        <v>12.02</v>
+        <v>12.01</v>
       </c>
       <c r="D108" t="n">
-        <v>12.02</v>
+        <v>12.05</v>
       </c>
       <c r="E108" t="n">
-        <v>12.02</v>
+        <v>12.01</v>
       </c>
       <c r="F108" t="n">
-        <v>1283.3944</v>
+        <v>67041.3982</v>
       </c>
       <c r="G108" t="n">
-        <v>12.15650000000001</v>
+        <v>12.15750000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4203,14 +4187,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4232,10 +4210,10 @@
         <v>12.02</v>
       </c>
       <c r="F109" t="n">
-        <v>51.6775</v>
+        <v>1283.3944</v>
       </c>
       <c r="G109" t="n">
-        <v>12.15783333333334</v>
+        <v>12.15650000000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4244,14 +4222,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4273,10 +4245,10 @@
         <v>12.02</v>
       </c>
       <c r="F110" t="n">
-        <v>18023.7569</v>
+        <v>51.6775</v>
       </c>
       <c r="G110" t="n">
-        <v>12.15700000000001</v>
+        <v>12.15783333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4285,14 +4257,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4302,40 +4268,32 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.11</v>
+        <v>12.02</v>
       </c>
       <c r="C111" t="n">
-        <v>12.11</v>
+        <v>12.02</v>
       </c>
       <c r="D111" t="n">
-        <v>12.11</v>
+        <v>12.02</v>
       </c>
       <c r="E111" t="n">
-        <v>12.11</v>
+        <v>12.02</v>
       </c>
       <c r="F111" t="n">
-        <v>42</v>
+        <v>18023.7569</v>
       </c>
       <c r="G111" t="n">
-        <v>12.15966666666667</v>
+        <v>12.15700000000001</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="K111" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4360,25 +4318,17 @@
         <v>42</v>
       </c>
       <c r="G112" t="n">
-        <v>12.16133333333334</v>
+        <v>12.15966666666667</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="K112" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4388,22 +4338,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.14</v>
+        <v>12.11</v>
       </c>
       <c r="C113" t="n">
-        <v>12.03</v>
+        <v>12.11</v>
       </c>
       <c r="D113" t="n">
-        <v>12.14</v>
+        <v>12.11</v>
       </c>
       <c r="E113" t="n">
-        <v>12.03</v>
+        <v>12.11</v>
       </c>
       <c r="F113" t="n">
-        <v>2349</v>
+        <v>42</v>
       </c>
       <c r="G113" t="n">
-        <v>12.16266666666667</v>
+        <v>12.16133333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4412,14 +4362,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4432,19 +4376,19 @@
         <v>12.14</v>
       </c>
       <c r="C114" t="n">
-        <v>12.14</v>
+        <v>12.03</v>
       </c>
       <c r="D114" t="n">
         <v>12.14</v>
       </c>
       <c r="E114" t="n">
-        <v>12.14</v>
+        <v>12.03</v>
       </c>
       <c r="F114" t="n">
-        <v>42</v>
+        <v>2349</v>
       </c>
       <c r="G114" t="n">
-        <v>12.166</v>
+        <v>12.16266666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4453,14 +4397,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4470,22 +4408,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.04</v>
+        <v>12.14</v>
       </c>
       <c r="C115" t="n">
-        <v>12.03</v>
+        <v>12.14</v>
       </c>
       <c r="D115" t="n">
-        <v>12.04</v>
+        <v>12.14</v>
       </c>
       <c r="E115" t="n">
-        <v>12.03</v>
+        <v>12.14</v>
       </c>
       <c r="F115" t="n">
-        <v>15068</v>
+        <v>42</v>
       </c>
       <c r="G115" t="n">
-        <v>12.16733333333334</v>
+        <v>12.166</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4494,14 +4432,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4511,22 +4443,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.13</v>
+        <v>12.04</v>
       </c>
       <c r="C116" t="n">
-        <v>12.13</v>
+        <v>12.03</v>
       </c>
       <c r="D116" t="n">
-        <v>12.13</v>
+        <v>12.04</v>
       </c>
       <c r="E116" t="n">
-        <v>12.13</v>
+        <v>12.03</v>
       </c>
       <c r="F116" t="n">
-        <v>42</v>
+        <v>15068</v>
       </c>
       <c r="G116" t="n">
-        <v>12.16916666666667</v>
+        <v>12.16733333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4535,14 +4467,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4552,22 +4478,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>12.03</v>
+        <v>12.13</v>
       </c>
       <c r="C117" t="n">
-        <v>12.03</v>
+        <v>12.13</v>
       </c>
       <c r="D117" t="n">
-        <v>12.03</v>
+        <v>12.13</v>
       </c>
       <c r="E117" t="n">
-        <v>12.03</v>
+        <v>12.13</v>
       </c>
       <c r="F117" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G117" t="n">
-        <v>12.16733333333334</v>
+        <v>12.16916666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4576,14 +4502,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4593,22 +4513,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12.23</v>
+        <v>12.03</v>
       </c>
       <c r="C118" t="n">
-        <v>12.23</v>
+        <v>12.03</v>
       </c>
       <c r="D118" t="n">
-        <v>12.23</v>
+        <v>12.03</v>
       </c>
       <c r="E118" t="n">
-        <v>12.23</v>
+        <v>12.03</v>
       </c>
       <c r="F118" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G118" t="n">
-        <v>12.168</v>
+        <v>12.16733333333334</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4617,14 +4537,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4634,22 +4548,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12.09</v>
+        <v>12.23</v>
       </c>
       <c r="C119" t="n">
-        <v>12.08</v>
+        <v>12.23</v>
       </c>
       <c r="D119" t="n">
-        <v>12.09</v>
+        <v>12.23</v>
       </c>
       <c r="E119" t="n">
-        <v>12.08</v>
+        <v>12.23</v>
       </c>
       <c r="F119" t="n">
-        <v>20530.41</v>
+        <v>41</v>
       </c>
       <c r="G119" t="n">
-        <v>12.165</v>
+        <v>12.168</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4658,14 +4572,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4675,22 +4583,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="C120" t="n">
         <v>12.08</v>
       </c>
-      <c r="C120" t="n">
-        <v>12.03</v>
-      </c>
       <c r="D120" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="E120" t="n">
         <v>12.08</v>
       </c>
-      <c r="E120" t="n">
-        <v>12.03</v>
-      </c>
       <c r="F120" t="n">
-        <v>2506</v>
+        <v>20530.41</v>
       </c>
       <c r="G120" t="n">
-        <v>12.15966666666667</v>
+        <v>12.165</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4699,14 +4607,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4716,22 +4618,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>12.2</v>
+        <v>12.08</v>
       </c>
       <c r="C121" t="n">
-        <v>12.2</v>
+        <v>12.03</v>
       </c>
       <c r="D121" t="n">
-        <v>12.21</v>
+        <v>12.08</v>
       </c>
       <c r="E121" t="n">
-        <v>12.2</v>
+        <v>12.03</v>
       </c>
       <c r="F121" t="n">
-        <v>84</v>
+        <v>2506</v>
       </c>
       <c r="G121" t="n">
-        <v>12.1565</v>
+        <v>12.15966666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4740,14 +4642,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4757,22 +4653,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>12.17</v>
+        <v>12.2</v>
       </c>
       <c r="C122" t="n">
-        <v>12.06</v>
+        <v>12.2</v>
       </c>
       <c r="D122" t="n">
-        <v>12.17</v>
+        <v>12.21</v>
       </c>
       <c r="E122" t="n">
-        <v>12.06</v>
+        <v>12.2</v>
       </c>
       <c r="F122" t="n">
-        <v>20502.41</v>
+        <v>84</v>
       </c>
       <c r="G122" t="n">
-        <v>12.15</v>
+        <v>12.1565</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4781,14 +4677,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4798,39 +4688,68 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="C123" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="D123" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="E123" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="F123" t="n">
+        <v>20502.41</v>
+      </c>
+      <c r="G123" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
         <v>12.23</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C124" t="n">
         <v>12.03</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D124" t="n">
         <v>12.23</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E124" t="n">
         <v>12.03</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F124" t="n">
         <v>31282.5698</v>
       </c>
-      <c r="G123" t="n">
+      <c r="G124" t="n">
         <v>12.14316666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-22 BackTest TRV.xlsx
+++ b/BackTest/2020-01-22 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M124"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>42</v>
       </c>
       <c r="G2" t="n">
+        <v>12.02066666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>11.97799999999999</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>24691.0125</v>
       </c>
       <c r="G3" t="n">
+        <v>12.01666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>11.97999999999999</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>34440.8622</v>
       </c>
       <c r="G4" t="n">
+        <v>12.00466666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>11.98316666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1726.3091</v>
       </c>
       <c r="G5" t="n">
+        <v>11.98933333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>11.98549999999999</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>55531.8986</v>
       </c>
       <c r="G6" t="n">
+        <v>11.98066666666667</v>
+      </c>
+      <c r="H6" t="n">
         <v>11.988</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>28895.5459</v>
       </c>
       <c r="G7" t="n">
+        <v>11.98466666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>11.98916666666666</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>86501.61139999999</v>
       </c>
       <c r="G8" t="n">
+        <v>11.97333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>11.98916666666666</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,25 @@
         <v>10000</v>
       </c>
       <c r="G9" t="n">
+        <v>11.97066666666667</v>
+      </c>
+      <c r="H9" t="n">
         <v>11.989</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="L9" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,22 +761,29 @@
         <v>852.9251</v>
       </c>
       <c r="G10" t="n">
+        <v>11.97066666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>11.98933333333333</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>11.87</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>11.87</v>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -767,26 +807,29 @@
         <v>6841.9735</v>
       </c>
       <c r="G11" t="n">
+        <v>11.97066666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>11.98966666666666</v>
       </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>11.91</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>11.87</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -810,26 +853,25 @@
         <v>39966.377</v>
       </c>
       <c r="G12" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="H12" t="n">
         <v>11.99133333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>11.91</v>
       </c>
-      <c r="K12" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -853,18 +895,29 @@
         <v>14967.0747</v>
       </c>
       <c r="G13" t="n">
+        <v>11.98866666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>11.99533333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="L13" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -888,18 +941,27 @@
         <v>218.5619</v>
       </c>
       <c r="G14" t="n">
+        <v>11.996</v>
+      </c>
+      <c r="H14" t="n">
         <v>11.999</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="L14" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -923,18 +985,21 @@
         <v>14259</v>
       </c>
       <c r="G15" t="n">
+        <v>11.99333333333334</v>
+      </c>
+      <c r="H15" t="n">
         <v>11.99933333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -958,18 +1023,21 @@
         <v>41.4251</v>
       </c>
       <c r="G16" t="n">
+        <v>12.00666666666667</v>
+      </c>
+      <c r="H16" t="n">
         <v>12.00033333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -993,18 +1061,21 @@
         <v>41228.1915</v>
       </c>
       <c r="G17" t="n">
+        <v>11.98866666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>12.00033333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1028,18 +1099,21 @@
         <v>41.4251</v>
       </c>
       <c r="G18" t="n">
+        <v>11.98533333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>12.00133333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1063,18 +1137,21 @@
         <v>3731.9738</v>
       </c>
       <c r="G19" t="n">
+        <v>11.97866666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>11.99933333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,18 +1175,21 @@
         <v>1660.6024</v>
       </c>
       <c r="G20" t="n">
+        <v>11.97733333333334</v>
+      </c>
+      <c r="H20" t="n">
         <v>11.998</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1133,18 +1213,21 @@
         <v>42</v>
       </c>
       <c r="G21" t="n">
+        <v>11.982</v>
+      </c>
+      <c r="H21" t="n">
         <v>11.9985</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,18 +1251,21 @@
         <v>50205.8385</v>
       </c>
       <c r="G22" t="n">
+        <v>11.97733333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>11.99983333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1203,18 +1289,21 @@
         <v>20000</v>
       </c>
       <c r="G23" t="n">
+        <v>11.98133333333334</v>
+      </c>
+      <c r="H23" t="n">
         <v>11.99966666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,18 +1327,25 @@
         <v>17225.2894</v>
       </c>
       <c r="G24" t="n">
+        <v>11.98533333333334</v>
+      </c>
+      <c r="H24" t="n">
         <v>11.99949999999999</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L24" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1273,18 +1369,29 @@
         <v>25027.9771</v>
       </c>
       <c r="G25" t="n">
+        <v>11.988</v>
+      </c>
+      <c r="H25" t="n">
         <v>11.99966666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L25" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1308,18 +1415,29 @@
         <v>15351.2296</v>
       </c>
       <c r="G26" t="n">
+        <v>11.99066666666667</v>
+      </c>
+      <c r="H26" t="n">
         <v>12.00033333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="L26" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1343,18 +1461,25 @@
         <v>83.49379999999999</v>
       </c>
       <c r="G27" t="n">
+        <v>11.98733333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>12.00349999999999</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="L27" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1378,18 +1503,29 @@
         <v>0.5062</v>
       </c>
       <c r="G28" t="n">
+        <v>11.98333333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>12.00649999999999</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="L28" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1413,18 +1549,27 @@
         <v>14546</v>
       </c>
       <c r="G29" t="n">
+        <v>11.96866666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>12.00583333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1448,18 +1593,27 @@
         <v>42</v>
       </c>
       <c r="G30" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="H30" t="n">
         <v>12.00916666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1483,18 +1637,27 @@
         <v>50</v>
       </c>
       <c r="G31" t="n">
+        <v>11.97933333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>12.01283333333332</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1518,18 +1681,27 @@
         <v>42</v>
       </c>
       <c r="G32" t="n">
+        <v>11.98866666666667</v>
+      </c>
+      <c r="H32" t="n">
         <v>12.01633333333332</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1553,18 +1725,27 @@
         <v>61733.4252</v>
       </c>
       <c r="G33" t="n">
+        <v>11.972</v>
+      </c>
+      <c r="H33" t="n">
         <v>12.01349999999999</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1588,18 +1769,27 @@
         <v>3175.0753</v>
       </c>
       <c r="G34" t="n">
+        <v>11.97266666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>12.01216666666666</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1623,18 +1813,27 @@
         <v>3533.4512</v>
       </c>
       <c r="G35" t="n">
+        <v>11.97066666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>12.01066666666666</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1658,18 +1857,27 @@
         <v>9687.283600000001</v>
       </c>
       <c r="G36" t="n">
+        <v>11.95666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>12.00783333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1693,18 +1901,29 @@
         <v>34698.1853</v>
       </c>
       <c r="G37" t="n">
+        <v>11.942</v>
+      </c>
+      <c r="H37" t="n">
         <v>12.00466666666666</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="L37" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1728,18 +1947,29 @@
         <v>42</v>
       </c>
       <c r="G38" t="n">
+        <v>11.946</v>
+      </c>
+      <c r="H38" t="n">
         <v>12.00349999999999</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="L38" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1763,18 +1993,29 @@
         <v>127.8395</v>
       </c>
       <c r="G39" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="H39" t="n">
         <v>12.00033333333332</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="L39" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1798,18 +2039,27 @@
         <v>28667.7315</v>
       </c>
       <c r="G40" t="n">
+        <v>11.95266666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>11.99866666666666</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1833,18 +2083,27 @@
         <v>3533.4512</v>
       </c>
       <c r="G41" t="n">
+        <v>11.956</v>
+      </c>
+      <c r="H41" t="n">
         <v>11.99699999999999</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1868,18 +2127,27 @@
         <v>7676.076</v>
       </c>
       <c r="G42" t="n">
+        <v>11.952</v>
+      </c>
+      <c r="H42" t="n">
         <v>11.99533333333332</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1903,18 +2171,27 @@
         <v>2700</v>
       </c>
       <c r="G43" t="n">
+        <v>11.94866666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>11.99499999999999</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1938,18 +2215,27 @@
         <v>17360.0089</v>
       </c>
       <c r="G44" t="n">
+        <v>11.95733333333334</v>
+      </c>
+      <c r="H44" t="n">
         <v>11.99199999999999</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1973,18 +2259,27 @@
         <v>42.9999</v>
       </c>
       <c r="G45" t="n">
+        <v>11.95866666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>11.99166666666666</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,18 +2303,27 @@
         <v>41.0001</v>
       </c>
       <c r="G46" t="n">
+        <v>11.95933333333334</v>
+      </c>
+      <c r="H46" t="n">
         <v>11.99099999999999</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2043,18 +2347,27 @@
         <v>18224.8803</v>
       </c>
       <c r="G47" t="n">
+        <v>11.95533333333334</v>
+      </c>
+      <c r="H47" t="n">
         <v>11.98833333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2078,18 +2391,27 @@
         <v>42</v>
       </c>
       <c r="G48" t="n">
+        <v>11.97266666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>11.98666666666666</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2113,18 +2435,27 @@
         <v>862.1411000000001</v>
       </c>
       <c r="G49" t="n">
+        <v>11.98400000000001</v>
+      </c>
+      <c r="H49" t="n">
         <v>11.985</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,18 +2479,27 @@
         <v>14816</v>
       </c>
       <c r="G50" t="n">
+        <v>11.98666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>11.981</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2183,18 +2523,27 @@
         <v>1000</v>
       </c>
       <c r="G51" t="n">
+        <v>12.00333333333334</v>
+      </c>
+      <c r="H51" t="n">
         <v>11.98066666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2218,18 +2567,27 @@
         <v>10780.8582</v>
       </c>
       <c r="G52" t="n">
+        <v>12.01266666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>11.97916666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2253,18 +2611,27 @@
         <v>42</v>
       </c>
       <c r="G53" t="n">
+        <v>12.014</v>
+      </c>
+      <c r="H53" t="n">
         <v>11.97866666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2288,18 +2655,27 @@
         <v>342.1418</v>
       </c>
       <c r="G54" t="n">
+        <v>12.01133333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>11.97933333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="L54" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2323,18 +2699,27 @@
         <v>842.5176</v>
       </c>
       <c r="G55" t="n">
+        <v>12.008</v>
+      </c>
+      <c r="H55" t="n">
         <v>11.97983333333334</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2358,18 +2743,27 @@
         <v>124507.949</v>
       </c>
       <c r="G56" t="n">
+        <v>12.00466666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>11.9805</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2393,18 +2787,27 @@
         <v>21757.3493</v>
       </c>
       <c r="G57" t="n">
+        <v>12.006</v>
+      </c>
+      <c r="H57" t="n">
         <v>11.98133333333334</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,18 +2831,27 @@
         <v>162284.2769</v>
       </c>
       <c r="G58" t="n">
+        <v>12.01533333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>11.984</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2463,18 +2875,27 @@
         <v>235544.2812</v>
       </c>
       <c r="G59" t="n">
+        <v>12.028</v>
+      </c>
+      <c r="H59" t="n">
         <v>11.9875</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2498,18 +2919,27 @@
         <v>1032.0253</v>
       </c>
       <c r="G60" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="H60" t="n">
         <v>11.993</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2533,18 +2963,27 @@
         <v>240762.7536</v>
       </c>
       <c r="G61" t="n">
+        <v>12.05866666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>12.001</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2568,18 +3007,27 @@
         <v>226745.5374</v>
       </c>
       <c r="G62" t="n">
+        <v>12.088</v>
+      </c>
+      <c r="H62" t="n">
         <v>12.00516666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2603,18 +3051,27 @@
         <v>102437.2155</v>
       </c>
       <c r="G63" t="n">
+        <v>12.11266666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>12.01066666666667</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,18 +3095,27 @@
         <v>770.776</v>
       </c>
       <c r="G64" t="n">
+        <v>12.13666666666666</v>
+      </c>
+      <c r="H64" t="n">
         <v>12.01800000000001</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2673,18 +3139,27 @@
         <v>816.3988000000001</v>
       </c>
       <c r="G65" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="H65" t="n">
         <v>12.02616666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2708,18 +3183,27 @@
         <v>44636.6999</v>
       </c>
       <c r="G66" t="n">
+        <v>12.19466666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>12.03416666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,18 +3227,27 @@
         <v>110</v>
       </c>
       <c r="G67" t="n">
+        <v>12.22133333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>12.03833333333334</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2778,18 +3271,27 @@
         <v>27361.492</v>
       </c>
       <c r="G68" t="n">
+        <v>12.24933333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>12.04766666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2813,18 +3315,27 @@
         <v>158930.2328</v>
       </c>
       <c r="G69" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="H69" t="n">
         <v>12.05166666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,18 +3359,27 @@
         <v>99</v>
       </c>
       <c r="G70" t="n">
+        <v>12.28866666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>12.05933333333334</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2883,18 +3403,27 @@
         <v>8216.151599999999</v>
       </c>
       <c r="G71" t="n">
+        <v>12.31666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>12.06700000000001</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2918,19 +3447,28 @@
         <v>41</v>
       </c>
       <c r="G72" t="n">
+        <v>12.33933333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>12.07116666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
+      <c r="L72" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>1.029309623430962</v>
       </c>
     </row>
     <row r="73">
@@ -2953,18 +3491,21 @@
         <v>83</v>
       </c>
       <c r="G73" t="n">
+        <v>12.354</v>
+      </c>
+      <c r="H73" t="n">
         <v>12.07533333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2988,18 +3529,21 @@
         <v>16134.8063</v>
       </c>
       <c r="G74" t="n">
+        <v>12.356</v>
+      </c>
+      <c r="H74" t="n">
         <v>12.07750000000001</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3023,18 +3567,21 @@
         <v>50</v>
       </c>
       <c r="G75" t="n">
+        <v>12.354</v>
+      </c>
+      <c r="H75" t="n">
         <v>12.08316666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3058,18 +3605,21 @@
         <v>49</v>
       </c>
       <c r="G76" t="n">
+        <v>12.34466666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>12.08550000000001</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3093,18 +3643,21 @@
         <v>21999.8737</v>
       </c>
       <c r="G77" t="n">
+        <v>12.33866666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>12.09266666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3128,18 +3681,21 @@
         <v>121</v>
       </c>
       <c r="G78" t="n">
+        <v>12.32866666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>12.0965</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3163,18 +3719,21 @@
         <v>1223.6582</v>
       </c>
       <c r="G79" t="n">
+        <v>12.31933333333334</v>
+      </c>
+      <c r="H79" t="n">
         <v>12.10316666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3198,18 +3757,21 @@
         <v>28739.4609</v>
       </c>
       <c r="G80" t="n">
+        <v>12.29800000000001</v>
+      </c>
+      <c r="H80" t="n">
         <v>12.10633333333334</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3233,18 +3795,21 @@
         <v>29551.3407</v>
       </c>
       <c r="G81" t="n">
+        <v>12.28466666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>12.10983333333334</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,18 +3833,21 @@
         <v>265434.0665</v>
       </c>
       <c r="G82" t="n">
+        <v>12.26133333333334</v>
+      </c>
+      <c r="H82" t="n">
         <v>12.10933333333334</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3303,18 +3871,21 @@
         <v>158930.2328</v>
       </c>
       <c r="G83" t="n">
+        <v>12.23133333333334</v>
+      </c>
+      <c r="H83" t="n">
         <v>12.11016666666668</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3338,18 +3909,21 @@
         <v>19981.4137</v>
       </c>
       <c r="G84" t="n">
+        <v>12.23000000000001</v>
+      </c>
+      <c r="H84" t="n">
         <v>12.11283333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3373,18 +3947,21 @@
         <v>2433.558</v>
       </c>
       <c r="G85" t="n">
+        <v>12.20466666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>12.11350000000001</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,18 +3985,21 @@
         <v>19412.3212</v>
       </c>
       <c r="G86" t="n">
+        <v>12.18133333333334</v>
+      </c>
+      <c r="H86" t="n">
         <v>12.11466666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3443,18 +4023,21 @@
         <v>33643.14</v>
       </c>
       <c r="G87" t="n">
+        <v>12.15800000000001</v>
+      </c>
+      <c r="H87" t="n">
         <v>12.11383333333334</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,18 +4061,21 @@
         <v>14000</v>
       </c>
       <c r="G88" t="n">
+        <v>12.13533333333334</v>
+      </c>
+      <c r="H88" t="n">
         <v>12.11333333333334</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3513,18 +4099,21 @@
         <v>47</v>
       </c>
       <c r="G89" t="n">
+        <v>12.12266666666668</v>
+      </c>
+      <c r="H89" t="n">
         <v>12.11600000000001</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3548,18 +4137,21 @@
         <v>46</v>
       </c>
       <c r="G90" t="n">
+        <v>12.11000000000001</v>
+      </c>
+      <c r="H90" t="n">
         <v>12.11566666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3583,18 +4175,21 @@
         <v>9408.272199999999</v>
       </c>
       <c r="G91" t="n">
+        <v>12.10133333333334</v>
+      </c>
+      <c r="H91" t="n">
         <v>12.11600000000001</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3618,18 +4213,21 @@
         <v>18882.279</v>
       </c>
       <c r="G92" t="n">
+        <v>12.08666666666668</v>
+      </c>
+      <c r="H92" t="n">
         <v>12.11716666666668</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3653,18 +4251,21 @@
         <v>34139.14</v>
       </c>
       <c r="G93" t="n">
+        <v>12.07466666666668</v>
+      </c>
+      <c r="H93" t="n">
         <v>12.12216666666668</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3688,18 +4289,21 @@
         <v>14495.0481</v>
       </c>
       <c r="G94" t="n">
+        <v>12.06600000000001</v>
+      </c>
+      <c r="H94" t="n">
         <v>12.12650000000001</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3723,18 +4327,21 @@
         <v>29895.1174</v>
       </c>
       <c r="G95" t="n">
+        <v>12.07133333333334</v>
+      </c>
+      <c r="H95" t="n">
         <v>12.13150000000001</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,18 +4365,21 @@
         <v>1154.3915</v>
       </c>
       <c r="G96" t="n">
+        <v>12.06933333333334</v>
+      </c>
+      <c r="H96" t="n">
         <v>12.13800000000001</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,18 +4403,21 @@
         <v>9096.7556</v>
       </c>
       <c r="G97" t="n">
+        <v>12.08266666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>12.14450000000001</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3828,18 +4441,21 @@
         <v>18818.3285</v>
       </c>
       <c r="G98" t="n">
+        <v>12.09066666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>12.14633333333335</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3863,18 +4479,21 @@
         <v>8257.151599999999</v>
       </c>
       <c r="G99" t="n">
+        <v>12.08733333333334</v>
+      </c>
+      <c r="H99" t="n">
         <v>12.14716666666668</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3898,18 +4517,21 @@
         <v>42</v>
       </c>
       <c r="G100" t="n">
+        <v>12.10066666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>12.15050000000001</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3933,18 +4555,21 @@
         <v>6206.91</v>
       </c>
       <c r="G101" t="n">
+        <v>12.10933333333334</v>
+      </c>
+      <c r="H101" t="n">
         <v>12.15300000000001</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3968,18 +4593,21 @@
         <v>2218.4334</v>
       </c>
       <c r="G102" t="n">
+        <v>12.11066666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>12.15350000000001</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4003,18 +4631,21 @@
         <v>4000</v>
       </c>
       <c r="G103" t="n">
+        <v>12.11133333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>12.15400000000001</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4038,18 +4669,21 @@
         <v>478307.7198</v>
       </c>
       <c r="G104" t="n">
+        <v>12.10933333333334</v>
+      </c>
+      <c r="H104" t="n">
         <v>12.15400000000001</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4073,18 +4707,21 @@
         <v>664.3946</v>
       </c>
       <c r="G105" t="n">
+        <v>12.11666666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>12.15516666666668</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4108,18 +4745,21 @@
         <v>5264.9453</v>
       </c>
       <c r="G106" t="n">
+        <v>12.12133333333334</v>
+      </c>
+      <c r="H106" t="n">
         <v>12.15650000000001</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4143,18 +4783,21 @@
         <v>11904.5064</v>
       </c>
       <c r="G107" t="n">
+        <v>12.12133333333334</v>
+      </c>
+      <c r="H107" t="n">
         <v>12.15866666666668</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,18 +4821,21 @@
         <v>67041.3982</v>
       </c>
       <c r="G108" t="n">
+        <v>12.114</v>
+      </c>
+      <c r="H108" t="n">
         <v>12.15750000000001</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4213,18 +4859,21 @@
         <v>1283.3944</v>
       </c>
       <c r="G109" t="n">
+        <v>12.10400000000001</v>
+      </c>
+      <c r="H109" t="n">
         <v>12.15650000000001</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4248,18 +4897,21 @@
         <v>51.6775</v>
       </c>
       <c r="G110" t="n">
+        <v>12.09200000000001</v>
+      </c>
+      <c r="H110" t="n">
         <v>12.15783333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4283,18 +4935,21 @@
         <v>18023.7569</v>
       </c>
       <c r="G111" t="n">
+        <v>12.07933333333334</v>
+      </c>
+      <c r="H111" t="n">
         <v>12.15700000000001</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4318,18 +4973,21 @@
         <v>42</v>
       </c>
       <c r="G112" t="n">
+        <v>12.07333333333334</v>
+      </c>
+      <c r="H112" t="n">
         <v>12.15966666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4353,18 +5011,21 @@
         <v>42</v>
       </c>
       <c r="G113" t="n">
+        <v>12.07400000000001</v>
+      </c>
+      <c r="H113" t="n">
         <v>12.16133333333334</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4388,18 +5049,21 @@
         <v>2349</v>
       </c>
       <c r="G114" t="n">
+        <v>12.07333333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>12.16266666666667</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,18 +5087,21 @@
         <v>42</v>
       </c>
       <c r="G115" t="n">
+        <v>12.07000000000001</v>
+      </c>
+      <c r="H115" t="n">
         <v>12.166</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4458,18 +5125,21 @@
         <v>15068</v>
       </c>
       <c r="G116" t="n">
+        <v>12.06200000000001</v>
+      </c>
+      <c r="H116" t="n">
         <v>12.16733333333334</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4493,18 +5163,21 @@
         <v>42</v>
       </c>
       <c r="G117" t="n">
+        <v>12.06866666666668</v>
+      </c>
+      <c r="H117" t="n">
         <v>12.16916666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,18 +5201,21 @@
         <v>55</v>
       </c>
       <c r="G118" t="n">
+        <v>12.06866666666668</v>
+      </c>
+      <c r="H118" t="n">
         <v>12.16733333333334</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4563,18 +5239,21 @@
         <v>41</v>
       </c>
       <c r="G119" t="n">
+        <v>12.08400000000001</v>
+      </c>
+      <c r="H119" t="n">
         <v>12.168</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4598,18 +5277,21 @@
         <v>20530.41</v>
       </c>
       <c r="G120" t="n">
+        <v>12.07933333333335</v>
+      </c>
+      <c r="H120" t="n">
         <v>12.165</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4633,18 +5315,21 @@
         <v>2506</v>
       </c>
       <c r="G121" t="n">
+        <v>12.07133333333334</v>
+      </c>
+      <c r="H121" t="n">
         <v>12.15966666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4668,18 +5353,21 @@
         <v>84</v>
       </c>
       <c r="G122" t="n">
+        <v>12.07933333333334</v>
+      </c>
+      <c r="H122" t="n">
         <v>12.1565</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4703,18 +5391,21 @@
         <v>20502.41</v>
       </c>
       <c r="G123" t="n">
+        <v>12.08266666666668</v>
+      </c>
+      <c r="H123" t="n">
         <v>12.15</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4738,18 +5429,401 @@
         <v>31282.5698</v>
       </c>
       <c r="G124" t="n">
+        <v>12.08333333333334</v>
+      </c>
+      <c r="H124" t="n">
         <v>12.14316666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="C125" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="D125" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="E125" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="F125" t="n">
+        <v>50</v>
+      </c>
+      <c r="G125" t="n">
+        <v>12.09666666666667</v>
+      </c>
+      <c r="H125" t="n">
+        <v>12.1395</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D126" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>5589</v>
+      </c>
+      <c r="G126" t="n">
+        <v>12.10200000000001</v>
+      </c>
+      <c r="H126" t="n">
+        <v>12.13383333333333</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="C127" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="D127" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="E127" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="F127" t="n">
+        <v>50</v>
+      </c>
+      <c r="G127" t="n">
+        <v>12.10866666666667</v>
+      </c>
+      <c r="H127" t="n">
+        <v>12.1315</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="D128" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="E128" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>36623.8336</v>
+      </c>
+      <c r="G128" t="n">
+        <v>12.11533333333334</v>
+      </c>
+      <c r="H128" t="n">
+        <v>12.12783333333333</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="C129" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D129" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="E129" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>23306.8585</v>
+      </c>
+      <c r="G129" t="n">
+        <v>12.12000000000001</v>
+      </c>
+      <c r="H129" t="n">
+        <v>12.12766666666667</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="C130" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D130" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E130" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F130" t="n">
+        <v>213469.5572</v>
+      </c>
+      <c r="G130" t="n">
+        <v>12.12066666666667</v>
+      </c>
+      <c r="H130" t="n">
+        <v>12.124</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="C131" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="D131" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="E131" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="F131" t="n">
+        <v>50</v>
+      </c>
+      <c r="G131" t="n">
+        <v>12.13533333333334</v>
+      </c>
+      <c r="H131" t="n">
+        <v>12.122</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="C132" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="D132" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="E132" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F132" t="n">
+        <v>213477.5572</v>
+      </c>
+      <c r="G132" t="n">
+        <v>12.14333333333334</v>
+      </c>
+      <c r="H132" t="n">
+        <v>12.12016666666667</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="C133" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D133" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E133" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3436.394</v>
+      </c>
+      <c r="G133" t="n">
+        <v>12.15133333333334</v>
+      </c>
+      <c r="H133" t="n">
+        <v>12.11666666666667</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="C134" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D134" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E134" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F134" t="n">
+        <v>67288.3337</v>
+      </c>
+      <c r="G134" t="n">
+        <v>12.14600000000001</v>
+      </c>
+      <c r="H134" t="n">
+        <v>12.1155</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-22 BackTest TRV.xlsx
+++ b/BackTest/2020-01-22 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:N121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.99</v>
+        <v>11.9</v>
       </c>
       <c r="C2" t="n">
-        <v>11.99</v>
+        <v>11.89</v>
       </c>
       <c r="D2" t="n">
-        <v>11.99</v>
+        <v>11.9</v>
       </c>
       <c r="E2" t="n">
-        <v>11.99</v>
+        <v>11.89</v>
       </c>
       <c r="F2" t="n">
-        <v>2536.1475</v>
+        <v>14259</v>
       </c>
       <c r="G2" t="n">
-        <v>-889844.8293024213</v>
+        <v>-981747.0132024213</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.99</v>
+        <v>12.07</v>
       </c>
       <c r="C3" t="n">
-        <v>11.99</v>
+        <v>12.07</v>
       </c>
       <c r="D3" t="n">
-        <v>11.99</v>
+        <v>12.07</v>
       </c>
       <c r="E3" t="n">
-        <v>11.99</v>
+        <v>12.07</v>
       </c>
       <c r="F3" t="n">
-        <v>13688.3783</v>
+        <v>41.4251</v>
       </c>
       <c r="G3" t="n">
-        <v>-889844.8293024213</v>
+        <v>-981705.5881024213</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.99</v>
+        <v>11.9</v>
       </c>
       <c r="C4" t="n">
-        <v>11.99</v>
+        <v>11.87</v>
       </c>
       <c r="D4" t="n">
-        <v>11.99</v>
+        <v>11.9</v>
       </c>
       <c r="E4" t="n">
-        <v>11.99</v>
+        <v>11.87</v>
       </c>
       <c r="F4" t="n">
-        <v>9617.213400000001</v>
+        <v>41228.1915</v>
       </c>
       <c r="G4" t="n">
-        <v>-889844.8293024213</v>
+        <v>-1022933.779602421</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.99</v>
+        <v>12.07</v>
       </c>
       <c r="C5" t="n">
-        <v>11.99</v>
+        <v>12.07</v>
       </c>
       <c r="D5" t="n">
-        <v>11.99</v>
+        <v>12.07</v>
       </c>
       <c r="E5" t="n">
-        <v>11.99</v>
+        <v>12.07</v>
       </c>
       <c r="F5" t="n">
-        <v>2957.5888</v>
+        <v>41.4251</v>
       </c>
       <c r="G5" t="n">
-        <v>-889844.8293024213</v>
+        <v>-1022892.354502421</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.99</v>
+        <v>11.9</v>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E6" t="n">
-        <v>11.99</v>
+        <v>11.9</v>
       </c>
       <c r="F6" t="n">
-        <v>4496.6287</v>
+        <v>3731.9738</v>
       </c>
       <c r="G6" t="n">
-        <v>-885348.2006024213</v>
+        <v>-1026624.328302421</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.05</v>
+        <v>12.03</v>
       </c>
       <c r="C7" t="n">
-        <v>12.06</v>
+        <v>11.93</v>
       </c>
       <c r="D7" t="n">
-        <v>12.06</v>
+        <v>12.03</v>
       </c>
       <c r="E7" t="n">
-        <v>12.05</v>
+        <v>11.93</v>
       </c>
       <c r="F7" t="n">
-        <v>15000</v>
+        <v>1660.6024</v>
       </c>
       <c r="G7" t="n">
-        <v>-870348.2006024213</v>
+        <v>-1024963.725902421</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.08</v>
+        <v>12.03</v>
       </c>
       <c r="C8" t="n">
-        <v>12.18</v>
+        <v>12.03</v>
       </c>
       <c r="D8" t="n">
-        <v>12.18</v>
+        <v>12.03</v>
       </c>
       <c r="E8" t="n">
-        <v>12.08</v>
+        <v>12.03</v>
       </c>
       <c r="F8" t="n">
-        <v>78027.4184</v>
+        <v>42</v>
       </c>
       <c r="G8" t="n">
-        <v>-792320.7822024213</v>
+        <v>-1024921.725902421</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.09</v>
+        <v>12.03</v>
       </c>
       <c r="C9" t="n">
-        <v>12.09</v>
+        <v>12.03</v>
       </c>
       <c r="D9" t="n">
-        <v>12.09</v>
+        <v>12.03</v>
       </c>
       <c r="E9" t="n">
-        <v>12.09</v>
+        <v>12.03</v>
       </c>
       <c r="F9" t="n">
-        <v>10442.1593</v>
+        <v>50205.8385</v>
       </c>
       <c r="G9" t="n">
-        <v>-802762.9415024214</v>
+        <v>-1024921.725902421</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12.1</v>
+        <v>11.93</v>
       </c>
       <c r="C10" t="n">
-        <v>12.1</v>
+        <v>11.93</v>
       </c>
       <c r="D10" t="n">
-        <v>12.1</v>
+        <v>11.93</v>
       </c>
       <c r="E10" t="n">
-        <v>12.1</v>
+        <v>11.93</v>
       </c>
       <c r="F10" t="n">
-        <v>20300</v>
+        <v>20000</v>
       </c>
       <c r="G10" t="n">
-        <v>-782462.9415024214</v>
+        <v>-1044921.725902421</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.1</v>
+        <v>11.93</v>
       </c>
       <c r="C11" t="n">
-        <v>12.1</v>
+        <v>11.93</v>
       </c>
       <c r="D11" t="n">
-        <v>12.1</v>
+        <v>11.93</v>
       </c>
       <c r="E11" t="n">
-        <v>12.1</v>
+        <v>11.93</v>
       </c>
       <c r="F11" t="n">
-        <v>14639.488</v>
+        <v>17225.2894</v>
       </c>
       <c r="G11" t="n">
-        <v>-782462.9415024214</v>
+        <v>-1044921.725902421</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,98 +791,113 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.04</v>
+        <v>11.95</v>
       </c>
       <c r="C12" t="n">
-        <v>12.02</v>
+        <v>11.95</v>
       </c>
       <c r="D12" t="n">
-        <v>12.04</v>
+        <v>11.95</v>
       </c>
       <c r="E12" t="n">
-        <v>12.02</v>
+        <v>11.95</v>
       </c>
       <c r="F12" t="n">
-        <v>78842.7032</v>
+        <v>25027.9771</v>
       </c>
       <c r="G12" t="n">
-        <v>-861305.6447024214</v>
+        <v>-1019893.748802421</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="K12" t="n">
+        <v>11.93</v>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.18</v>
+        <v>11.95</v>
       </c>
       <c r="C13" t="n">
-        <v>12.18</v>
+        <v>11.95</v>
       </c>
       <c r="D13" t="n">
-        <v>12.18</v>
+        <v>11.95</v>
       </c>
       <c r="E13" t="n">
-        <v>12.18</v>
+        <v>11.95</v>
       </c>
       <c r="F13" t="n">
-        <v>42</v>
+        <v>15351.2296</v>
       </c>
       <c r="G13" t="n">
-        <v>-861263.6447024214</v>
+        <v>-1019893.748802421</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="K13" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.1</v>
+        <v>12.05</v>
       </c>
       <c r="C14" t="n">
-        <v>12.1</v>
+        <v>12.06</v>
       </c>
       <c r="D14" t="n">
-        <v>12.1</v>
+        <v>12.06</v>
       </c>
       <c r="E14" t="n">
-        <v>12.1</v>
+        <v>12.05</v>
       </c>
       <c r="F14" t="n">
-        <v>14639.488</v>
+        <v>83.49379999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>-875903.1327024214</v>
+        <v>-1019810.255002421</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -877,33 +906,40 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.11</v>
+        <v>12.05</v>
       </c>
       <c r="C15" t="n">
-        <v>12.11</v>
+        <v>12.05</v>
       </c>
       <c r="D15" t="n">
-        <v>12.11</v>
+        <v>12.05</v>
       </c>
       <c r="E15" t="n">
-        <v>12.11</v>
+        <v>12.05</v>
       </c>
       <c r="F15" t="n">
-        <v>200</v>
+        <v>0.5062</v>
       </c>
       <c r="G15" t="n">
-        <v>-875703.1327024214</v>
+        <v>-1019810.761202421</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +953,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.11</v>
+        <v>11.93</v>
       </c>
       <c r="C16" t="n">
-        <v>12.11</v>
+        <v>11.87</v>
       </c>
       <c r="D16" t="n">
-        <v>12.11</v>
+        <v>11.93</v>
       </c>
       <c r="E16" t="n">
-        <v>12.11</v>
+        <v>11.87</v>
       </c>
       <c r="F16" t="n">
-        <v>13479.8198</v>
+        <v>14546</v>
       </c>
       <c r="G16" t="n">
-        <v>-875703.1327024214</v>
+        <v>-1034356.761202421</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +989,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.18</v>
+        <v>12.06</v>
       </c>
       <c r="C17" t="n">
-        <v>12.18</v>
+        <v>12.06</v>
       </c>
       <c r="D17" t="n">
-        <v>12.18</v>
+        <v>12.06</v>
       </c>
       <c r="E17" t="n">
-        <v>12.18</v>
+        <v>12.06</v>
       </c>
       <c r="F17" t="n">
         <v>42</v>
       </c>
       <c r="G17" t="n">
-        <v>-875661.1327024214</v>
+        <v>-1034314.761202421</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1025,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.18</v>
+        <v>12.06</v>
       </c>
       <c r="C18" t="n">
-        <v>12.18</v>
+        <v>12.06</v>
       </c>
       <c r="D18" t="n">
-        <v>12.18</v>
+        <v>12.06</v>
       </c>
       <c r="E18" t="n">
-        <v>12.18</v>
+        <v>12.06</v>
       </c>
       <c r="F18" t="n">
-        <v>16560.1212</v>
+        <v>50</v>
       </c>
       <c r="G18" t="n">
-        <v>-875661.1327024214</v>
+        <v>-1034314.761202421</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1061,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.18</v>
+        <v>12.01</v>
       </c>
       <c r="C19" t="n">
-        <v>12.18</v>
+        <v>12.01</v>
       </c>
       <c r="D19" t="n">
-        <v>12.18</v>
+        <v>12.01</v>
       </c>
       <c r="E19" t="n">
-        <v>12.18</v>
+        <v>12.01</v>
       </c>
       <c r="F19" t="n">
-        <v>934.5337</v>
+        <v>42</v>
       </c>
       <c r="G19" t="n">
-        <v>-875661.1327024214</v>
+        <v>-1034356.761202421</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1097,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.09</v>
+        <v>11.91</v>
       </c>
       <c r="C20" t="n">
-        <v>12.09</v>
+        <v>11.82</v>
       </c>
       <c r="D20" t="n">
-        <v>12.09</v>
+        <v>11.91</v>
       </c>
       <c r="E20" t="n">
-        <v>12.09</v>
+        <v>11.82</v>
       </c>
       <c r="F20" t="n">
-        <v>53303</v>
+        <v>61733.4252</v>
       </c>
       <c r="G20" t="n">
-        <v>-928964.1327024214</v>
+        <v>-1096090.186402421</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1133,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.09</v>
+        <v>11.91</v>
       </c>
       <c r="C21" t="n">
-        <v>12.04</v>
+        <v>11.91</v>
       </c>
       <c r="D21" t="n">
-        <v>12.09</v>
+        <v>11.91</v>
       </c>
       <c r="E21" t="n">
-        <v>12.04</v>
+        <v>11.91</v>
       </c>
       <c r="F21" t="n">
-        <v>2543.5619</v>
+        <v>3175.0753</v>
       </c>
       <c r="G21" t="n">
-        <v>-931507.6946024214</v>
+        <v>-1092915.111102421</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,448 +1169,541 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.02</v>
+        <v>11.9</v>
       </c>
       <c r="C22" t="n">
-        <v>12.04</v>
+        <v>11.9</v>
       </c>
       <c r="D22" t="n">
-        <v>12.04</v>
+        <v>11.9</v>
       </c>
       <c r="E22" t="n">
-        <v>11.97</v>
+        <v>11.9</v>
       </c>
       <c r="F22" t="n">
-        <v>183042</v>
+        <v>3533.4512</v>
       </c>
       <c r="G22" t="n">
-        <v>-931507.6946024214</v>
+        <v>-1096448.562302421</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="K22" t="n">
+        <v>11.91</v>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="C23" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="D23" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="E23" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="F23" t="n">
+        <v>9687.283600000001</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-1106135.845902421</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K23" t="n">
         <v>11.91</v>
       </c>
-      <c r="C23" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="D23" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="E23" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F23" t="n">
-        <v>12052.4289</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-943560.1235024214</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="C24" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="D24" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="E24" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F24" t="n">
+        <v>34698.1853</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-1140834.031202421</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="K24" t="n">
         <v>11.91</v>
       </c>
-      <c r="C24" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="D24" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="E24" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="F24" t="n">
-        <v>50</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-943560.1235024214</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.9</v>
+        <v>11.99</v>
       </c>
       <c r="C25" t="n">
-        <v>11.91</v>
+        <v>11.99</v>
       </c>
       <c r="D25" t="n">
-        <v>11.91</v>
+        <v>11.99</v>
       </c>
       <c r="E25" t="n">
-        <v>11.9</v>
+        <v>11.99</v>
       </c>
       <c r="F25" t="n">
-        <v>5342.8116</v>
+        <v>42</v>
       </c>
       <c r="G25" t="n">
-        <v>-943560.1235024214</v>
+        <v>-1140792.031202421</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="K25" t="n">
+        <v>11.81</v>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.97</v>
+        <v>11.99</v>
       </c>
       <c r="C26" t="n">
-        <v>11.97</v>
+        <v>11.99</v>
       </c>
       <c r="D26" t="n">
-        <v>11.97</v>
+        <v>11.99</v>
       </c>
       <c r="E26" t="n">
-        <v>11.97</v>
+        <v>11.99</v>
       </c>
       <c r="F26" t="n">
-        <v>10259.8648</v>
+        <v>127.8395</v>
       </c>
       <c r="G26" t="n">
-        <v>-933300.2587024214</v>
+        <v>-1140792.031202421</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="K26" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="C27" t="n">
-        <v>11.98</v>
+        <v>11.99</v>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="E27" t="n">
-        <v>11.98</v>
+        <v>11.99</v>
       </c>
       <c r="F27" t="n">
-        <v>5972.3604</v>
+        <v>28667.7315</v>
       </c>
       <c r="G27" t="n">
-        <v>-927327.8983024214</v>
+        <v>-1140792.031202421</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="K27" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.98</v>
+        <v>12</v>
       </c>
       <c r="C28" t="n">
-        <v>11.98</v>
+        <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>11.98</v>
+        <v>12</v>
       </c>
       <c r="E28" t="n">
-        <v>11.98</v>
+        <v>12</v>
       </c>
       <c r="F28" t="n">
-        <v>4287.5044</v>
+        <v>3533.4512</v>
       </c>
       <c r="G28" t="n">
-        <v>-927327.8983024214</v>
+        <v>-1137258.580002421</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="K28" t="n">
+        <v>11.99</v>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.93</v>
+        <v>12</v>
       </c>
       <c r="C29" t="n">
-        <v>11.93</v>
+        <v>12</v>
       </c>
       <c r="D29" t="n">
-        <v>11.93</v>
+        <v>12</v>
       </c>
       <c r="E29" t="n">
-        <v>11.93</v>
+        <v>12</v>
       </c>
       <c r="F29" t="n">
-        <v>13583</v>
+        <v>7676.076</v>
       </c>
       <c r="G29" t="n">
-        <v>-940910.8983024214</v>
+        <v>-1137258.580002421</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>12</v>
+      </c>
+      <c r="K29" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.96</v>
+        <v>12</v>
       </c>
       <c r="C30" t="n">
-        <v>11.87</v>
+        <v>12</v>
       </c>
       <c r="D30" t="n">
-        <v>11.96</v>
+        <v>12</v>
       </c>
       <c r="E30" t="n">
-        <v>11.87</v>
+        <v>12</v>
       </c>
       <c r="F30" t="n">
-        <v>4287.5044</v>
+        <v>2700</v>
       </c>
       <c r="G30" t="n">
-        <v>-945198.4027024214</v>
+        <v>-1137258.580002421</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>12</v>
+      </c>
+      <c r="K30" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.14</v>
+        <v>12</v>
       </c>
       <c r="C31" t="n">
-        <v>12.14</v>
+        <v>12</v>
       </c>
       <c r="D31" t="n">
-        <v>12.14</v>
+        <v>12</v>
       </c>
       <c r="E31" t="n">
-        <v>12.14</v>
+        <v>12</v>
       </c>
       <c r="F31" t="n">
-        <v>42</v>
+        <v>17360.0089</v>
       </c>
       <c r="G31" t="n">
-        <v>-945156.4027024214</v>
+        <v>-1137258.580002421</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>12</v>
+      </c>
+      <c r="K31" t="n">
+        <v>12</v>
+      </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.12</v>
+        <v>12.07</v>
       </c>
       <c r="C32" t="n">
-        <v>12.12</v>
+        <v>12.08</v>
       </c>
       <c r="D32" t="n">
-        <v>12.12</v>
+        <v>12.08</v>
       </c>
       <c r="E32" t="n">
-        <v>12.12</v>
+        <v>12.07</v>
       </c>
       <c r="F32" t="n">
-        <v>24691.0125</v>
+        <v>42.9999</v>
       </c>
       <c r="G32" t="n">
-        <v>-969847.4152024214</v>
+        <v>-1137215.580102421</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>12</v>
+      </c>
+      <c r="K32" t="n">
+        <v>12</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="C33" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="D33" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="E33" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="F33" t="n">
+        <v>41.0001</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-1137256.580202421</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="K33" t="n">
         <v>12</v>
       </c>
-      <c r="C33" t="n">
-        <v>12</v>
-      </c>
-      <c r="D33" t="n">
-        <v>12</v>
-      </c>
-      <c r="E33" t="n">
-        <v>12</v>
-      </c>
-      <c r="F33" t="n">
-        <v>34440.8622</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-1004288.277402421</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="C34" t="n">
         <v>11.95</v>
       </c>
       <c r="D34" t="n">
-        <v>11.95</v>
+        <v>12</v>
       </c>
       <c r="E34" t="n">
         <v>11.95</v>
       </c>
       <c r="F34" t="n">
-        <v>1726.3091</v>
+        <v>18224.8803</v>
       </c>
       <c r="G34" t="n">
-        <v>-1006014.586502421</v>
+        <v>-1155481.460502421</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,168 +1717,201 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.96</v>
+        <v>12.08</v>
       </c>
       <c r="C35" t="n">
-        <v>11.96</v>
+        <v>12.08</v>
       </c>
       <c r="D35" t="n">
-        <v>11.96</v>
+        <v>12.08</v>
       </c>
       <c r="E35" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="F35" t="n">
+        <v>42</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-1155439.460502421</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>11.95</v>
       </c>
-      <c r="F35" t="n">
-        <v>55531.8986</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-950482.6879024213</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>11.95</v>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="D36" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="E36" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="F36" t="n">
+        <v>862.1411000000001</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-1155439.460502421</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="K36" t="n">
         <v>11.95</v>
       </c>
-      <c r="C36" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D36" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E36" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="F36" t="n">
-        <v>28895.5459</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-921587.1420024213</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.89</v>
+        <v>11.96</v>
       </c>
       <c r="C37" t="n">
-        <v>11.87</v>
+        <v>11.94</v>
       </c>
       <c r="D37" t="n">
-        <v>11.89</v>
+        <v>11.96</v>
       </c>
       <c r="E37" t="n">
-        <v>11.87</v>
+        <v>11.94</v>
       </c>
       <c r="F37" t="n">
-        <v>86501.61139999999</v>
+        <v>14816</v>
       </c>
       <c r="G37" t="n">
-        <v>-1008088.753402421</v>
+        <v>-1170255.460502421</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="K37" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.87</v>
+        <v>12.07</v>
       </c>
       <c r="C38" t="n">
-        <v>11.87</v>
+        <v>12.07</v>
       </c>
       <c r="D38" t="n">
-        <v>11.87</v>
+        <v>12.07</v>
       </c>
       <c r="E38" t="n">
-        <v>11.87</v>
+        <v>12.07</v>
       </c>
       <c r="F38" t="n">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="G38" t="n">
-        <v>-1008088.753402421</v>
+        <v>-1169255.460502421</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="K38" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.91</v>
+        <v>11.95</v>
       </c>
       <c r="C39" t="n">
-        <v>11.91</v>
+        <v>11.95</v>
       </c>
       <c r="D39" t="n">
-        <v>11.91</v>
+        <v>11.95</v>
       </c>
       <c r="E39" t="n">
-        <v>11.91</v>
+        <v>11.95</v>
       </c>
       <c r="F39" t="n">
-        <v>852.9251</v>
+        <v>10780.8582</v>
       </c>
       <c r="G39" t="n">
-        <v>-1007235.828302421</v>
+        <v>-1180036.318702421</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
@@ -1752,37 +1920,42 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>11.87</v>
+        <v>12.07</v>
       </c>
       <c r="K39" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="L39" t="inlineStr"/>
+        <v>11.95</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.91</v>
+        <v>12.01</v>
       </c>
       <c r="C40" t="n">
-        <v>11.91</v>
+        <v>12.01</v>
       </c>
       <c r="D40" t="n">
-        <v>11.91</v>
+        <v>12.01</v>
       </c>
       <c r="E40" t="n">
-        <v>11.91</v>
+        <v>12.01</v>
       </c>
       <c r="F40" t="n">
-        <v>6841.9735</v>
+        <v>42</v>
       </c>
       <c r="G40" t="n">
-        <v>-1007235.828302421</v>
+        <v>-1179994.318702421</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
@@ -1791,292 +1964,350 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.91</v>
+        <v>11.95</v>
       </c>
       <c r="K40" t="n">
-        <v>11.87</v>
+        <v>11.95</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.11</v>
+        <v>11.95</v>
       </c>
       <c r="C41" t="n">
-        <v>12.11</v>
+        <v>11.95</v>
       </c>
       <c r="D41" t="n">
-        <v>12.11</v>
+        <v>11.95</v>
       </c>
       <c r="E41" t="n">
-        <v>12.11</v>
+        <v>11.95</v>
       </c>
       <c r="F41" t="n">
-        <v>39966.377</v>
+        <v>342.1418</v>
       </c>
       <c r="G41" t="n">
-        <v>-967269.4513024213</v>
+        <v>-1180336.460502421</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>12.01</v>
+      </c>
       <c r="K41" t="n">
-        <v>11.87</v>
+        <v>11.95</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.14</v>
+        <v>11.94</v>
       </c>
       <c r="C42" t="n">
-        <v>12.11</v>
+        <v>11.94</v>
       </c>
       <c r="D42" t="n">
-        <v>12.14</v>
+        <v>11.94</v>
       </c>
       <c r="E42" t="n">
-        <v>12.11</v>
+        <v>11.94</v>
       </c>
       <c r="F42" t="n">
-        <v>14967.0747</v>
+        <v>842.5176</v>
       </c>
       <c r="G42" t="n">
-        <v>-967269.4513024213</v>
+        <v>-1181178.978102421</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="K42" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.09</v>
+        <v>11.93</v>
       </c>
       <c r="C43" t="n">
-        <v>12.09</v>
+        <v>11.95</v>
       </c>
       <c r="D43" t="n">
-        <v>12.09</v>
+        <v>11.95</v>
       </c>
       <c r="E43" t="n">
-        <v>12.09</v>
+        <v>11.93</v>
       </c>
       <c r="F43" t="n">
-        <v>218.5619</v>
+        <v>124507.949</v>
       </c>
       <c r="G43" t="n">
-        <v>-967488.0132024213</v>
+        <v>-1056671.029102421</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="K43" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.9</v>
+        <v>12.02</v>
       </c>
       <c r="C44" t="n">
-        <v>11.89</v>
+        <v>12.02</v>
       </c>
       <c r="D44" t="n">
-        <v>11.9</v>
+        <v>12.02</v>
       </c>
       <c r="E44" t="n">
-        <v>11.89</v>
+        <v>12.02</v>
       </c>
       <c r="F44" t="n">
-        <v>14259</v>
+        <v>21757.3493</v>
       </c>
       <c r="G44" t="n">
-        <v>-981747.0132024213</v>
+        <v>-1034913.679802421</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="K44" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.07</v>
+        <v>12.06</v>
       </c>
       <c r="C45" t="n">
-        <v>12.07</v>
+        <v>12.14</v>
       </c>
       <c r="D45" t="n">
-        <v>12.07</v>
+        <v>12.14</v>
       </c>
       <c r="E45" t="n">
-        <v>12.07</v>
+        <v>12.06</v>
       </c>
       <c r="F45" t="n">
-        <v>41.4251</v>
+        <v>162284.2769</v>
       </c>
       <c r="G45" t="n">
-        <v>-981705.5881024213</v>
+        <v>-872629.4029024213</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="K45" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.9</v>
+        <v>12.14</v>
       </c>
       <c r="C46" t="n">
-        <v>11.87</v>
+        <v>12.19</v>
       </c>
       <c r="D46" t="n">
-        <v>11.9</v>
+        <v>12.19</v>
       </c>
       <c r="E46" t="n">
-        <v>11.87</v>
+        <v>12.14</v>
       </c>
       <c r="F46" t="n">
-        <v>41228.1915</v>
+        <v>235544.2812</v>
       </c>
       <c r="G46" t="n">
-        <v>-1022933.779602421</v>
+        <v>-637085.1217024213</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="K46" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.07</v>
+        <v>12.26</v>
       </c>
       <c r="C47" t="n">
-        <v>12.07</v>
+        <v>12.26</v>
       </c>
       <c r="D47" t="n">
-        <v>12.07</v>
+        <v>12.26</v>
       </c>
       <c r="E47" t="n">
-        <v>12.07</v>
+        <v>12.26</v>
       </c>
       <c r="F47" t="n">
-        <v>41.4251</v>
+        <v>1032.0253</v>
       </c>
       <c r="G47" t="n">
-        <v>-1022892.354502421</v>
+        <v>-636053.0964024214</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="K47" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.9</v>
+        <v>12.26</v>
       </c>
       <c r="C48" t="n">
-        <v>11.9</v>
+        <v>12.35</v>
       </c>
       <c r="D48" t="n">
-        <v>11.9</v>
+        <v>12.35</v>
       </c>
       <c r="E48" t="n">
-        <v>11.9</v>
+        <v>12.26</v>
       </c>
       <c r="F48" t="n">
-        <v>3731.9738</v>
+        <v>240762.7536</v>
       </c>
       <c r="G48" t="n">
-        <v>-1026624.328302421</v>
+        <v>-395290.3428024214</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2085,33 +2316,40 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.03</v>
+        <v>12.35</v>
       </c>
       <c r="C49" t="n">
-        <v>11.93</v>
+        <v>12.39</v>
       </c>
       <c r="D49" t="n">
-        <v>12.03</v>
+        <v>12.39</v>
       </c>
       <c r="E49" t="n">
-        <v>11.93</v>
+        <v>12.35</v>
       </c>
       <c r="F49" t="n">
-        <v>1660.6024</v>
+        <v>226745.5374</v>
       </c>
       <c r="G49" t="n">
-        <v>-1024963.725902421</v>
+        <v>-168544.8054024214</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2120,33 +2358,40 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.03</v>
+        <v>12.39</v>
       </c>
       <c r="C50" t="n">
-        <v>12.03</v>
+        <v>12.45</v>
       </c>
       <c r="D50" t="n">
-        <v>12.03</v>
+        <v>12.45</v>
       </c>
       <c r="E50" t="n">
-        <v>12.03</v>
+        <v>12.39</v>
       </c>
       <c r="F50" t="n">
-        <v>42</v>
+        <v>102437.2155</v>
       </c>
       <c r="G50" t="n">
-        <v>-1024921.725902421</v>
+        <v>-66107.58990242136</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2155,72 +2400,82 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.03</v>
+        <v>12.44</v>
       </c>
       <c r="C51" t="n">
-        <v>12.03</v>
+        <v>12.44</v>
       </c>
       <c r="D51" t="n">
-        <v>12.03</v>
+        <v>12.44</v>
       </c>
       <c r="E51" t="n">
-        <v>12.03</v>
+        <v>12.44</v>
       </c>
       <c r="F51" t="n">
-        <v>50205.8385</v>
+        <v>770.776</v>
       </c>
       <c r="G51" t="n">
-        <v>-1024921.725902421</v>
+        <v>-66878.36590242136</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>12.03</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L51" t="inlineStr"/>
+        <v>11.95</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.93</v>
+        <v>12.44</v>
       </c>
       <c r="C52" t="n">
-        <v>11.93</v>
+        <v>12.44</v>
       </c>
       <c r="D52" t="n">
-        <v>11.93</v>
+        <v>12.44</v>
       </c>
       <c r="E52" t="n">
-        <v>11.93</v>
+        <v>12.44</v>
       </c>
       <c r="F52" t="n">
-        <v>20000</v>
+        <v>816.3988000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>-1044921.725902421</v>
+        <v>-66878.36590242136</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,151 +2485,165 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>12.03</v>
+        <v>11.95</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.93</v>
+        <v>12.31</v>
       </c>
       <c r="C53" t="n">
-        <v>11.93</v>
+        <v>12.44</v>
       </c>
       <c r="D53" t="n">
-        <v>11.93</v>
+        <v>12.44</v>
       </c>
       <c r="E53" t="n">
-        <v>11.93</v>
+        <v>12.3</v>
       </c>
       <c r="F53" t="n">
-        <v>17225.2894</v>
+        <v>44636.6999</v>
       </c>
       <c r="G53" t="n">
-        <v>-1044921.725902421</v>
+        <v>-66878.36590242136</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>11.93</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>12.03</v>
+        <v>11.95</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="C54" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="D54" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="E54" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="F54" t="n">
+        <v>110</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-66988.36590242136</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
         <v>11.95</v>
       </c>
-      <c r="C54" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="D54" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="E54" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="F54" t="n">
-        <v>25027.9771</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-1019893.748802421</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="C55" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="D55" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="E55" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="F55" t="n">
+        <v>27361.492</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-39626.87390242136</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
         <v>11.95</v>
       </c>
-      <c r="C55" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="D55" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="E55" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="F55" t="n">
-        <v>15351.2296</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-1019893.748802421</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.05</v>
+        <v>12.22</v>
       </c>
       <c r="C56" t="n">
-        <v>12.06</v>
+        <v>12.11</v>
       </c>
       <c r="D56" t="n">
-        <v>12.06</v>
+        <v>12.22</v>
       </c>
       <c r="E56" t="n">
-        <v>12.05</v>
+        <v>12.11</v>
       </c>
       <c r="F56" t="n">
-        <v>83.49379999999999</v>
+        <v>158930.2328</v>
       </c>
       <c r="G56" t="n">
-        <v>-1019810.255002421</v>
+        <v>-198557.1067024214</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2383,33 +2652,40 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.05</v>
+        <v>12.37</v>
       </c>
       <c r="C57" t="n">
-        <v>12.05</v>
+        <v>12.37</v>
       </c>
       <c r="D57" t="n">
-        <v>12.05</v>
+        <v>12.37</v>
       </c>
       <c r="E57" t="n">
-        <v>12.05</v>
+        <v>12.36</v>
       </c>
       <c r="F57" t="n">
-        <v>0.5062</v>
+        <v>99</v>
       </c>
       <c r="G57" t="n">
-        <v>-1019810.761202421</v>
+        <v>-198458.1067024214</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2418,74 +2694,88 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>11.93</v>
+        <v>12.37</v>
       </c>
       <c r="C58" t="n">
-        <v>11.87</v>
+        <v>12.37</v>
       </c>
       <c r="D58" t="n">
-        <v>11.93</v>
+        <v>12.37</v>
       </c>
       <c r="E58" t="n">
-        <v>11.87</v>
+        <v>12.37</v>
       </c>
       <c r="F58" t="n">
-        <v>14546</v>
+        <v>8216.151599999999</v>
       </c>
       <c r="G58" t="n">
-        <v>-1034356.761202421</v>
+        <v>-198458.1067024214</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M58" t="n">
-        <v>1</v>
-      </c>
+        <v>1.030146443514644</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.06</v>
+        <v>12.36</v>
       </c>
       <c r="C59" t="n">
-        <v>12.06</v>
+        <v>12.36</v>
       </c>
       <c r="D59" t="n">
-        <v>12.06</v>
+        <v>12.36</v>
       </c>
       <c r="E59" t="n">
-        <v>12.06</v>
+        <v>12.36</v>
       </c>
       <c r="F59" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G59" t="n">
-        <v>-1034314.761202421</v>
+        <v>-198499.1067024214</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2493,34 +2783,35 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.06</v>
+        <v>12.37</v>
       </c>
       <c r="C60" t="n">
-        <v>12.06</v>
+        <v>12.36</v>
       </c>
       <c r="D60" t="n">
-        <v>12.06</v>
+        <v>12.37</v>
       </c>
       <c r="E60" t="n">
-        <v>12.06</v>
+        <v>12.36</v>
       </c>
       <c r="F60" t="n">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G60" t="n">
-        <v>-1034314.761202421</v>
+        <v>-198499.1067024214</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2528,34 +2819,35 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.01</v>
+        <v>12.25</v>
       </c>
       <c r="C61" t="n">
-        <v>12.01</v>
+        <v>12.22</v>
       </c>
       <c r="D61" t="n">
-        <v>12.01</v>
+        <v>12.25</v>
       </c>
       <c r="E61" t="n">
-        <v>12.01</v>
+        <v>12.22</v>
       </c>
       <c r="F61" t="n">
-        <v>42</v>
+        <v>16134.8063</v>
       </c>
       <c r="G61" t="n">
-        <v>-1034356.761202421</v>
+        <v>-214633.9130024214</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2563,34 +2855,35 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.91</v>
+        <v>12.23</v>
       </c>
       <c r="C62" t="n">
-        <v>11.82</v>
+        <v>12.23</v>
       </c>
       <c r="D62" t="n">
-        <v>11.91</v>
+        <v>12.23</v>
       </c>
       <c r="E62" t="n">
-        <v>11.82</v>
+        <v>12.23</v>
       </c>
       <c r="F62" t="n">
-        <v>61733.4252</v>
+        <v>50</v>
       </c>
       <c r="G62" t="n">
-        <v>-1096090.186402421</v>
+        <v>-214583.9130024214</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2598,34 +2891,35 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.91</v>
+        <v>12.2</v>
       </c>
       <c r="C63" t="n">
-        <v>11.91</v>
+        <v>12.21</v>
       </c>
       <c r="D63" t="n">
-        <v>11.91</v>
+        <v>12.21</v>
       </c>
       <c r="E63" t="n">
-        <v>11.91</v>
+        <v>12.2</v>
       </c>
       <c r="F63" t="n">
-        <v>3175.0753</v>
+        <v>49</v>
       </c>
       <c r="G63" t="n">
-        <v>-1092915.111102421</v>
+        <v>-214632.9130024214</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2633,34 +2927,35 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.9</v>
+        <v>12.21</v>
       </c>
       <c r="C64" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="D64" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="E64" t="n">
-        <v>11.9</v>
+        <v>12.21</v>
       </c>
       <c r="F64" t="n">
-        <v>3533.4512</v>
+        <v>21999.8737</v>
       </c>
       <c r="G64" t="n">
-        <v>-1096448.562302421</v>
+        <v>-192633.0393024214</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
@@ -2668,34 +2963,35 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.82</v>
+        <v>12.2</v>
       </c>
       <c r="C65" t="n">
-        <v>11.82</v>
+        <v>12.3</v>
       </c>
       <c r="D65" t="n">
-        <v>11.82</v>
+        <v>12.3</v>
       </c>
       <c r="E65" t="n">
-        <v>11.82</v>
+        <v>12.2</v>
       </c>
       <c r="F65" t="n">
-        <v>9687.283600000001</v>
+        <v>121</v>
       </c>
       <c r="G65" t="n">
-        <v>-1106135.845902421</v>
+        <v>-192633.0393024214</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
@@ -2703,28 +2999,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.81</v>
+        <v>12.29</v>
       </c>
       <c r="C66" t="n">
-        <v>11.81</v>
+        <v>12.3</v>
       </c>
       <c r="D66" t="n">
-        <v>11.81</v>
+        <v>12.3</v>
       </c>
       <c r="E66" t="n">
-        <v>11.81</v>
+        <v>12.29</v>
       </c>
       <c r="F66" t="n">
-        <v>34698.1853</v>
+        <v>1223.6582</v>
       </c>
       <c r="G66" t="n">
-        <v>-1140834.031202421</v>
+        <v>-192633.0393024214</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2738,28 +3035,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.99</v>
+        <v>12.24</v>
       </c>
       <c r="C67" t="n">
-        <v>11.99</v>
+        <v>12.12</v>
       </c>
       <c r="D67" t="n">
-        <v>11.99</v>
+        <v>12.24</v>
       </c>
       <c r="E67" t="n">
-        <v>11.99</v>
+        <v>12.12</v>
       </c>
       <c r="F67" t="n">
-        <v>42</v>
+        <v>28739.4609</v>
       </c>
       <c r="G67" t="n">
-        <v>-1140792.031202421</v>
+        <v>-221372.5002024214</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2773,28 +3071,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.99</v>
+        <v>12.09</v>
       </c>
       <c r="C68" t="n">
-        <v>11.99</v>
+        <v>12.24</v>
       </c>
       <c r="D68" t="n">
-        <v>11.99</v>
+        <v>12.24</v>
       </c>
       <c r="E68" t="n">
-        <v>11.99</v>
+        <v>12.07</v>
       </c>
       <c r="F68" t="n">
-        <v>127.8395</v>
+        <v>29551.3407</v>
       </c>
       <c r="G68" t="n">
-        <v>-1140792.031202421</v>
+        <v>-191821.1595024214</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2808,67 +3107,65 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.99</v>
+        <v>12.09</v>
       </c>
       <c r="C69" t="n">
-        <v>11.99</v>
+        <v>12</v>
       </c>
       <c r="D69" t="n">
-        <v>11.99</v>
+        <v>12.09</v>
       </c>
       <c r="E69" t="n">
-        <v>11.99</v>
+        <v>12</v>
       </c>
       <c r="F69" t="n">
-        <v>28667.7315</v>
+        <v>265434.0665</v>
       </c>
       <c r="G69" t="n">
-        <v>-1140792.031202421</v>
+        <v>-457255.2260024213</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="K69" t="n">
-        <v>11.99</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12</v>
+        <v>12.03</v>
       </c>
       <c r="C70" t="n">
-        <v>12</v>
+        <v>11.98</v>
       </c>
       <c r="D70" t="n">
-        <v>12</v>
+        <v>12.03</v>
       </c>
       <c r="E70" t="n">
-        <v>12</v>
+        <v>11.98</v>
       </c>
       <c r="F70" t="n">
-        <v>3533.4512</v>
+        <v>158930.2328</v>
       </c>
       <c r="G70" t="n">
-        <v>-1137258.580002421</v>
+        <v>-616185.4588024213</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2877,39 +3174,34 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C71" t="n">
-        <v>12</v>
+        <v>12.09</v>
       </c>
       <c r="D71" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E71" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="F71" t="n">
-        <v>7676.076</v>
+        <v>19981.4137</v>
       </c>
       <c r="G71" t="n">
-        <v>-1137258.580002421</v>
+        <v>-596204.0451024213</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2918,39 +3210,34 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="C72" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="D72" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="E72" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="F72" t="n">
-        <v>2700</v>
+        <v>2433.558</v>
       </c>
       <c r="G72" t="n">
-        <v>-1137258.580002421</v>
+        <v>-598637.6031024213</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2964,6 +3251,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2973,19 +3261,19 @@
         <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>12</v>
+        <v>12.02</v>
       </c>
       <c r="D73" t="n">
-        <v>12</v>
+        <v>12.02</v>
       </c>
       <c r="E73" t="n">
         <v>12</v>
       </c>
       <c r="F73" t="n">
-        <v>17360.0089</v>
+        <v>19412.3212</v>
       </c>
       <c r="G73" t="n">
-        <v>-1137258.580002421</v>
+        <v>-579225.2819024213</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2999,28 +3287,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.07</v>
+        <v>12.01</v>
       </c>
       <c r="C74" t="n">
-        <v>12.08</v>
+        <v>12.01</v>
       </c>
       <c r="D74" t="n">
-        <v>12.08</v>
+        <v>12.01</v>
       </c>
       <c r="E74" t="n">
-        <v>12.07</v>
+        <v>12.01</v>
       </c>
       <c r="F74" t="n">
-        <v>42.9999</v>
+        <v>33643.14</v>
       </c>
       <c r="G74" t="n">
-        <v>-1137215.580102421</v>
+        <v>-612868.4219024213</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3034,28 +3323,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.07</v>
+        <v>12.02</v>
       </c>
       <c r="C75" t="n">
-        <v>12.07</v>
+        <v>12.02</v>
       </c>
       <c r="D75" t="n">
-        <v>12.07</v>
+        <v>12.02</v>
       </c>
       <c r="E75" t="n">
-        <v>12.07</v>
+        <v>12.02</v>
       </c>
       <c r="F75" t="n">
-        <v>41.0001</v>
+        <v>14000</v>
       </c>
       <c r="G75" t="n">
-        <v>-1137256.580202421</v>
+        <v>-598868.4219024213</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3069,28 +3359,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12</v>
+        <v>12.03</v>
       </c>
       <c r="C76" t="n">
-        <v>11.95</v>
+        <v>12.03</v>
       </c>
       <c r="D76" t="n">
-        <v>12</v>
+        <v>12.03</v>
       </c>
       <c r="E76" t="n">
-        <v>11.95</v>
+        <v>12.03</v>
       </c>
       <c r="F76" t="n">
-        <v>18224.8803</v>
+        <v>47</v>
       </c>
       <c r="G76" t="n">
-        <v>-1155481.460502421</v>
+        <v>-598821.4219024213</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3104,28 +3395,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.08</v>
+        <v>12.04</v>
       </c>
       <c r="C77" t="n">
-        <v>12.08</v>
+        <v>12.04</v>
       </c>
       <c r="D77" t="n">
-        <v>12.08</v>
+        <v>12.04</v>
       </c>
       <c r="E77" t="n">
-        <v>12.08</v>
+        <v>12.04</v>
       </c>
       <c r="F77" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G77" t="n">
-        <v>-1155439.460502421</v>
+        <v>-598775.4219024213</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3139,13 +3431,14 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.08</v>
+        <v>12.04</v>
       </c>
       <c r="C78" t="n">
         <v>12.08</v>
@@ -3154,13 +3447,13 @@
         <v>12.08</v>
       </c>
       <c r="E78" t="n">
-        <v>12.08</v>
+        <v>12.04</v>
       </c>
       <c r="F78" t="n">
-        <v>862.1411000000001</v>
+        <v>9408.272199999999</v>
       </c>
       <c r="G78" t="n">
-        <v>-1155439.460502421</v>
+        <v>-589367.1497024213</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3174,28 +3467,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.96</v>
+        <v>12.08</v>
       </c>
       <c r="C79" t="n">
-        <v>11.94</v>
+        <v>12.08</v>
       </c>
       <c r="D79" t="n">
-        <v>11.96</v>
+        <v>12.08</v>
       </c>
       <c r="E79" t="n">
-        <v>11.94</v>
+        <v>12.08</v>
       </c>
       <c r="F79" t="n">
-        <v>14816</v>
+        <v>18882.279</v>
       </c>
       <c r="G79" t="n">
-        <v>-1170255.460502421</v>
+        <v>-589367.1497024213</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3209,28 +3503,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.07</v>
+        <v>12.09</v>
       </c>
       <c r="C80" t="n">
-        <v>12.07</v>
+        <v>12.12</v>
       </c>
       <c r="D80" t="n">
-        <v>12.07</v>
+        <v>12.13</v>
       </c>
       <c r="E80" t="n">
-        <v>12.07</v>
+        <v>12.09</v>
       </c>
       <c r="F80" t="n">
-        <v>1000</v>
+        <v>34139.14</v>
       </c>
       <c r="G80" t="n">
-        <v>-1169255.460502421</v>
+        <v>-555228.0097024213</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3244,28 +3539,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.95</v>
+        <v>12.14</v>
       </c>
       <c r="C81" t="n">
-        <v>11.95</v>
+        <v>12.17</v>
       </c>
       <c r="D81" t="n">
-        <v>11.95</v>
+        <v>12.17</v>
       </c>
       <c r="E81" t="n">
-        <v>11.95</v>
+        <v>12.14</v>
       </c>
       <c r="F81" t="n">
-        <v>10780.8582</v>
+        <v>14495.0481</v>
       </c>
       <c r="G81" t="n">
-        <v>-1180036.318702421</v>
+        <v>-540732.9616024212</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3279,28 +3575,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.01</v>
+        <v>12.18</v>
       </c>
       <c r="C82" t="n">
-        <v>12.01</v>
+        <v>12.2</v>
       </c>
       <c r="D82" t="n">
-        <v>12.01</v>
+        <v>12.2</v>
       </c>
       <c r="E82" t="n">
-        <v>12.01</v>
+        <v>12.18</v>
       </c>
       <c r="F82" t="n">
-        <v>42</v>
+        <v>29895.1174</v>
       </c>
       <c r="G82" t="n">
-        <v>-1179994.318702421</v>
+        <v>-510837.8442024213</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3314,28 +3611,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.95</v>
+        <v>12.2</v>
       </c>
       <c r="C83" t="n">
-        <v>11.95</v>
+        <v>12.21</v>
       </c>
       <c r="D83" t="n">
-        <v>11.95</v>
+        <v>12.21</v>
       </c>
       <c r="E83" t="n">
-        <v>11.95</v>
+        <v>12.2</v>
       </c>
       <c r="F83" t="n">
-        <v>342.1418</v>
+        <v>1154.3915</v>
       </c>
       <c r="G83" t="n">
-        <v>-1180336.460502421</v>
+        <v>-509683.4527024212</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3349,28 +3647,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.94</v>
+        <v>12.2</v>
       </c>
       <c r="C84" t="n">
-        <v>11.94</v>
+        <v>12.2</v>
       </c>
       <c r="D84" t="n">
-        <v>11.94</v>
+        <v>12.2</v>
       </c>
       <c r="E84" t="n">
-        <v>11.94</v>
+        <v>12.2</v>
       </c>
       <c r="F84" t="n">
-        <v>842.5176</v>
+        <v>9096.7556</v>
       </c>
       <c r="G84" t="n">
-        <v>-1181178.978102421</v>
+        <v>-518780.2083024212</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3384,28 +3683,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.93</v>
+        <v>12.15</v>
       </c>
       <c r="C85" t="n">
-        <v>11.95</v>
+        <v>12.1</v>
       </c>
       <c r="D85" t="n">
-        <v>11.95</v>
+        <v>12.15</v>
       </c>
       <c r="E85" t="n">
-        <v>11.93</v>
+        <v>12.1</v>
       </c>
       <c r="F85" t="n">
-        <v>124507.949</v>
+        <v>18818.3285</v>
       </c>
       <c r="G85" t="n">
-        <v>-1056671.029102421</v>
+        <v>-537598.5368024212</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3419,28 +3719,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.02</v>
+        <v>12.2</v>
       </c>
       <c r="C86" t="n">
-        <v>12.02</v>
+        <v>12.04</v>
       </c>
       <c r="D86" t="n">
-        <v>12.02</v>
+        <v>12.2</v>
       </c>
       <c r="E86" t="n">
-        <v>12.02</v>
+        <v>12.04</v>
       </c>
       <c r="F86" t="n">
-        <v>21757.3493</v>
+        <v>8257.151599999999</v>
       </c>
       <c r="G86" t="n">
-        <v>-1034913.679802421</v>
+        <v>-545855.6884024212</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3454,28 +3755,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.06</v>
+        <v>12.19</v>
       </c>
       <c r="C87" t="n">
-        <v>12.14</v>
+        <v>12.19</v>
       </c>
       <c r="D87" t="n">
-        <v>12.14</v>
+        <v>12.19</v>
       </c>
       <c r="E87" t="n">
-        <v>12.06</v>
+        <v>12.19</v>
       </c>
       <c r="F87" t="n">
-        <v>162284.2769</v>
+        <v>42</v>
       </c>
       <c r="G87" t="n">
-        <v>-872629.4029024213</v>
+        <v>-545813.6884024212</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3489,28 +3791,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.14</v>
+        <v>12.15</v>
       </c>
       <c r="C88" t="n">
-        <v>12.19</v>
+        <v>12.15</v>
       </c>
       <c r="D88" t="n">
-        <v>12.19</v>
+        <v>12.15</v>
       </c>
       <c r="E88" t="n">
-        <v>12.14</v>
+        <v>12.15</v>
       </c>
       <c r="F88" t="n">
-        <v>235544.2812</v>
+        <v>6206.91</v>
       </c>
       <c r="G88" t="n">
-        <v>-637085.1217024213</v>
+        <v>-552020.5984024212</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3524,28 +3827,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.26</v>
+        <v>12.03</v>
       </c>
       <c r="C89" t="n">
-        <v>12.26</v>
+        <v>12.03</v>
       </c>
       <c r="D89" t="n">
-        <v>12.26</v>
+        <v>12.03</v>
       </c>
       <c r="E89" t="n">
-        <v>12.26</v>
+        <v>12.03</v>
       </c>
       <c r="F89" t="n">
-        <v>1032.0253</v>
+        <v>2218.4334</v>
       </c>
       <c r="G89" t="n">
-        <v>-636053.0964024214</v>
+        <v>-554239.0318024212</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3559,28 +3863,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.26</v>
+        <v>12.03</v>
       </c>
       <c r="C90" t="n">
-        <v>12.35</v>
+        <v>12.03</v>
       </c>
       <c r="D90" t="n">
-        <v>12.35</v>
+        <v>12.03</v>
       </c>
       <c r="E90" t="n">
-        <v>12.26</v>
+        <v>12.03</v>
       </c>
       <c r="F90" t="n">
-        <v>240762.7536</v>
+        <v>4000</v>
       </c>
       <c r="G90" t="n">
-        <v>-395290.3428024214</v>
+        <v>-554239.0318024212</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3594,28 +3899,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.35</v>
+        <v>12</v>
       </c>
       <c r="C91" t="n">
-        <v>12.39</v>
+        <v>12</v>
       </c>
       <c r="D91" t="n">
-        <v>12.39</v>
+        <v>12</v>
       </c>
       <c r="E91" t="n">
-        <v>12.35</v>
+        <v>12</v>
       </c>
       <c r="F91" t="n">
-        <v>226745.5374</v>
+        <v>478307.7198</v>
       </c>
       <c r="G91" t="n">
-        <v>-168544.8054024214</v>
+        <v>-1032546.751602421</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3629,28 +3935,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.39</v>
+        <v>12.15</v>
       </c>
       <c r="C92" t="n">
-        <v>12.45</v>
+        <v>12.15</v>
       </c>
       <c r="D92" t="n">
-        <v>12.45</v>
+        <v>12.15</v>
       </c>
       <c r="E92" t="n">
-        <v>12.39</v>
+        <v>12.15</v>
       </c>
       <c r="F92" t="n">
-        <v>102437.2155</v>
+        <v>664.3946</v>
       </c>
       <c r="G92" t="n">
-        <v>-66107.58990242136</v>
+        <v>-1031882.357002421</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3664,28 +3971,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.44</v>
+        <v>12.15</v>
       </c>
       <c r="C93" t="n">
-        <v>12.44</v>
+        <v>12.15</v>
       </c>
       <c r="D93" t="n">
-        <v>12.44</v>
+        <v>12.15</v>
       </c>
       <c r="E93" t="n">
-        <v>12.44</v>
+        <v>12.15</v>
       </c>
       <c r="F93" t="n">
-        <v>770.776</v>
+        <v>5264.9453</v>
       </c>
       <c r="G93" t="n">
-        <v>-66878.36590242136</v>
+        <v>-1031882.357002421</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3699,28 +4007,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.44</v>
+        <v>12.08</v>
       </c>
       <c r="C94" t="n">
-        <v>12.44</v>
+        <v>12.08</v>
       </c>
       <c r="D94" t="n">
-        <v>12.44</v>
+        <v>12.08</v>
       </c>
       <c r="E94" t="n">
-        <v>12.44</v>
+        <v>12.08</v>
       </c>
       <c r="F94" t="n">
-        <v>816.3988000000001</v>
+        <v>11904.5064</v>
       </c>
       <c r="G94" t="n">
-        <v>-66878.36590242136</v>
+        <v>-1043786.863402421</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3734,28 +4043,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.31</v>
+        <v>12.05</v>
       </c>
       <c r="C95" t="n">
-        <v>12.44</v>
+        <v>12.01</v>
       </c>
       <c r="D95" t="n">
-        <v>12.44</v>
+        <v>12.05</v>
       </c>
       <c r="E95" t="n">
-        <v>12.3</v>
+        <v>12.01</v>
       </c>
       <c r="F95" t="n">
-        <v>44636.6999</v>
+        <v>67041.3982</v>
       </c>
       <c r="G95" t="n">
-        <v>-66878.36590242136</v>
+        <v>-1110828.261602421</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3769,28 +4079,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.45</v>
+        <v>12.02</v>
       </c>
       <c r="C96" t="n">
-        <v>12.35</v>
+        <v>12.02</v>
       </c>
       <c r="D96" t="n">
-        <v>12.45</v>
+        <v>12.02</v>
       </c>
       <c r="E96" t="n">
-        <v>12.35</v>
+        <v>12.02</v>
       </c>
       <c r="F96" t="n">
-        <v>110</v>
+        <v>1283.3944</v>
       </c>
       <c r="G96" t="n">
-        <v>-66988.36590242136</v>
+        <v>-1109544.867202421</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3804,28 +4115,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.45</v>
+        <v>12.02</v>
       </c>
       <c r="C97" t="n">
-        <v>12.43</v>
+        <v>12.02</v>
       </c>
       <c r="D97" t="n">
-        <v>12.45</v>
+        <v>12.02</v>
       </c>
       <c r="E97" t="n">
-        <v>12.22</v>
+        <v>12.02</v>
       </c>
       <c r="F97" t="n">
-        <v>27361.492</v>
+        <v>51.6775</v>
       </c>
       <c r="G97" t="n">
-        <v>-39626.87390242136</v>
+        <v>-1109544.867202421</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3839,28 +4151,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.22</v>
+        <v>12.02</v>
       </c>
       <c r="C98" t="n">
-        <v>12.11</v>
+        <v>12.02</v>
       </c>
       <c r="D98" t="n">
-        <v>12.22</v>
+        <v>12.02</v>
       </c>
       <c r="E98" t="n">
-        <v>12.11</v>
+        <v>12.02</v>
       </c>
       <c r="F98" t="n">
-        <v>158930.2328</v>
+        <v>18023.7569</v>
       </c>
       <c r="G98" t="n">
-        <v>-198557.1067024214</v>
+        <v>-1109544.867202421</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3874,28 +4187,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.37</v>
+        <v>12.11</v>
       </c>
       <c r="C99" t="n">
-        <v>12.37</v>
+        <v>12.11</v>
       </c>
       <c r="D99" t="n">
-        <v>12.37</v>
+        <v>12.11</v>
       </c>
       <c r="E99" t="n">
-        <v>12.36</v>
+        <v>12.11</v>
       </c>
       <c r="F99" t="n">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="G99" t="n">
-        <v>-198458.1067024214</v>
+        <v>-1109502.867202421</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3909,28 +4223,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.37</v>
+        <v>12.11</v>
       </c>
       <c r="C100" t="n">
-        <v>12.37</v>
+        <v>12.11</v>
       </c>
       <c r="D100" t="n">
-        <v>12.37</v>
+        <v>12.11</v>
       </c>
       <c r="E100" t="n">
-        <v>12.37</v>
+        <v>12.11</v>
       </c>
       <c r="F100" t="n">
-        <v>8216.151599999999</v>
+        <v>42</v>
       </c>
       <c r="G100" t="n">
-        <v>-198458.1067024214</v>
+        <v>-1109502.867202421</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3944,28 +4259,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.36</v>
+        <v>12.14</v>
       </c>
       <c r="C101" t="n">
-        <v>12.36</v>
+        <v>12.03</v>
       </c>
       <c r="D101" t="n">
-        <v>12.36</v>
+        <v>12.14</v>
       </c>
       <c r="E101" t="n">
-        <v>12.36</v>
+        <v>12.03</v>
       </c>
       <c r="F101" t="n">
-        <v>41</v>
+        <v>2349</v>
       </c>
       <c r="G101" t="n">
-        <v>-198499.1067024214</v>
+        <v>-1111851.867202421</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3979,34 +4295,35 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.37</v>
+        <v>12.14</v>
       </c>
       <c r="C102" t="n">
-        <v>12.36</v>
+        <v>12.14</v>
       </c>
       <c r="D102" t="n">
-        <v>12.37</v>
+        <v>12.14</v>
       </c>
       <c r="E102" t="n">
-        <v>12.36</v>
+        <v>12.14</v>
       </c>
       <c r="F102" t="n">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="G102" t="n">
-        <v>-198499.1067024214</v>
+        <v>-1111809.867202421</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4014,34 +4331,35 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.25</v>
+        <v>12.04</v>
       </c>
       <c r="C103" t="n">
-        <v>12.22</v>
+        <v>12.03</v>
       </c>
       <c r="D103" t="n">
-        <v>12.25</v>
+        <v>12.04</v>
       </c>
       <c r="E103" t="n">
-        <v>12.22</v>
+        <v>12.03</v>
       </c>
       <c r="F103" t="n">
-        <v>16134.8063</v>
+        <v>15068</v>
       </c>
       <c r="G103" t="n">
-        <v>-214633.9130024214</v>
+        <v>-1126877.867202421</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4049,28 +4367,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.23</v>
+        <v>12.13</v>
       </c>
       <c r="C104" t="n">
-        <v>12.23</v>
+        <v>12.13</v>
       </c>
       <c r="D104" t="n">
-        <v>12.23</v>
+        <v>12.13</v>
       </c>
       <c r="E104" t="n">
-        <v>12.23</v>
+        <v>12.13</v>
       </c>
       <c r="F104" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G104" t="n">
-        <v>-214583.9130024214</v>
+        <v>-1126835.867202421</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4084,28 +4403,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.2</v>
+        <v>12.03</v>
       </c>
       <c r="C105" t="n">
-        <v>12.21</v>
+        <v>12.03</v>
       </c>
       <c r="D105" t="n">
-        <v>12.21</v>
+        <v>12.03</v>
       </c>
       <c r="E105" t="n">
-        <v>12.2</v>
+        <v>12.03</v>
       </c>
       <c r="F105" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G105" t="n">
-        <v>-214632.9130024214</v>
+        <v>-1126890.867202421</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4119,28 +4439,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.21</v>
+        <v>12.23</v>
       </c>
       <c r="C106" t="n">
-        <v>12.3</v>
+        <v>12.23</v>
       </c>
       <c r="D106" t="n">
-        <v>12.3</v>
+        <v>12.23</v>
       </c>
       <c r="E106" t="n">
-        <v>12.21</v>
+        <v>12.23</v>
       </c>
       <c r="F106" t="n">
-        <v>21999.8737</v>
+        <v>41</v>
       </c>
       <c r="G106" t="n">
-        <v>-192633.0393024214</v>
+        <v>-1126849.867202421</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4154,28 +4475,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.2</v>
+        <v>12.09</v>
       </c>
       <c r="C107" t="n">
-        <v>12.3</v>
+        <v>12.08</v>
       </c>
       <c r="D107" t="n">
-        <v>12.3</v>
+        <v>12.09</v>
       </c>
       <c r="E107" t="n">
-        <v>12.2</v>
+        <v>12.08</v>
       </c>
       <c r="F107" t="n">
-        <v>121</v>
+        <v>20530.41</v>
       </c>
       <c r="G107" t="n">
-        <v>-192633.0393024214</v>
+        <v>-1147380.277202421</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4189,34 +4511,35 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.29</v>
+        <v>12.08</v>
       </c>
       <c r="C108" t="n">
-        <v>12.3</v>
+        <v>12.03</v>
       </c>
       <c r="D108" t="n">
-        <v>12.3</v>
+        <v>12.08</v>
       </c>
       <c r="E108" t="n">
-        <v>12.29</v>
+        <v>12.03</v>
       </c>
       <c r="F108" t="n">
-        <v>1223.6582</v>
+        <v>2506</v>
       </c>
       <c r="G108" t="n">
-        <v>-192633.0393024214</v>
+        <v>-1149886.277202421</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4224,34 +4547,35 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.24</v>
+        <v>12.2</v>
       </c>
       <c r="C109" t="n">
-        <v>12.12</v>
+        <v>12.2</v>
       </c>
       <c r="D109" t="n">
-        <v>12.24</v>
+        <v>12.21</v>
       </c>
       <c r="E109" t="n">
-        <v>12.12</v>
+        <v>12.2</v>
       </c>
       <c r="F109" t="n">
-        <v>28739.4609</v>
+        <v>84</v>
       </c>
       <c r="G109" t="n">
-        <v>-221372.5002024214</v>
+        <v>-1149802.277202421</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4259,34 +4583,35 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.09</v>
+        <v>12.17</v>
       </c>
       <c r="C110" t="n">
-        <v>12.24</v>
+        <v>12.06</v>
       </c>
       <c r="D110" t="n">
-        <v>12.24</v>
+        <v>12.17</v>
       </c>
       <c r="E110" t="n">
-        <v>12.07</v>
+        <v>12.06</v>
       </c>
       <c r="F110" t="n">
-        <v>29551.3407</v>
+        <v>20502.41</v>
       </c>
       <c r="G110" t="n">
-        <v>-191821.1595024214</v>
+        <v>-1170304.687202421</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4294,28 +4619,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.09</v>
+        <v>12.23</v>
       </c>
       <c r="C111" t="n">
-        <v>12</v>
+        <v>12.03</v>
       </c>
       <c r="D111" t="n">
-        <v>12.09</v>
+        <v>12.23</v>
       </c>
       <c r="E111" t="n">
-        <v>12</v>
+        <v>12.03</v>
       </c>
       <c r="F111" t="n">
-        <v>265434.0665</v>
+        <v>31282.5698</v>
       </c>
       <c r="G111" t="n">
-        <v>-457255.2260024213</v>
+        <v>-1201587.257002421</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4329,28 +4655,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>12.03</v>
+        <v>12.22</v>
       </c>
       <c r="C112" t="n">
-        <v>11.98</v>
+        <v>12.22</v>
       </c>
       <c r="D112" t="n">
-        <v>12.03</v>
+        <v>12.22</v>
       </c>
       <c r="E112" t="n">
-        <v>11.98</v>
+        <v>12.22</v>
       </c>
       <c r="F112" t="n">
-        <v>158930.2328</v>
+        <v>50</v>
       </c>
       <c r="G112" t="n">
-        <v>-616185.4588024213</v>
+        <v>-1201537.257002421</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4364,6 +4691,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4373,19 +4701,19 @@
         <v>12.1</v>
       </c>
       <c r="C113" t="n">
-        <v>12.09</v>
+        <v>12.1</v>
       </c>
       <c r="D113" t="n">
         <v>12.1</v>
       </c>
       <c r="E113" t="n">
-        <v>11.99</v>
+        <v>12.1</v>
       </c>
       <c r="F113" t="n">
-        <v>19981.4137</v>
+        <v>5589</v>
       </c>
       <c r="G113" t="n">
-        <v>-596204.0451024213</v>
+        <v>-1207126.257002421</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4399,28 +4727,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.99</v>
+        <v>12.21</v>
       </c>
       <c r="C114" t="n">
-        <v>11.99</v>
+        <v>12.21</v>
       </c>
       <c r="D114" t="n">
-        <v>11.99</v>
+        <v>12.21</v>
       </c>
       <c r="E114" t="n">
-        <v>11.99</v>
+        <v>12.21</v>
       </c>
       <c r="F114" t="n">
-        <v>2433.558</v>
+        <v>50</v>
       </c>
       <c r="G114" t="n">
-        <v>-598637.6031024213</v>
+        <v>-1207076.257002421</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4434,28 +4763,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C115" t="n">
-        <v>12.02</v>
+        <v>12.21</v>
       </c>
       <c r="D115" t="n">
-        <v>12.02</v>
+        <v>12.21</v>
       </c>
       <c r="E115" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F115" t="n">
-        <v>19412.3212</v>
+        <v>36623.8336</v>
       </c>
       <c r="G115" t="n">
-        <v>-579225.2819024213</v>
+        <v>-1207076.257002421</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4469,28 +4799,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.01</v>
+        <v>12.21</v>
       </c>
       <c r="C116" t="n">
-        <v>12.01</v>
+        <v>12.1</v>
       </c>
       <c r="D116" t="n">
-        <v>12.01</v>
+        <v>12.25</v>
       </c>
       <c r="E116" t="n">
-        <v>12.01</v>
+        <v>12.1</v>
       </c>
       <c r="F116" t="n">
-        <v>33643.14</v>
+        <v>23306.8585</v>
       </c>
       <c r="G116" t="n">
-        <v>-612868.4219024213</v>
+        <v>-1230383.115502421</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4504,28 +4835,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>12.02</v>
+        <v>12.15</v>
       </c>
       <c r="C117" t="n">
-        <v>12.02</v>
+        <v>12.15</v>
       </c>
       <c r="D117" t="n">
-        <v>12.02</v>
+        <v>12.15</v>
       </c>
       <c r="E117" t="n">
-        <v>12.02</v>
+        <v>12.15</v>
       </c>
       <c r="F117" t="n">
-        <v>14000</v>
+        <v>213469.5572</v>
       </c>
       <c r="G117" t="n">
-        <v>-598868.4219024213</v>
+        <v>-1016913.558302421</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4539,28 +4871,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12.03</v>
+        <v>12.25</v>
       </c>
       <c r="C118" t="n">
-        <v>12.03</v>
+        <v>12.25</v>
       </c>
       <c r="D118" t="n">
-        <v>12.03</v>
+        <v>12.25</v>
       </c>
       <c r="E118" t="n">
-        <v>12.03</v>
+        <v>12.25</v>
       </c>
       <c r="F118" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G118" t="n">
-        <v>-598821.4219024213</v>
+        <v>-1016863.558302421</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4574,67 +4907,65 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12.04</v>
+        <v>12.15</v>
       </c>
       <c r="C119" t="n">
-        <v>12.04</v>
+        <v>12.25</v>
       </c>
       <c r="D119" t="n">
-        <v>12.04</v>
+        <v>12.25</v>
       </c>
       <c r="E119" t="n">
-        <v>12.04</v>
+        <v>12.15</v>
       </c>
       <c r="F119" t="n">
-        <v>46</v>
+        <v>213477.5572</v>
       </c>
       <c r="G119" t="n">
-        <v>-598775.4219024213</v>
+        <v>-1016863.558302421</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="K119" t="n">
-        <v>12.03</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12.04</v>
+        <v>12.15</v>
       </c>
       <c r="C120" t="n">
-        <v>12.08</v>
+        <v>12.15</v>
       </c>
       <c r="D120" t="n">
-        <v>12.08</v>
+        <v>12.15</v>
       </c>
       <c r="E120" t="n">
-        <v>12.04</v>
+        <v>12.15</v>
       </c>
       <c r="F120" t="n">
-        <v>9408.272199999999</v>
+        <v>3436.394</v>
       </c>
       <c r="G120" t="n">
-        <v>-589367.1497024213</v>
+        <v>-1020299.952302421</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4643,39 +4974,34 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>12.08</v>
+        <v>12.15</v>
       </c>
       <c r="C121" t="n">
-        <v>12.08</v>
+        <v>12.15</v>
       </c>
       <c r="D121" t="n">
-        <v>12.08</v>
+        <v>12.15</v>
       </c>
       <c r="E121" t="n">
-        <v>12.08</v>
+        <v>12.15</v>
       </c>
       <c r="F121" t="n">
-        <v>18882.279</v>
+        <v>67288.3337</v>
       </c>
       <c r="G121" t="n">
-        <v>-589367.1497024213</v>
+        <v>-1020299.952302421</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4684,1487 +5010,12 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="C122" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="D122" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="E122" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="F122" t="n">
-        <v>34139.14</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-555228.0097024213</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="C123" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="D123" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="E123" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="F123" t="n">
-        <v>14495.0481</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-540732.9616024212</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="C124" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D124" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E124" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="F124" t="n">
-        <v>29895.1174</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-510837.8442024213</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C125" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="D125" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="E125" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1154.3915</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-509683.4527024212</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C126" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D126" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E126" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F126" t="n">
-        <v>9096.7556</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-518780.2083024212</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="C127" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D127" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="E127" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F127" t="n">
-        <v>18818.3285</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-537598.5368024212</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C128" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="D128" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="E128" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="F128" t="n">
-        <v>8257.151599999999</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-545855.6884024212</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="C129" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="D129" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="E129" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="F129" t="n">
-        <v>42</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-545813.6884024212</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="C130" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="D130" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="E130" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="F130" t="n">
-        <v>6206.91</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-552020.5984024212</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="C131" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="D131" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="E131" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="F131" t="n">
-        <v>2218.4334</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-554239.0318024212</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="C132" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="D132" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="E132" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="F132" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-554239.0318024212</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>12</v>
-      </c>
-      <c r="C133" t="n">
-        <v>12</v>
-      </c>
-      <c r="D133" t="n">
-        <v>12</v>
-      </c>
-      <c r="E133" t="n">
-        <v>12</v>
-      </c>
-      <c r="F133" t="n">
-        <v>478307.7198</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-1032546.751602421</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="C134" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="D134" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="E134" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="F134" t="n">
-        <v>664.3946</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-1031882.357002421</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="C135" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="D135" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="E135" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="F135" t="n">
-        <v>5264.9453</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-1031882.357002421</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="C136" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="D136" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="E136" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="F136" t="n">
-        <v>11904.5064</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-1043786.863402421</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="C137" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="D137" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="E137" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="F137" t="n">
-        <v>67041.3982</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-1110828.261602421</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="C138" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="D138" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="E138" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="F138" t="n">
-        <v>1283.3944</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-1109544.867202421</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="C139" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="D139" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="E139" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="F139" t="n">
-        <v>51.6775</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-1109544.867202421</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="C140" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="D140" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="E140" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="F140" t="n">
-        <v>18023.7569</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-1109544.867202421</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="C141" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="D141" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="E141" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="F141" t="n">
-        <v>42</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-1109502.867202421</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="C142" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="D142" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="E142" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="F142" t="n">
-        <v>42</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-1109502.867202421</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="C143" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="D143" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="E143" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2349</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-1111851.867202421</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="C144" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="D144" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="E144" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="F144" t="n">
-        <v>42</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-1111809.867202421</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="C145" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="D145" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="E145" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="F145" t="n">
-        <v>15068</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-1126877.867202421</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="C146" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="D146" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="E146" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="F146" t="n">
-        <v>42</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-1126835.867202421</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="C147" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="D147" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="E147" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="F147" t="n">
-        <v>55</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-1126890.867202421</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="C148" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="D148" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="E148" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="F148" t="n">
-        <v>41</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-1126849.867202421</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="C149" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="D149" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="E149" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="F149" t="n">
-        <v>20530.41</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-1147380.277202421</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="C150" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="D150" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="E150" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="F150" t="n">
-        <v>2506</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-1149886.277202421</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C151" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D151" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="E151" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F151" t="n">
-        <v>84</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-1149802.277202421</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="C152" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="D152" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="E152" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="F152" t="n">
-        <v>20502.41</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-1170304.687202421</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="C153" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="D153" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="E153" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="F153" t="n">
-        <v>31282.5698</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-1201587.257002421</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="C154" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="D154" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="E154" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="F154" t="n">
-        <v>50</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-1201537.257002421</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C155" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D155" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E155" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F155" t="n">
-        <v>5589</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-1207126.257002421</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="C156" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="D156" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="E156" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="F156" t="n">
-        <v>50</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-1207076.257002421</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="C157" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="D157" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="E157" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F157" t="n">
-        <v>36623.8336</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-1207076.257002421</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="C158" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="D158" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="E158" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F158" t="n">
-        <v>23306.8585</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-1230383.115502421</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="C159" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="D159" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="E159" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="F159" t="n">
-        <v>213469.5572</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-1016913.558302421</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="C160" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="D160" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="E160" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="F160" t="n">
-        <v>50</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-1016863.558302421</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="C161" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="D161" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="E161" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="F161" t="n">
-        <v>213477.5572</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-1016863.558302421</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="C162" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="D162" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="E162" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="F162" t="n">
-        <v>3436.394</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-1020299.952302421</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="C163" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="D163" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="E163" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="F163" t="n">
-        <v>67288.3337</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-1020299.952302421</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
+      <c r="N121" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-22 BackTest TRV.xlsx
+++ b/BackTest/2020-01-22 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N121"/>
+  <dimension ref="A1:N192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.9</v>
+        <v>11.81</v>
       </c>
       <c r="C2" t="n">
-        <v>11.89</v>
+        <v>11.81</v>
       </c>
       <c r="D2" t="n">
-        <v>11.9</v>
+        <v>11.81</v>
       </c>
       <c r="E2" t="n">
-        <v>11.89</v>
+        <v>11.81</v>
       </c>
       <c r="F2" t="n">
-        <v>14259</v>
+        <v>29339.542</v>
       </c>
       <c r="G2" t="n">
-        <v>-981747.0132024213</v>
+        <v>-316122.3280024213</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.07</v>
+        <v>11.81</v>
       </c>
       <c r="C3" t="n">
-        <v>12.07</v>
+        <v>11.81</v>
       </c>
       <c r="D3" t="n">
-        <v>12.07</v>
+        <v>11.81</v>
       </c>
       <c r="E3" t="n">
-        <v>12.07</v>
+        <v>11.81</v>
       </c>
       <c r="F3" t="n">
-        <v>41.4251</v>
+        <v>20000</v>
       </c>
       <c r="G3" t="n">
-        <v>-981705.5881024213</v>
+        <v>-316122.3280024213</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.9</v>
+        <v>11.81</v>
       </c>
       <c r="C4" t="n">
-        <v>11.87</v>
+        <v>11.81</v>
       </c>
       <c r="D4" t="n">
-        <v>11.9</v>
+        <v>11.81</v>
       </c>
       <c r="E4" t="n">
-        <v>11.87</v>
+        <v>11.81</v>
       </c>
       <c r="F4" t="n">
-        <v>41228.1915</v>
+        <v>10442.1593</v>
       </c>
       <c r="G4" t="n">
-        <v>-1022933.779602421</v>
+        <v>-316122.3280024213</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.07</v>
+        <v>12.03</v>
       </c>
       <c r="C5" t="n">
-        <v>12.07</v>
+        <v>12.03</v>
       </c>
       <c r="D5" t="n">
-        <v>12.07</v>
+        <v>12.03</v>
       </c>
       <c r="E5" t="n">
-        <v>12.07</v>
+        <v>12.03</v>
       </c>
       <c r="F5" t="n">
-        <v>41.4251</v>
+        <v>43</v>
       </c>
       <c r="G5" t="n">
-        <v>-1022892.354502421</v>
+        <v>-316079.3280024213</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.9</v>
+        <v>11.87</v>
       </c>
       <c r="C6" t="n">
-        <v>11.9</v>
+        <v>11.87</v>
       </c>
       <c r="D6" t="n">
-        <v>11.9</v>
+        <v>11.87</v>
       </c>
       <c r="E6" t="n">
-        <v>11.9</v>
+        <v>11.87</v>
       </c>
       <c r="F6" t="n">
-        <v>3731.9738</v>
+        <v>12000</v>
       </c>
       <c r="G6" t="n">
-        <v>-1026624.328302421</v>
+        <v>-328079.3280024213</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.03</v>
+        <v>11.88</v>
       </c>
       <c r="C7" t="n">
-        <v>11.93</v>
+        <v>11.88</v>
       </c>
       <c r="D7" t="n">
-        <v>12.03</v>
+        <v>11.88</v>
       </c>
       <c r="E7" t="n">
-        <v>11.93</v>
+        <v>11.88</v>
       </c>
       <c r="F7" t="n">
-        <v>1660.6024</v>
+        <v>8043</v>
       </c>
       <c r="G7" t="n">
-        <v>-1024963.725902421</v>
+        <v>-320036.3280024213</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.03</v>
+        <v>11.89</v>
       </c>
       <c r="C8" t="n">
-        <v>12.03</v>
+        <v>11.89</v>
       </c>
       <c r="D8" t="n">
-        <v>12.03</v>
+        <v>11.89</v>
       </c>
       <c r="E8" t="n">
-        <v>12.03</v>
+        <v>11.89</v>
       </c>
       <c r="F8" t="n">
-        <v>42</v>
+        <v>10504.6325</v>
       </c>
       <c r="G8" t="n">
-        <v>-1024921.725902421</v>
+        <v>-309531.6955024213</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12.03</v>
+        <v>11.89</v>
       </c>
       <c r="C9" t="n">
-        <v>12.03</v>
+        <v>11.89</v>
       </c>
       <c r="D9" t="n">
-        <v>12.03</v>
+        <v>11.89</v>
       </c>
       <c r="E9" t="n">
-        <v>12.03</v>
+        <v>11.89</v>
       </c>
       <c r="F9" t="n">
-        <v>50205.8385</v>
+        <v>1111</v>
       </c>
       <c r="G9" t="n">
-        <v>-1024921.725902421</v>
+        <v>-309531.6955024213</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.93</v>
+        <v>12.01</v>
       </c>
       <c r="C10" t="n">
-        <v>11.93</v>
+        <v>12.01</v>
       </c>
       <c r="D10" t="n">
-        <v>11.93</v>
+        <v>12.01</v>
       </c>
       <c r="E10" t="n">
-        <v>11.93</v>
+        <v>12.01</v>
       </c>
       <c r="F10" t="n">
-        <v>20000</v>
+        <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>-1044921.725902421</v>
+        <v>-309481.6955024213</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.93</v>
+        <v>11.87</v>
       </c>
       <c r="C11" t="n">
-        <v>11.93</v>
+        <v>11.87</v>
       </c>
       <c r="D11" t="n">
-        <v>11.93</v>
+        <v>11.87</v>
       </c>
       <c r="E11" t="n">
-        <v>11.93</v>
+        <v>11.87</v>
       </c>
       <c r="F11" t="n">
-        <v>17225.2894</v>
+        <v>102600.0435</v>
       </c>
       <c r="G11" t="n">
-        <v>-1044921.725902421</v>
+        <v>-412081.7390024213</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,35 +798,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.95</v>
+        <v>11.87</v>
       </c>
       <c r="C12" t="n">
-        <v>11.95</v>
+        <v>11.87</v>
       </c>
       <c r="D12" t="n">
-        <v>11.95</v>
+        <v>11.87</v>
       </c>
       <c r="E12" t="n">
-        <v>11.95</v>
+        <v>11.87</v>
       </c>
       <c r="F12" t="n">
-        <v>25027.9771</v>
+        <v>6354.0829</v>
       </c>
       <c r="G12" t="n">
-        <v>-1019893.748802421</v>
+        <v>-412081.7390024213</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="K12" t="n">
-        <v>11.93</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
@@ -838,40 +834,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.95</v>
+        <v>11.87</v>
       </c>
       <c r="C13" t="n">
-        <v>11.95</v>
+        <v>11.87</v>
       </c>
       <c r="D13" t="n">
-        <v>11.95</v>
+        <v>11.87</v>
       </c>
       <c r="E13" t="n">
-        <v>11.95</v>
+        <v>11.87</v>
       </c>
       <c r="F13" t="n">
-        <v>15351.2296</v>
+        <v>23344.0791</v>
       </c>
       <c r="G13" t="n">
-        <v>-1019893.748802421</v>
+        <v>-412081.7390024213</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="K13" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -882,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.05</v>
+        <v>12.01</v>
       </c>
       <c r="C14" t="n">
-        <v>12.06</v>
+        <v>12.01</v>
       </c>
       <c r="D14" t="n">
-        <v>12.06</v>
+        <v>12.01</v>
       </c>
       <c r="E14" t="n">
-        <v>12.05</v>
+        <v>12.01</v>
       </c>
       <c r="F14" t="n">
-        <v>83.49379999999999</v>
+        <v>641.9048</v>
       </c>
       <c r="G14" t="n">
-        <v>-1019810.255002421</v>
+        <v>-411439.8342024212</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,14 +894,8 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -924,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.05</v>
+        <v>11.87</v>
       </c>
       <c r="C15" t="n">
-        <v>12.05</v>
+        <v>11.87</v>
       </c>
       <c r="D15" t="n">
-        <v>12.05</v>
+        <v>11.87</v>
       </c>
       <c r="E15" t="n">
-        <v>12.05</v>
+        <v>11.87</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5062</v>
+        <v>8798.176100000001</v>
       </c>
       <c r="G15" t="n">
-        <v>-1019810.761202421</v>
+        <v>-420238.0103024212</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -960,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.93</v>
+        <v>12.01</v>
       </c>
       <c r="C16" t="n">
-        <v>11.87</v>
+        <v>12.01</v>
       </c>
       <c r="D16" t="n">
-        <v>11.93</v>
+        <v>12.01</v>
       </c>
       <c r="E16" t="n">
-        <v>11.87</v>
+        <v>12.01</v>
       </c>
       <c r="F16" t="n">
-        <v>14546</v>
+        <v>28604.6372</v>
       </c>
       <c r="G16" t="n">
-        <v>-1034356.761202421</v>
+        <v>-391633.3731024212</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -996,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.06</v>
+        <v>12.02</v>
       </c>
       <c r="C17" t="n">
-        <v>12.06</v>
+        <v>12.02</v>
       </c>
       <c r="D17" t="n">
-        <v>12.06</v>
+        <v>12.02</v>
       </c>
       <c r="E17" t="n">
-        <v>12.06</v>
+        <v>12.02</v>
       </c>
       <c r="F17" t="n">
-        <v>42</v>
+        <v>10073.2686</v>
       </c>
       <c r="G17" t="n">
-        <v>-1034314.761202421</v>
+        <v>-381560.1045024212</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1032,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.06</v>
+        <v>12.03</v>
       </c>
       <c r="C18" t="n">
-        <v>12.06</v>
+        <v>12.01</v>
       </c>
       <c r="D18" t="n">
-        <v>12.06</v>
+        <v>12.03</v>
       </c>
       <c r="E18" t="n">
-        <v>12.06</v>
+        <v>12.01</v>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>7822.0942</v>
       </c>
       <c r="G18" t="n">
-        <v>-1034314.761202421</v>
+        <v>-389382.1987024212</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1068,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.01</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>12.01</v>
+        <v>12</v>
       </c>
       <c r="D19" t="n">
-        <v>12.01</v>
+        <v>12</v>
       </c>
       <c r="E19" t="n">
-        <v>12.01</v>
+        <v>12</v>
       </c>
       <c r="F19" t="n">
-        <v>42</v>
+        <v>196134.9016</v>
       </c>
       <c r="G19" t="n">
-        <v>-1034356.761202421</v>
+        <v>-585517.1003024213</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1104,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.91</v>
+        <v>11.95</v>
       </c>
       <c r="C20" t="n">
-        <v>11.82</v>
+        <v>11.95</v>
       </c>
       <c r="D20" t="n">
-        <v>11.91</v>
+        <v>11.95</v>
       </c>
       <c r="E20" t="n">
-        <v>11.82</v>
+        <v>11.95</v>
       </c>
       <c r="F20" t="n">
-        <v>61733.4252</v>
+        <v>1224</v>
       </c>
       <c r="G20" t="n">
-        <v>-1096090.186402421</v>
+        <v>-586741.1003024213</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1140,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.91</v>
+        <v>11.94</v>
       </c>
       <c r="C21" t="n">
-        <v>11.91</v>
+        <v>11.94</v>
       </c>
       <c r="D21" t="n">
-        <v>11.91</v>
+        <v>11.94</v>
       </c>
       <c r="E21" t="n">
-        <v>11.91</v>
+        <v>11.94</v>
       </c>
       <c r="F21" t="n">
-        <v>3175.0753</v>
+        <v>69828.53939999999</v>
       </c>
       <c r="G21" t="n">
-        <v>-1092915.111102421</v>
+        <v>-656569.6397024213</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1176,35 +1158,31 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.9</v>
+        <v>11.94</v>
       </c>
       <c r="C22" t="n">
-        <v>11.9</v>
+        <v>11.94</v>
       </c>
       <c r="D22" t="n">
-        <v>11.9</v>
+        <v>11.94</v>
       </c>
       <c r="E22" t="n">
-        <v>11.9</v>
+        <v>11.94</v>
       </c>
       <c r="F22" t="n">
-        <v>3533.4512</v>
+        <v>1218.915</v>
       </c>
       <c r="G22" t="n">
-        <v>-1096448.562302421</v>
+        <v>-656569.6397024213</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="K22" t="n">
-        <v>11.91</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
@@ -1216,40 +1194,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.82</v>
+        <v>11.94</v>
       </c>
       <c r="C23" t="n">
-        <v>11.82</v>
+        <v>11.94</v>
       </c>
       <c r="D23" t="n">
-        <v>11.82</v>
+        <v>11.94</v>
       </c>
       <c r="E23" t="n">
-        <v>11.82</v>
+        <v>11.94</v>
       </c>
       <c r="F23" t="n">
-        <v>9687.283600000001</v>
+        <v>21411.3187</v>
       </c>
       <c r="G23" t="n">
-        <v>-1106135.845902421</v>
+        <v>-656569.6397024213</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K23" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1260,40 +1230,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.81</v>
+        <v>11.93</v>
       </c>
       <c r="C24" t="n">
-        <v>11.81</v>
+        <v>11.91</v>
       </c>
       <c r="D24" t="n">
-        <v>11.81</v>
+        <v>11.93</v>
       </c>
       <c r="E24" t="n">
-        <v>11.81</v>
+        <v>11.91</v>
       </c>
       <c r="F24" t="n">
-        <v>34698.1853</v>
+        <v>40000</v>
       </c>
       <c r="G24" t="n">
-        <v>-1140834.031202421</v>
+        <v>-696569.6397024213</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="K24" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1304,35 +1266,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.99</v>
+        <v>11.91</v>
       </c>
       <c r="C25" t="n">
-        <v>11.99</v>
+        <v>11.87</v>
       </c>
       <c r="D25" t="n">
-        <v>11.99</v>
+        <v>11.91</v>
       </c>
       <c r="E25" t="n">
-        <v>11.99</v>
+        <v>11.87</v>
       </c>
       <c r="F25" t="n">
-        <v>42</v>
+        <v>168409.9931</v>
       </c>
       <c r="G25" t="n">
-        <v>-1140792.031202421</v>
+        <v>-864979.6328024212</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="K25" t="n">
-        <v>11.81</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
@@ -1344,40 +1302,32 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.99</v>
+        <v>11.86</v>
       </c>
       <c r="C26" t="n">
-        <v>11.99</v>
+        <v>11.87</v>
       </c>
       <c r="D26" t="n">
-        <v>11.99</v>
+        <v>11.87</v>
       </c>
       <c r="E26" t="n">
-        <v>11.99</v>
+        <v>11.86</v>
       </c>
       <c r="F26" t="n">
-        <v>127.8395</v>
+        <v>52128.192</v>
       </c>
       <c r="G26" t="n">
-        <v>-1140792.031202421</v>
+        <v>-864979.6328024212</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="K26" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1388,40 +1338,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.99</v>
+        <v>11.91</v>
       </c>
       <c r="C27" t="n">
-        <v>11.99</v>
+        <v>11.91</v>
       </c>
       <c r="D27" t="n">
-        <v>11.99</v>
+        <v>11.91</v>
       </c>
       <c r="E27" t="n">
-        <v>11.99</v>
+        <v>11.91</v>
       </c>
       <c r="F27" t="n">
-        <v>28667.7315</v>
+        <v>28799.328</v>
       </c>
       <c r="G27" t="n">
-        <v>-1140792.031202421</v>
+        <v>-836180.3048024212</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="K27" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1432,35 +1374,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C28" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E28" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="F28" t="n">
-        <v>3533.4512</v>
+        <v>10339.6287</v>
       </c>
       <c r="G28" t="n">
-        <v>-1137258.580002421</v>
+        <v>-846519.9335024212</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="K28" t="n">
-        <v>11.99</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
@@ -1472,40 +1410,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="C29" t="n">
-        <v>12</v>
+        <v>11.84</v>
       </c>
       <c r="D29" t="n">
-        <v>12</v>
+        <v>11.86</v>
       </c>
       <c r="E29" t="n">
-        <v>12</v>
+        <v>11.84</v>
       </c>
       <c r="F29" t="n">
-        <v>7676.076</v>
+        <v>4843.8839</v>
       </c>
       <c r="G29" t="n">
-        <v>-1137258.580002421</v>
+        <v>-851363.8174024213</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>12</v>
-      </c>
-      <c r="K29" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1516,40 +1446,32 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C30" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E30" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F30" t="n">
-        <v>2700</v>
+        <v>41017.1594</v>
       </c>
       <c r="G30" t="n">
-        <v>-1137258.580002421</v>
+        <v>-892380.9768024213</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>12</v>
-      </c>
-      <c r="K30" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1560,35 +1482,31 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="C31" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="D31" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="E31" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="F31" t="n">
-        <v>17360.0089</v>
+        <v>2536.1475</v>
       </c>
       <c r="G31" t="n">
-        <v>-1137258.580002421</v>
+        <v>-889844.8293024213</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>12</v>
-      </c>
-      <c r="K31" t="n">
-        <v>12</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
@@ -1600,40 +1518,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.07</v>
+        <v>11.99</v>
       </c>
       <c r="C32" t="n">
-        <v>12.08</v>
+        <v>11.99</v>
       </c>
       <c r="D32" t="n">
-        <v>12.08</v>
+        <v>11.99</v>
       </c>
       <c r="E32" t="n">
-        <v>12.07</v>
+        <v>11.99</v>
       </c>
       <c r="F32" t="n">
-        <v>42.9999</v>
+        <v>13688.3783</v>
       </c>
       <c r="G32" t="n">
-        <v>-1137215.580102421</v>
+        <v>-889844.8293024213</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>12</v>
-      </c>
-      <c r="K32" t="n">
-        <v>12</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1644,40 +1554,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.07</v>
+        <v>11.99</v>
       </c>
       <c r="C33" t="n">
-        <v>12.07</v>
+        <v>11.99</v>
       </c>
       <c r="D33" t="n">
-        <v>12.07</v>
+        <v>11.99</v>
       </c>
       <c r="E33" t="n">
-        <v>12.07</v>
+        <v>11.99</v>
       </c>
       <c r="F33" t="n">
-        <v>41.0001</v>
+        <v>9617.213400000001</v>
       </c>
       <c r="G33" t="n">
-        <v>-1137256.580202421</v>
+        <v>-889844.8293024213</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="K33" t="n">
-        <v>12</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1688,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="C34" t="n">
-        <v>11.95</v>
+        <v>11.99</v>
       </c>
       <c r="D34" t="n">
-        <v>12</v>
+        <v>11.99</v>
       </c>
       <c r="E34" t="n">
-        <v>11.95</v>
+        <v>11.99</v>
       </c>
       <c r="F34" t="n">
-        <v>18224.8803</v>
+        <v>2957.5888</v>
       </c>
       <c r="G34" t="n">
-        <v>-1155481.460502421</v>
+        <v>-889844.8293024213</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1724,35 +1626,31 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.08</v>
+        <v>11.99</v>
       </c>
       <c r="C35" t="n">
-        <v>12.08</v>
+        <v>12</v>
       </c>
       <c r="D35" t="n">
-        <v>12.08</v>
+        <v>12</v>
       </c>
       <c r="E35" t="n">
-        <v>12.08</v>
+        <v>11.99</v>
       </c>
       <c r="F35" t="n">
-        <v>42</v>
+        <v>4496.6287</v>
       </c>
       <c r="G35" t="n">
-        <v>-1155439.460502421</v>
+        <v>-885348.2006024213</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="K35" t="n">
-        <v>11.95</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
@@ -1764,40 +1662,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.08</v>
+        <v>12.05</v>
       </c>
       <c r="C36" t="n">
-        <v>12.08</v>
+        <v>12.06</v>
       </c>
       <c r="D36" t="n">
-        <v>12.08</v>
+        <v>12.06</v>
       </c>
       <c r="E36" t="n">
-        <v>12.08</v>
+        <v>12.05</v>
       </c>
       <c r="F36" t="n">
-        <v>862.1411000000001</v>
+        <v>15000</v>
       </c>
       <c r="G36" t="n">
-        <v>-1155439.460502421</v>
+        <v>-870348.2006024213</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="K36" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1808,40 +1698,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.96</v>
+        <v>12.08</v>
       </c>
       <c r="C37" t="n">
-        <v>11.94</v>
+        <v>12.18</v>
       </c>
       <c r="D37" t="n">
-        <v>11.96</v>
+        <v>12.18</v>
       </c>
       <c r="E37" t="n">
-        <v>11.94</v>
+        <v>12.08</v>
       </c>
       <c r="F37" t="n">
-        <v>14816</v>
+        <v>78027.4184</v>
       </c>
       <c r="G37" t="n">
-        <v>-1170255.460502421</v>
+        <v>-792320.7822024213</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="K37" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1852,40 +1734,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.07</v>
+        <v>12.09</v>
       </c>
       <c r="C38" t="n">
-        <v>12.07</v>
+        <v>12.09</v>
       </c>
       <c r="D38" t="n">
-        <v>12.07</v>
+        <v>12.09</v>
       </c>
       <c r="E38" t="n">
-        <v>12.07</v>
+        <v>12.09</v>
       </c>
       <c r="F38" t="n">
-        <v>1000</v>
+        <v>10442.1593</v>
       </c>
       <c r="G38" t="n">
-        <v>-1169255.460502421</v>
+        <v>-802762.9415024214</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="K38" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1896,40 +1770,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.95</v>
+        <v>12.1</v>
       </c>
       <c r="C39" t="n">
-        <v>11.95</v>
+        <v>12.1</v>
       </c>
       <c r="D39" t="n">
-        <v>11.95</v>
+        <v>12.1</v>
       </c>
       <c r="E39" t="n">
-        <v>11.95</v>
+        <v>12.1</v>
       </c>
       <c r="F39" t="n">
-        <v>10780.8582</v>
+        <v>20300</v>
       </c>
       <c r="G39" t="n">
-        <v>-1180036.318702421</v>
+        <v>-782462.9415024214</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="K39" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1940,40 +1806,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.01</v>
+        <v>12.1</v>
       </c>
       <c r="C40" t="n">
-        <v>12.01</v>
+        <v>12.1</v>
       </c>
       <c r="D40" t="n">
-        <v>12.01</v>
+        <v>12.1</v>
       </c>
       <c r="E40" t="n">
-        <v>12.01</v>
+        <v>12.1</v>
       </c>
       <c r="F40" t="n">
-        <v>42</v>
+        <v>14639.488</v>
       </c>
       <c r="G40" t="n">
-        <v>-1179994.318702421</v>
+        <v>-782462.9415024214</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="K40" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1984,40 +1842,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.95</v>
+        <v>12.04</v>
       </c>
       <c r="C41" t="n">
-        <v>11.95</v>
+        <v>12.02</v>
       </c>
       <c r="D41" t="n">
-        <v>11.95</v>
+        <v>12.04</v>
       </c>
       <c r="E41" t="n">
-        <v>11.95</v>
+        <v>12.02</v>
       </c>
       <c r="F41" t="n">
-        <v>342.1418</v>
+        <v>78842.7032</v>
       </c>
       <c r="G41" t="n">
-        <v>-1180336.460502421</v>
+        <v>-861305.6447024214</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="K41" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2028,40 +1878,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.94</v>
+        <v>12.18</v>
       </c>
       <c r="C42" t="n">
-        <v>11.94</v>
+        <v>12.18</v>
       </c>
       <c r="D42" t="n">
-        <v>11.94</v>
+        <v>12.18</v>
       </c>
       <c r="E42" t="n">
-        <v>11.94</v>
+        <v>12.18</v>
       </c>
       <c r="F42" t="n">
-        <v>842.5176</v>
+        <v>42</v>
       </c>
       <c r="G42" t="n">
-        <v>-1181178.978102421</v>
+        <v>-861263.6447024214</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="K42" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2072,40 +1914,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.93</v>
+        <v>12.1</v>
       </c>
       <c r="C43" t="n">
-        <v>11.95</v>
+        <v>12.1</v>
       </c>
       <c r="D43" t="n">
-        <v>11.95</v>
+        <v>12.1</v>
       </c>
       <c r="E43" t="n">
-        <v>11.93</v>
+        <v>12.1</v>
       </c>
       <c r="F43" t="n">
-        <v>124507.949</v>
+        <v>14639.488</v>
       </c>
       <c r="G43" t="n">
-        <v>-1056671.029102421</v>
+        <v>-875903.1327024214</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="K43" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2116,40 +1950,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.02</v>
+        <v>12.11</v>
       </c>
       <c r="C44" t="n">
-        <v>12.02</v>
+        <v>12.11</v>
       </c>
       <c r="D44" t="n">
-        <v>12.02</v>
+        <v>12.11</v>
       </c>
       <c r="E44" t="n">
-        <v>12.02</v>
+        <v>12.11</v>
       </c>
       <c r="F44" t="n">
-        <v>21757.3493</v>
+        <v>200</v>
       </c>
       <c r="G44" t="n">
-        <v>-1034913.679802421</v>
+        <v>-875703.1327024214</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="K44" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2160,40 +1986,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.06</v>
+        <v>12.11</v>
       </c>
       <c r="C45" t="n">
-        <v>12.14</v>
+        <v>12.11</v>
       </c>
       <c r="D45" t="n">
-        <v>12.14</v>
+        <v>12.11</v>
       </c>
       <c r="E45" t="n">
-        <v>12.06</v>
+        <v>12.11</v>
       </c>
       <c r="F45" t="n">
-        <v>162284.2769</v>
+        <v>13479.8198</v>
       </c>
       <c r="G45" t="n">
-        <v>-872629.4029024213</v>
+        <v>-875703.1327024214</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="K45" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2204,40 +2022,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.14</v>
+        <v>12.18</v>
       </c>
       <c r="C46" t="n">
-        <v>12.19</v>
+        <v>12.18</v>
       </c>
       <c r="D46" t="n">
-        <v>12.19</v>
+        <v>12.18</v>
       </c>
       <c r="E46" t="n">
-        <v>12.14</v>
+        <v>12.18</v>
       </c>
       <c r="F46" t="n">
-        <v>235544.2812</v>
+        <v>42</v>
       </c>
       <c r="G46" t="n">
-        <v>-637085.1217024213</v>
+        <v>-875661.1327024214</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="K46" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2248,40 +2058,32 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.26</v>
+        <v>12.18</v>
       </c>
       <c r="C47" t="n">
-        <v>12.26</v>
+        <v>12.18</v>
       </c>
       <c r="D47" t="n">
-        <v>12.26</v>
+        <v>12.18</v>
       </c>
       <c r="E47" t="n">
-        <v>12.26</v>
+        <v>12.18</v>
       </c>
       <c r="F47" t="n">
-        <v>1032.0253</v>
+        <v>16560.1212</v>
       </c>
       <c r="G47" t="n">
-        <v>-636053.0964024214</v>
+        <v>-875661.1327024214</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="K47" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2292,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.26</v>
+        <v>12.18</v>
       </c>
       <c r="C48" t="n">
-        <v>12.35</v>
+        <v>12.18</v>
       </c>
       <c r="D48" t="n">
-        <v>12.35</v>
+        <v>12.18</v>
       </c>
       <c r="E48" t="n">
-        <v>12.26</v>
+        <v>12.18</v>
       </c>
       <c r="F48" t="n">
-        <v>240762.7536</v>
+        <v>934.5337</v>
       </c>
       <c r="G48" t="n">
-        <v>-395290.3428024214</v>
+        <v>-875661.1327024214</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2316,14 +2118,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2334,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.35</v>
+        <v>12.09</v>
       </c>
       <c r="C49" t="n">
-        <v>12.39</v>
+        <v>12.09</v>
       </c>
       <c r="D49" t="n">
-        <v>12.39</v>
+        <v>12.09</v>
       </c>
       <c r="E49" t="n">
-        <v>12.35</v>
+        <v>12.09</v>
       </c>
       <c r="F49" t="n">
-        <v>226745.5374</v>
+        <v>53303</v>
       </c>
       <c r="G49" t="n">
-        <v>-168544.8054024214</v>
+        <v>-928964.1327024214</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2358,14 +2154,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2376,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.39</v>
+        <v>12.09</v>
       </c>
       <c r="C50" t="n">
-        <v>12.45</v>
+        <v>12.04</v>
       </c>
       <c r="D50" t="n">
-        <v>12.45</v>
+        <v>12.09</v>
       </c>
       <c r="E50" t="n">
-        <v>12.39</v>
+        <v>12.04</v>
       </c>
       <c r="F50" t="n">
-        <v>102437.2155</v>
+        <v>2543.5619</v>
       </c>
       <c r="G50" t="n">
-        <v>-66107.58990242136</v>
+        <v>-931507.6946024214</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2400,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2418,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.44</v>
+        <v>12.02</v>
       </c>
       <c r="C51" t="n">
-        <v>12.44</v>
+        <v>12.04</v>
       </c>
       <c r="D51" t="n">
-        <v>12.44</v>
+        <v>12.04</v>
       </c>
       <c r="E51" t="n">
-        <v>12.44</v>
+        <v>11.97</v>
       </c>
       <c r="F51" t="n">
-        <v>770.776</v>
+        <v>183042</v>
       </c>
       <c r="G51" t="n">
-        <v>-66878.36590242136</v>
+        <v>-931507.6946024214</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2442,14 +2226,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2460,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.44</v>
+        <v>11.91</v>
       </c>
       <c r="C52" t="n">
-        <v>12.44</v>
+        <v>11.91</v>
       </c>
       <c r="D52" t="n">
-        <v>12.44</v>
+        <v>11.91</v>
       </c>
       <c r="E52" t="n">
-        <v>12.44</v>
+        <v>11.91</v>
       </c>
       <c r="F52" t="n">
-        <v>816.3988000000001</v>
+        <v>12052.4289</v>
       </c>
       <c r="G52" t="n">
-        <v>-66878.36590242136</v>
+        <v>-943560.1235024214</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2484,14 +2262,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2502,38 +2274,36 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.31</v>
+        <v>11.91</v>
       </c>
       <c r="C53" t="n">
-        <v>12.44</v>
+        <v>11.91</v>
       </c>
       <c r="D53" t="n">
-        <v>12.44</v>
+        <v>11.91</v>
       </c>
       <c r="E53" t="n">
-        <v>12.3</v>
+        <v>11.91</v>
       </c>
       <c r="F53" t="n">
-        <v>44636.6999</v>
+        <v>50</v>
       </c>
       <c r="G53" t="n">
-        <v>-66878.36590242136</v>
+        <v>-943560.1235024214</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>11.91</v>
+      </c>
       <c r="K53" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.91</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2544,36 +2314,38 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.45</v>
+        <v>11.9</v>
       </c>
       <c r="C54" t="n">
-        <v>12.35</v>
+        <v>11.91</v>
       </c>
       <c r="D54" t="n">
-        <v>12.45</v>
+        <v>11.91</v>
       </c>
       <c r="E54" t="n">
-        <v>12.35</v>
+        <v>11.9</v>
       </c>
       <c r="F54" t="n">
-        <v>110</v>
+        <v>5342.8116</v>
       </c>
       <c r="G54" t="n">
-        <v>-66988.36590242136</v>
+        <v>-943560.1235024214</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>11.91</v>
+      </c>
       <c r="K54" t="n">
-        <v>11.95</v>
+        <v>11.91</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M54" t="n">
@@ -2586,32 +2358,34 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.45</v>
+        <v>11.97</v>
       </c>
       <c r="C55" t="n">
-        <v>12.43</v>
+        <v>11.97</v>
       </c>
       <c r="D55" t="n">
-        <v>12.45</v>
+        <v>11.97</v>
       </c>
       <c r="E55" t="n">
-        <v>12.22</v>
+        <v>11.97</v>
       </c>
       <c r="F55" t="n">
-        <v>27361.492</v>
+        <v>10259.8648</v>
       </c>
       <c r="G55" t="n">
-        <v>-39626.87390242136</v>
+        <v>-933300.2587024214</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>11.91</v>
+      </c>
       <c r="K55" t="n">
-        <v>11.95</v>
+        <v>11.91</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2628,32 +2402,34 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.22</v>
+        <v>12</v>
       </c>
       <c r="C56" t="n">
-        <v>12.11</v>
+        <v>11.98</v>
       </c>
       <c r="D56" t="n">
-        <v>12.22</v>
+        <v>12</v>
       </c>
       <c r="E56" t="n">
-        <v>12.11</v>
+        <v>11.98</v>
       </c>
       <c r="F56" t="n">
-        <v>158930.2328</v>
+        <v>5972.3604</v>
       </c>
       <c r="G56" t="n">
-        <v>-198557.1067024214</v>
+        <v>-927327.8983024214</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>11.97</v>
+      </c>
       <c r="K56" t="n">
-        <v>11.95</v>
+        <v>11.91</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2670,32 +2446,34 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.37</v>
+        <v>11.98</v>
       </c>
       <c r="C57" t="n">
-        <v>12.37</v>
+        <v>11.98</v>
       </c>
       <c r="D57" t="n">
-        <v>12.37</v>
+        <v>11.98</v>
       </c>
       <c r="E57" t="n">
-        <v>12.36</v>
+        <v>11.98</v>
       </c>
       <c r="F57" t="n">
-        <v>99</v>
+        <v>4287.5044</v>
       </c>
       <c r="G57" t="n">
-        <v>-198458.1067024214</v>
+        <v>-927327.8983024214</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>11.98</v>
+      </c>
       <c r="K57" t="n">
-        <v>11.95</v>
+        <v>11.91</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2712,40 +2490,42 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.37</v>
+        <v>11.93</v>
       </c>
       <c r="C58" t="n">
-        <v>12.37</v>
+        <v>11.93</v>
       </c>
       <c r="D58" t="n">
-        <v>12.37</v>
+        <v>11.93</v>
       </c>
       <c r="E58" t="n">
-        <v>12.37</v>
+        <v>11.93</v>
       </c>
       <c r="F58" t="n">
-        <v>8216.151599999999</v>
+        <v>13583</v>
       </c>
       <c r="G58" t="n">
-        <v>-198458.1067024214</v>
+        <v>-940910.8983024214</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>11.98</v>
+      </c>
       <c r="K58" t="n">
-        <v>11.95</v>
+        <v>11.91</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>1.030146443514644</v>
+        <v>1</v>
       </c>
       <c r="N58" t="inlineStr"/>
     </row>
@@ -2754,32 +2534,40 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.36</v>
+        <v>11.96</v>
       </c>
       <c r="C59" t="n">
-        <v>12.36</v>
+        <v>11.87</v>
       </c>
       <c r="D59" t="n">
-        <v>12.36</v>
+        <v>11.96</v>
       </c>
       <c r="E59" t="n">
-        <v>12.36</v>
+        <v>11.87</v>
       </c>
       <c r="F59" t="n">
-        <v>41</v>
+        <v>4287.5044</v>
       </c>
       <c r="G59" t="n">
-        <v>-198499.1067024214</v>
+        <v>-945198.4027024214</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="K59" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2790,32 +2578,40 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.37</v>
+        <v>12.14</v>
       </c>
       <c r="C60" t="n">
-        <v>12.36</v>
+        <v>12.14</v>
       </c>
       <c r="D60" t="n">
-        <v>12.37</v>
+        <v>12.14</v>
       </c>
       <c r="E60" t="n">
-        <v>12.36</v>
+        <v>12.14</v>
       </c>
       <c r="F60" t="n">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="G60" t="n">
-        <v>-198499.1067024214</v>
+        <v>-945156.4027024214</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="K60" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2826,32 +2622,38 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.25</v>
+        <v>12.12</v>
       </c>
       <c r="C61" t="n">
-        <v>12.22</v>
+        <v>12.12</v>
       </c>
       <c r="D61" t="n">
-        <v>12.25</v>
+        <v>12.12</v>
       </c>
       <c r="E61" t="n">
-        <v>12.22</v>
+        <v>12.12</v>
       </c>
       <c r="F61" t="n">
-        <v>16134.8063</v>
+        <v>24691.0125</v>
       </c>
       <c r="G61" t="n">
-        <v>-214633.9130024214</v>
+        <v>-969847.4152024214</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2862,32 +2664,38 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.23</v>
+        <v>12</v>
       </c>
       <c r="C62" t="n">
-        <v>12.23</v>
+        <v>12</v>
       </c>
       <c r="D62" t="n">
-        <v>12.23</v>
+        <v>12</v>
       </c>
       <c r="E62" t="n">
-        <v>12.23</v>
+        <v>12</v>
       </c>
       <c r="F62" t="n">
-        <v>50</v>
+        <v>34440.8622</v>
       </c>
       <c r="G62" t="n">
-        <v>-214583.9130024214</v>
+        <v>-1004288.277402421</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2898,32 +2706,38 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.2</v>
+        <v>11.95</v>
       </c>
       <c r="C63" t="n">
-        <v>12.21</v>
+        <v>11.95</v>
       </c>
       <c r="D63" t="n">
-        <v>12.21</v>
+        <v>11.95</v>
       </c>
       <c r="E63" t="n">
-        <v>12.2</v>
+        <v>11.95</v>
       </c>
       <c r="F63" t="n">
-        <v>49</v>
+        <v>1726.3091</v>
       </c>
       <c r="G63" t="n">
-        <v>-214632.9130024214</v>
+        <v>-1006014.586502421</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2934,32 +2748,38 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.21</v>
+        <v>11.96</v>
       </c>
       <c r="C64" t="n">
-        <v>12.3</v>
+        <v>11.96</v>
       </c>
       <c r="D64" t="n">
-        <v>12.3</v>
+        <v>11.96</v>
       </c>
       <c r="E64" t="n">
-        <v>12.21</v>
+        <v>11.95</v>
       </c>
       <c r="F64" t="n">
-        <v>21999.8737</v>
+        <v>55531.8986</v>
       </c>
       <c r="G64" t="n">
-        <v>-192633.0393024214</v>
+        <v>-950482.6879024213</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2970,32 +2790,40 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.2</v>
+        <v>11.95</v>
       </c>
       <c r="C65" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D65" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E65" t="n">
-        <v>12.2</v>
+        <v>11.95</v>
       </c>
       <c r="F65" t="n">
-        <v>121</v>
+        <v>28895.5459</v>
       </c>
       <c r="G65" t="n">
-        <v>-192633.0393024214</v>
+        <v>-921587.1420024213</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="K65" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3006,22 +2834,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.29</v>
+        <v>11.89</v>
       </c>
       <c r="C66" t="n">
-        <v>12.3</v>
+        <v>11.87</v>
       </c>
       <c r="D66" t="n">
-        <v>12.3</v>
+        <v>11.89</v>
       </c>
       <c r="E66" t="n">
-        <v>12.29</v>
+        <v>11.87</v>
       </c>
       <c r="F66" t="n">
-        <v>1223.6582</v>
+        <v>86501.61139999999</v>
       </c>
       <c r="G66" t="n">
-        <v>-192633.0393024214</v>
+        <v>-1008088.753402421</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3030,8 +2858,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3042,32 +2876,40 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.24</v>
+        <v>11.87</v>
       </c>
       <c r="C67" t="n">
-        <v>12.12</v>
+        <v>11.87</v>
       </c>
       <c r="D67" t="n">
-        <v>12.24</v>
+        <v>11.87</v>
       </c>
       <c r="E67" t="n">
-        <v>12.12</v>
+        <v>11.87</v>
       </c>
       <c r="F67" t="n">
-        <v>28739.4609</v>
+        <v>10000</v>
       </c>
       <c r="G67" t="n">
-        <v>-221372.5002024214</v>
+        <v>-1008088.753402421</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="K67" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3078,32 +2920,40 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.09</v>
+        <v>11.91</v>
       </c>
       <c r="C68" t="n">
-        <v>12.24</v>
+        <v>11.91</v>
       </c>
       <c r="D68" t="n">
-        <v>12.24</v>
+        <v>11.91</v>
       </c>
       <c r="E68" t="n">
-        <v>12.07</v>
+        <v>11.91</v>
       </c>
       <c r="F68" t="n">
-        <v>29551.3407</v>
+        <v>852.9251</v>
       </c>
       <c r="G68" t="n">
-        <v>-191821.1595024214</v>
+        <v>-1007235.828302421</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="K68" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3114,32 +2964,40 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.09</v>
+        <v>11.91</v>
       </c>
       <c r="C69" t="n">
-        <v>12</v>
+        <v>11.91</v>
       </c>
       <c r="D69" t="n">
-        <v>12.09</v>
+        <v>11.91</v>
       </c>
       <c r="E69" t="n">
-        <v>12</v>
+        <v>11.91</v>
       </c>
       <c r="F69" t="n">
-        <v>265434.0665</v>
+        <v>6841.9735</v>
       </c>
       <c r="G69" t="n">
-        <v>-457255.2260024213</v>
+        <v>-1007235.828302421</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="K69" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3150,32 +3008,40 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.03</v>
+        <v>12.11</v>
       </c>
       <c r="C70" t="n">
-        <v>11.98</v>
+        <v>12.11</v>
       </c>
       <c r="D70" t="n">
-        <v>12.03</v>
+        <v>12.11</v>
       </c>
       <c r="E70" t="n">
-        <v>11.98</v>
+        <v>12.11</v>
       </c>
       <c r="F70" t="n">
-        <v>158930.2328</v>
+        <v>39966.377</v>
       </c>
       <c r="G70" t="n">
-        <v>-616185.4588024213</v>
+        <v>-967269.4513024213</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="K70" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3186,22 +3052,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.1</v>
+        <v>12.14</v>
       </c>
       <c r="C71" t="n">
-        <v>12.09</v>
+        <v>12.11</v>
       </c>
       <c r="D71" t="n">
-        <v>12.1</v>
+        <v>12.14</v>
       </c>
       <c r="E71" t="n">
-        <v>11.99</v>
+        <v>12.11</v>
       </c>
       <c r="F71" t="n">
-        <v>19981.4137</v>
+        <v>14967.0747</v>
       </c>
       <c r="G71" t="n">
-        <v>-596204.0451024213</v>
+        <v>-967269.4513024213</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3210,8 +3076,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3222,22 +3094,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.99</v>
+        <v>12.09</v>
       </c>
       <c r="C72" t="n">
-        <v>11.99</v>
+        <v>12.09</v>
       </c>
       <c r="D72" t="n">
-        <v>11.99</v>
+        <v>12.09</v>
       </c>
       <c r="E72" t="n">
-        <v>11.99</v>
+        <v>12.09</v>
       </c>
       <c r="F72" t="n">
-        <v>2433.558</v>
+        <v>218.5619</v>
       </c>
       <c r="G72" t="n">
-        <v>-598637.6031024213</v>
+        <v>-967488.0132024213</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3246,8 +3118,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3258,22 +3136,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C73" t="n">
-        <v>12.02</v>
+        <v>11.89</v>
       </c>
       <c r="D73" t="n">
-        <v>12.02</v>
+        <v>11.9</v>
       </c>
       <c r="E73" t="n">
-        <v>12</v>
+        <v>11.89</v>
       </c>
       <c r="F73" t="n">
-        <v>19412.3212</v>
+        <v>14259</v>
       </c>
       <c r="G73" t="n">
-        <v>-579225.2819024213</v>
+        <v>-981747.0132024213</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3282,8 +3160,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3294,22 +3178,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.01</v>
+        <v>12.07</v>
       </c>
       <c r="C74" t="n">
-        <v>12.01</v>
+        <v>12.07</v>
       </c>
       <c r="D74" t="n">
-        <v>12.01</v>
+        <v>12.07</v>
       </c>
       <c r="E74" t="n">
-        <v>12.01</v>
+        <v>12.07</v>
       </c>
       <c r="F74" t="n">
-        <v>33643.14</v>
+        <v>41.4251</v>
       </c>
       <c r="G74" t="n">
-        <v>-612868.4219024213</v>
+        <v>-981705.5881024213</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3318,8 +3202,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3330,22 +3220,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.02</v>
+        <v>11.9</v>
       </c>
       <c r="C75" t="n">
-        <v>12.02</v>
+        <v>11.87</v>
       </c>
       <c r="D75" t="n">
-        <v>12.02</v>
+        <v>11.9</v>
       </c>
       <c r="E75" t="n">
-        <v>12.02</v>
+        <v>11.87</v>
       </c>
       <c r="F75" t="n">
-        <v>14000</v>
+        <v>41228.1915</v>
       </c>
       <c r="G75" t="n">
-        <v>-598868.4219024213</v>
+        <v>-1022933.779602421</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3354,8 +3244,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3366,32 +3262,40 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.03</v>
+        <v>12.07</v>
       </c>
       <c r="C76" t="n">
-        <v>12.03</v>
+        <v>12.07</v>
       </c>
       <c r="D76" t="n">
-        <v>12.03</v>
+        <v>12.07</v>
       </c>
       <c r="E76" t="n">
-        <v>12.03</v>
+        <v>12.07</v>
       </c>
       <c r="F76" t="n">
-        <v>47</v>
+        <v>41.4251</v>
       </c>
       <c r="G76" t="n">
-        <v>-598821.4219024213</v>
+        <v>-1022892.354502421</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="K76" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3402,22 +3306,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.04</v>
+        <v>11.9</v>
       </c>
       <c r="C77" t="n">
-        <v>12.04</v>
+        <v>11.9</v>
       </c>
       <c r="D77" t="n">
-        <v>12.04</v>
+        <v>11.9</v>
       </c>
       <c r="E77" t="n">
-        <v>12.04</v>
+        <v>11.9</v>
       </c>
       <c r="F77" t="n">
-        <v>46</v>
+        <v>3731.9738</v>
       </c>
       <c r="G77" t="n">
-        <v>-598775.4219024213</v>
+        <v>-1026624.328302421</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3426,8 +3330,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3438,22 +3348,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.04</v>
+        <v>12.03</v>
       </c>
       <c r="C78" t="n">
-        <v>12.08</v>
+        <v>11.93</v>
       </c>
       <c r="D78" t="n">
-        <v>12.08</v>
+        <v>12.03</v>
       </c>
       <c r="E78" t="n">
-        <v>12.04</v>
+        <v>11.93</v>
       </c>
       <c r="F78" t="n">
-        <v>9408.272199999999</v>
+        <v>1660.6024</v>
       </c>
       <c r="G78" t="n">
-        <v>-589367.1497024213</v>
+        <v>-1024963.725902421</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3462,8 +3372,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3474,32 +3390,40 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.08</v>
+        <v>12.03</v>
       </c>
       <c r="C79" t="n">
-        <v>12.08</v>
+        <v>12.03</v>
       </c>
       <c r="D79" t="n">
-        <v>12.08</v>
+        <v>12.03</v>
       </c>
       <c r="E79" t="n">
-        <v>12.08</v>
+        <v>12.03</v>
       </c>
       <c r="F79" t="n">
-        <v>18882.279</v>
+        <v>42</v>
       </c>
       <c r="G79" t="n">
-        <v>-589367.1497024213</v>
+        <v>-1024921.725902421</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="K79" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3510,22 +3434,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.09</v>
+        <v>12.03</v>
       </c>
       <c r="C80" t="n">
-        <v>12.12</v>
+        <v>12.03</v>
       </c>
       <c r="D80" t="n">
-        <v>12.13</v>
+        <v>12.03</v>
       </c>
       <c r="E80" t="n">
-        <v>12.09</v>
+        <v>12.03</v>
       </c>
       <c r="F80" t="n">
-        <v>34139.14</v>
+        <v>50205.8385</v>
       </c>
       <c r="G80" t="n">
-        <v>-555228.0097024213</v>
+        <v>-1024921.725902421</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3534,8 +3458,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3546,22 +3476,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.14</v>
+        <v>11.93</v>
       </c>
       <c r="C81" t="n">
-        <v>12.17</v>
+        <v>11.93</v>
       </c>
       <c r="D81" t="n">
-        <v>12.17</v>
+        <v>11.93</v>
       </c>
       <c r="E81" t="n">
-        <v>12.14</v>
+        <v>11.93</v>
       </c>
       <c r="F81" t="n">
-        <v>14495.0481</v>
+        <v>20000</v>
       </c>
       <c r="G81" t="n">
-        <v>-540732.9616024212</v>
+        <v>-1044921.725902421</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3570,8 +3500,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3582,22 +3518,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.18</v>
+        <v>11.93</v>
       </c>
       <c r="C82" t="n">
-        <v>12.2</v>
+        <v>11.93</v>
       </c>
       <c r="D82" t="n">
-        <v>12.2</v>
+        <v>11.93</v>
       </c>
       <c r="E82" t="n">
-        <v>12.18</v>
+        <v>11.93</v>
       </c>
       <c r="F82" t="n">
-        <v>29895.1174</v>
+        <v>17225.2894</v>
       </c>
       <c r="G82" t="n">
-        <v>-510837.8442024213</v>
+        <v>-1044921.725902421</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3606,8 +3542,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3618,32 +3560,40 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.2</v>
+        <v>11.95</v>
       </c>
       <c r="C83" t="n">
-        <v>12.21</v>
+        <v>11.95</v>
       </c>
       <c r="D83" t="n">
-        <v>12.21</v>
+        <v>11.95</v>
       </c>
       <c r="E83" t="n">
-        <v>12.2</v>
+        <v>11.95</v>
       </c>
       <c r="F83" t="n">
-        <v>1154.3915</v>
+        <v>25027.9771</v>
       </c>
       <c r="G83" t="n">
-        <v>-509683.4527024212</v>
+        <v>-1019893.748802421</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="K83" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3654,32 +3604,40 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.2</v>
+        <v>11.95</v>
       </c>
       <c r="C84" t="n">
-        <v>12.2</v>
+        <v>11.95</v>
       </c>
       <c r="D84" t="n">
-        <v>12.2</v>
+        <v>11.95</v>
       </c>
       <c r="E84" t="n">
-        <v>12.2</v>
+        <v>11.95</v>
       </c>
       <c r="F84" t="n">
-        <v>9096.7556</v>
+        <v>15351.2296</v>
       </c>
       <c r="G84" t="n">
-        <v>-518780.2083024212</v>
+        <v>-1019893.748802421</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="K84" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3690,32 +3648,40 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.15</v>
+        <v>12.05</v>
       </c>
       <c r="C85" t="n">
-        <v>12.1</v>
+        <v>12.06</v>
       </c>
       <c r="D85" t="n">
-        <v>12.15</v>
+        <v>12.06</v>
       </c>
       <c r="E85" t="n">
-        <v>12.1</v>
+        <v>12.05</v>
       </c>
       <c r="F85" t="n">
-        <v>18818.3285</v>
+        <v>83.49379999999999</v>
       </c>
       <c r="G85" t="n">
-        <v>-537598.5368024212</v>
+        <v>-1019810.255002421</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="K85" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3726,22 +3692,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.2</v>
+        <v>12.05</v>
       </c>
       <c r="C86" t="n">
-        <v>12.04</v>
+        <v>12.05</v>
       </c>
       <c r="D86" t="n">
-        <v>12.2</v>
+        <v>12.05</v>
       </c>
       <c r="E86" t="n">
-        <v>12.04</v>
+        <v>12.05</v>
       </c>
       <c r="F86" t="n">
-        <v>8257.151599999999</v>
+        <v>0.5062</v>
       </c>
       <c r="G86" t="n">
-        <v>-545855.6884024212</v>
+        <v>-1019810.761202421</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3750,8 +3716,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3762,22 +3734,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.19</v>
+        <v>11.93</v>
       </c>
       <c r="C87" t="n">
-        <v>12.19</v>
+        <v>11.87</v>
       </c>
       <c r="D87" t="n">
-        <v>12.19</v>
+        <v>11.93</v>
       </c>
       <c r="E87" t="n">
-        <v>12.19</v>
+        <v>11.87</v>
       </c>
       <c r="F87" t="n">
-        <v>42</v>
+        <v>14546</v>
       </c>
       <c r="G87" t="n">
-        <v>-545813.6884024212</v>
+        <v>-1034356.761202421</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3786,8 +3758,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3798,22 +3776,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.15</v>
+        <v>12.06</v>
       </c>
       <c r="C88" t="n">
-        <v>12.15</v>
+        <v>12.06</v>
       </c>
       <c r="D88" t="n">
-        <v>12.15</v>
+        <v>12.06</v>
       </c>
       <c r="E88" t="n">
-        <v>12.15</v>
+        <v>12.06</v>
       </c>
       <c r="F88" t="n">
-        <v>6206.91</v>
+        <v>42</v>
       </c>
       <c r="G88" t="n">
-        <v>-552020.5984024212</v>
+        <v>-1034314.761202421</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3822,8 +3800,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3834,22 +3818,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.03</v>
+        <v>12.06</v>
       </c>
       <c r="C89" t="n">
-        <v>12.03</v>
+        <v>12.06</v>
       </c>
       <c r="D89" t="n">
-        <v>12.03</v>
+        <v>12.06</v>
       </c>
       <c r="E89" t="n">
-        <v>12.03</v>
+        <v>12.06</v>
       </c>
       <c r="F89" t="n">
-        <v>2218.4334</v>
+        <v>50</v>
       </c>
       <c r="G89" t="n">
-        <v>-554239.0318024212</v>
+        <v>-1034314.761202421</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3858,8 +3842,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3870,22 +3860,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.03</v>
+        <v>12.01</v>
       </c>
       <c r="C90" t="n">
-        <v>12.03</v>
+        <v>12.01</v>
       </c>
       <c r="D90" t="n">
-        <v>12.03</v>
+        <v>12.01</v>
       </c>
       <c r="E90" t="n">
-        <v>12.03</v>
+        <v>12.01</v>
       </c>
       <c r="F90" t="n">
-        <v>4000</v>
+        <v>42</v>
       </c>
       <c r="G90" t="n">
-        <v>-554239.0318024212</v>
+        <v>-1034356.761202421</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3894,8 +3884,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3906,22 +3902,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12</v>
+        <v>11.91</v>
       </c>
       <c r="C91" t="n">
-        <v>12</v>
+        <v>11.82</v>
       </c>
       <c r="D91" t="n">
-        <v>12</v>
+        <v>11.91</v>
       </c>
       <c r="E91" t="n">
-        <v>12</v>
+        <v>11.82</v>
       </c>
       <c r="F91" t="n">
-        <v>478307.7198</v>
+        <v>61733.4252</v>
       </c>
       <c r="G91" t="n">
-        <v>-1032546.751602421</v>
+        <v>-1096090.186402421</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3930,8 +3926,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3942,22 +3944,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.15</v>
+        <v>11.91</v>
       </c>
       <c r="C92" t="n">
-        <v>12.15</v>
+        <v>11.91</v>
       </c>
       <c r="D92" t="n">
-        <v>12.15</v>
+        <v>11.91</v>
       </c>
       <c r="E92" t="n">
-        <v>12.15</v>
+        <v>11.91</v>
       </c>
       <c r="F92" t="n">
-        <v>664.3946</v>
+        <v>3175.0753</v>
       </c>
       <c r="G92" t="n">
-        <v>-1031882.357002421</v>
+        <v>-1092915.111102421</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3966,8 +3968,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3978,22 +3986,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.15</v>
+        <v>11.9</v>
       </c>
       <c r="C93" t="n">
-        <v>12.15</v>
+        <v>11.9</v>
       </c>
       <c r="D93" t="n">
-        <v>12.15</v>
+        <v>11.9</v>
       </c>
       <c r="E93" t="n">
-        <v>12.15</v>
+        <v>11.9</v>
       </c>
       <c r="F93" t="n">
-        <v>5264.9453</v>
+        <v>3533.4512</v>
       </c>
       <c r="G93" t="n">
-        <v>-1031882.357002421</v>
+        <v>-1096448.562302421</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4002,8 +4010,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4014,22 +4028,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.08</v>
+        <v>11.82</v>
       </c>
       <c r="C94" t="n">
-        <v>12.08</v>
+        <v>11.82</v>
       </c>
       <c r="D94" t="n">
-        <v>12.08</v>
+        <v>11.82</v>
       </c>
       <c r="E94" t="n">
-        <v>12.08</v>
+        <v>11.82</v>
       </c>
       <c r="F94" t="n">
-        <v>11904.5064</v>
+        <v>9687.283600000001</v>
       </c>
       <c r="G94" t="n">
-        <v>-1043786.863402421</v>
+        <v>-1106135.845902421</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4038,8 +4052,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4050,22 +4070,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.05</v>
+        <v>11.81</v>
       </c>
       <c r="C95" t="n">
-        <v>12.01</v>
+        <v>11.81</v>
       </c>
       <c r="D95" t="n">
-        <v>12.05</v>
+        <v>11.81</v>
       </c>
       <c r="E95" t="n">
-        <v>12.01</v>
+        <v>11.81</v>
       </c>
       <c r="F95" t="n">
-        <v>67041.3982</v>
+        <v>34698.1853</v>
       </c>
       <c r="G95" t="n">
-        <v>-1110828.261602421</v>
+        <v>-1140834.031202421</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4074,8 +4094,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4086,22 +4112,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.02</v>
+        <v>11.99</v>
       </c>
       <c r="C96" t="n">
-        <v>12.02</v>
+        <v>11.99</v>
       </c>
       <c r="D96" t="n">
-        <v>12.02</v>
+        <v>11.99</v>
       </c>
       <c r="E96" t="n">
-        <v>12.02</v>
+        <v>11.99</v>
       </c>
       <c r="F96" t="n">
-        <v>1283.3944</v>
+        <v>42</v>
       </c>
       <c r="G96" t="n">
-        <v>-1109544.867202421</v>
+        <v>-1140792.031202421</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4110,8 +4136,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4122,22 +4154,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.02</v>
+        <v>11.99</v>
       </c>
       <c r="C97" t="n">
-        <v>12.02</v>
+        <v>11.99</v>
       </c>
       <c r="D97" t="n">
-        <v>12.02</v>
+        <v>11.99</v>
       </c>
       <c r="E97" t="n">
-        <v>12.02</v>
+        <v>11.99</v>
       </c>
       <c r="F97" t="n">
-        <v>51.6775</v>
+        <v>127.8395</v>
       </c>
       <c r="G97" t="n">
-        <v>-1109544.867202421</v>
+        <v>-1140792.031202421</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4146,8 +4178,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4158,22 +4196,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.02</v>
+        <v>11.99</v>
       </c>
       <c r="C98" t="n">
-        <v>12.02</v>
+        <v>11.99</v>
       </c>
       <c r="D98" t="n">
-        <v>12.02</v>
+        <v>11.99</v>
       </c>
       <c r="E98" t="n">
-        <v>12.02</v>
+        <v>11.99</v>
       </c>
       <c r="F98" t="n">
-        <v>18023.7569</v>
+        <v>28667.7315</v>
       </c>
       <c r="G98" t="n">
-        <v>-1109544.867202421</v>
+        <v>-1140792.031202421</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4182,8 +4220,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4194,22 +4238,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.11</v>
+        <v>12</v>
       </c>
       <c r="C99" t="n">
-        <v>12.11</v>
+        <v>12</v>
       </c>
       <c r="D99" t="n">
-        <v>12.11</v>
+        <v>12</v>
       </c>
       <c r="E99" t="n">
-        <v>12.11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="n">
-        <v>42</v>
+        <v>3533.4512</v>
       </c>
       <c r="G99" t="n">
-        <v>-1109502.867202421</v>
+        <v>-1137258.580002421</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4218,8 +4262,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4230,22 +4280,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.11</v>
+        <v>12</v>
       </c>
       <c r="C100" t="n">
-        <v>12.11</v>
+        <v>12</v>
       </c>
       <c r="D100" t="n">
-        <v>12.11</v>
+        <v>12</v>
       </c>
       <c r="E100" t="n">
-        <v>12.11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="n">
-        <v>42</v>
+        <v>7676.076</v>
       </c>
       <c r="G100" t="n">
-        <v>-1109502.867202421</v>
+        <v>-1137258.580002421</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4254,8 +4304,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4266,22 +4322,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.14</v>
+        <v>12</v>
       </c>
       <c r="C101" t="n">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="D101" t="n">
-        <v>12.14</v>
+        <v>12</v>
       </c>
       <c r="E101" t="n">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="F101" t="n">
-        <v>2349</v>
+        <v>2700</v>
       </c>
       <c r="G101" t="n">
-        <v>-1111851.867202421</v>
+        <v>-1137258.580002421</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4290,8 +4346,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4302,22 +4364,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.14</v>
+        <v>12</v>
       </c>
       <c r="C102" t="n">
-        <v>12.14</v>
+        <v>12</v>
       </c>
       <c r="D102" t="n">
-        <v>12.14</v>
+        <v>12</v>
       </c>
       <c r="E102" t="n">
-        <v>12.14</v>
+        <v>12</v>
       </c>
       <c r="F102" t="n">
-        <v>42</v>
+        <v>17360.0089</v>
       </c>
       <c r="G102" t="n">
-        <v>-1111809.867202421</v>
+        <v>-1137258.580002421</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4326,8 +4388,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4338,22 +4406,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.04</v>
+        <v>12.07</v>
       </c>
       <c r="C103" t="n">
-        <v>12.03</v>
+        <v>12.08</v>
       </c>
       <c r="D103" t="n">
-        <v>12.04</v>
+        <v>12.08</v>
       </c>
       <c r="E103" t="n">
-        <v>12.03</v>
+        <v>12.07</v>
       </c>
       <c r="F103" t="n">
-        <v>15068</v>
+        <v>42.9999</v>
       </c>
       <c r="G103" t="n">
-        <v>-1126877.867202421</v>
+        <v>-1137215.580102421</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4362,8 +4430,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4374,22 +4448,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.13</v>
+        <v>12.07</v>
       </c>
       <c r="C104" t="n">
-        <v>12.13</v>
+        <v>12.07</v>
       </c>
       <c r="D104" t="n">
-        <v>12.13</v>
+        <v>12.07</v>
       </c>
       <c r="E104" t="n">
-        <v>12.13</v>
+        <v>12.07</v>
       </c>
       <c r="F104" t="n">
-        <v>42</v>
+        <v>41.0001</v>
       </c>
       <c r="G104" t="n">
-        <v>-1126835.867202421</v>
+        <v>-1137256.580202421</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4398,8 +4472,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4410,22 +4490,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="C105" t="n">
-        <v>12.03</v>
+        <v>11.95</v>
       </c>
       <c r="D105" t="n">
-        <v>12.03</v>
+        <v>12</v>
       </c>
       <c r="E105" t="n">
-        <v>12.03</v>
+        <v>11.95</v>
       </c>
       <c r="F105" t="n">
-        <v>55</v>
+        <v>18224.8803</v>
       </c>
       <c r="G105" t="n">
-        <v>-1126890.867202421</v>
+        <v>-1155481.460502421</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4434,8 +4514,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4446,22 +4532,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.23</v>
+        <v>12.08</v>
       </c>
       <c r="C106" t="n">
-        <v>12.23</v>
+        <v>12.08</v>
       </c>
       <c r="D106" t="n">
-        <v>12.23</v>
+        <v>12.08</v>
       </c>
       <c r="E106" t="n">
-        <v>12.23</v>
+        <v>12.08</v>
       </c>
       <c r="F106" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G106" t="n">
-        <v>-1126849.867202421</v>
+        <v>-1155439.460502421</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4470,8 +4556,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4482,22 +4574,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.09</v>
+        <v>12.08</v>
       </c>
       <c r="C107" t="n">
         <v>12.08</v>
       </c>
       <c r="D107" t="n">
-        <v>12.09</v>
+        <v>12.08</v>
       </c>
       <c r="E107" t="n">
         <v>12.08</v>
       </c>
       <c r="F107" t="n">
-        <v>20530.41</v>
+        <v>862.1411000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>-1147380.277202421</v>
+        <v>-1155439.460502421</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4506,8 +4598,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4518,22 +4616,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.08</v>
+        <v>11.96</v>
       </c>
       <c r="C108" t="n">
-        <v>12.03</v>
+        <v>11.94</v>
       </c>
       <c r="D108" t="n">
-        <v>12.08</v>
+        <v>11.96</v>
       </c>
       <c r="E108" t="n">
-        <v>12.03</v>
+        <v>11.94</v>
       </c>
       <c r="F108" t="n">
-        <v>2506</v>
+        <v>14816</v>
       </c>
       <c r="G108" t="n">
-        <v>-1149886.277202421</v>
+        <v>-1170255.460502421</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4542,8 +4640,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4554,22 +4658,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.2</v>
+        <v>12.07</v>
       </c>
       <c r="C109" t="n">
-        <v>12.2</v>
+        <v>12.07</v>
       </c>
       <c r="D109" t="n">
-        <v>12.21</v>
+        <v>12.07</v>
       </c>
       <c r="E109" t="n">
-        <v>12.2</v>
+        <v>12.07</v>
       </c>
       <c r="F109" t="n">
-        <v>84</v>
+        <v>1000</v>
       </c>
       <c r="G109" t="n">
-        <v>-1149802.277202421</v>
+        <v>-1169255.460502421</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4578,8 +4682,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4590,22 +4700,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.17</v>
+        <v>11.95</v>
       </c>
       <c r="C110" t="n">
-        <v>12.06</v>
+        <v>11.95</v>
       </c>
       <c r="D110" t="n">
-        <v>12.17</v>
+        <v>11.95</v>
       </c>
       <c r="E110" t="n">
-        <v>12.06</v>
+        <v>11.95</v>
       </c>
       <c r="F110" t="n">
-        <v>20502.41</v>
+        <v>10780.8582</v>
       </c>
       <c r="G110" t="n">
-        <v>-1170304.687202421</v>
+        <v>-1180036.318702421</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4614,8 +4724,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4626,22 +4742,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.23</v>
+        <v>12.01</v>
       </c>
       <c r="C111" t="n">
-        <v>12.03</v>
+        <v>12.01</v>
       </c>
       <c r="D111" t="n">
-        <v>12.23</v>
+        <v>12.01</v>
       </c>
       <c r="E111" t="n">
-        <v>12.03</v>
+        <v>12.01</v>
       </c>
       <c r="F111" t="n">
-        <v>31282.5698</v>
+        <v>42</v>
       </c>
       <c r="G111" t="n">
-        <v>-1201587.257002421</v>
+        <v>-1179994.318702421</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4650,8 +4766,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4662,22 +4784,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>12.22</v>
+        <v>11.95</v>
       </c>
       <c r="C112" t="n">
-        <v>12.22</v>
+        <v>11.95</v>
       </c>
       <c r="D112" t="n">
-        <v>12.22</v>
+        <v>11.95</v>
       </c>
       <c r="E112" t="n">
-        <v>12.22</v>
+        <v>11.95</v>
       </c>
       <c r="F112" t="n">
-        <v>50</v>
+        <v>342.1418</v>
       </c>
       <c r="G112" t="n">
-        <v>-1201537.257002421</v>
+        <v>-1180336.460502421</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4686,8 +4808,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4698,22 +4826,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.1</v>
+        <v>11.94</v>
       </c>
       <c r="C113" t="n">
-        <v>12.1</v>
+        <v>11.94</v>
       </c>
       <c r="D113" t="n">
-        <v>12.1</v>
+        <v>11.94</v>
       </c>
       <c r="E113" t="n">
-        <v>12.1</v>
+        <v>11.94</v>
       </c>
       <c r="F113" t="n">
-        <v>5589</v>
+        <v>842.5176</v>
       </c>
       <c r="G113" t="n">
-        <v>-1207126.257002421</v>
+        <v>-1181178.978102421</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4722,8 +4850,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4734,22 +4868,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12.21</v>
+        <v>11.93</v>
       </c>
       <c r="C114" t="n">
-        <v>12.21</v>
+        <v>11.95</v>
       </c>
       <c r="D114" t="n">
-        <v>12.21</v>
+        <v>11.95</v>
       </c>
       <c r="E114" t="n">
-        <v>12.21</v>
+        <v>11.93</v>
       </c>
       <c r="F114" t="n">
-        <v>50</v>
+        <v>124507.949</v>
       </c>
       <c r="G114" t="n">
-        <v>-1207076.257002421</v>
+        <v>-1056671.029102421</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4758,8 +4892,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4770,22 +4910,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.1</v>
+        <v>12.02</v>
       </c>
       <c r="C115" t="n">
-        <v>12.21</v>
+        <v>12.02</v>
       </c>
       <c r="D115" t="n">
-        <v>12.21</v>
+        <v>12.02</v>
       </c>
       <c r="E115" t="n">
-        <v>12.1</v>
+        <v>12.02</v>
       </c>
       <c r="F115" t="n">
-        <v>36623.8336</v>
+        <v>21757.3493</v>
       </c>
       <c r="G115" t="n">
-        <v>-1207076.257002421</v>
+        <v>-1034913.679802421</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4794,8 +4934,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4806,22 +4952,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.21</v>
+        <v>12.06</v>
       </c>
       <c r="C116" t="n">
-        <v>12.1</v>
+        <v>12.14</v>
       </c>
       <c r="D116" t="n">
-        <v>12.25</v>
+        <v>12.14</v>
       </c>
       <c r="E116" t="n">
-        <v>12.1</v>
+        <v>12.06</v>
       </c>
       <c r="F116" t="n">
-        <v>23306.8585</v>
+        <v>162284.2769</v>
       </c>
       <c r="G116" t="n">
-        <v>-1230383.115502421</v>
+        <v>-872629.4029024213</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4830,8 +4976,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4842,22 +4994,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>12.15</v>
+        <v>12.14</v>
       </c>
       <c r="C117" t="n">
-        <v>12.15</v>
+        <v>12.19</v>
       </c>
       <c r="D117" t="n">
-        <v>12.15</v>
+        <v>12.19</v>
       </c>
       <c r="E117" t="n">
-        <v>12.15</v>
+        <v>12.14</v>
       </c>
       <c r="F117" t="n">
-        <v>213469.5572</v>
+        <v>235544.2812</v>
       </c>
       <c r="G117" t="n">
-        <v>-1016913.558302421</v>
+        <v>-637085.1217024213</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4866,8 +5018,14 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4878,22 +5036,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>12.25</v>
+        <v>12.26</v>
       </c>
       <c r="C118" t="n">
-        <v>12.25</v>
+        <v>12.26</v>
       </c>
       <c r="D118" t="n">
-        <v>12.25</v>
+        <v>12.26</v>
       </c>
       <c r="E118" t="n">
-        <v>12.25</v>
+        <v>12.26</v>
       </c>
       <c r="F118" t="n">
-        <v>50</v>
+        <v>1032.0253</v>
       </c>
       <c r="G118" t="n">
-        <v>-1016863.558302421</v>
+        <v>-636053.0964024214</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4902,8 +5060,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4914,22 +5078,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12.15</v>
+        <v>12.26</v>
       </c>
       <c r="C119" t="n">
-        <v>12.25</v>
+        <v>12.35</v>
       </c>
       <c r="D119" t="n">
-        <v>12.25</v>
+        <v>12.35</v>
       </c>
       <c r="E119" t="n">
-        <v>12.15</v>
+        <v>12.26</v>
       </c>
       <c r="F119" t="n">
-        <v>213477.5572</v>
+        <v>240762.7536</v>
       </c>
       <c r="G119" t="n">
-        <v>-1016863.558302421</v>
+        <v>-395290.3428024214</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4938,8 +5102,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4950,22 +5120,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12.15</v>
+        <v>12.35</v>
       </c>
       <c r="C120" t="n">
-        <v>12.15</v>
+        <v>12.39</v>
       </c>
       <c r="D120" t="n">
-        <v>12.15</v>
+        <v>12.39</v>
       </c>
       <c r="E120" t="n">
-        <v>12.15</v>
+        <v>12.35</v>
       </c>
       <c r="F120" t="n">
-        <v>3436.394</v>
+        <v>226745.5374</v>
       </c>
       <c r="G120" t="n">
-        <v>-1020299.952302421</v>
+        <v>-168544.8054024214</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4974,8 +5144,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4986,36 +5162,2616 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="C121" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="D121" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="E121" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="F121" t="n">
+        <v>102437.2155</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-66107.58990242136</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="C122" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="D122" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="E122" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="F122" t="n">
+        <v>770.776</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-66878.36590242136</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="C123" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="D123" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="E123" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="F123" t="n">
+        <v>816.3988000000001</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-66878.36590242136</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="C124" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="D124" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="E124" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F124" t="n">
+        <v>44636.6999</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-66878.36590242136</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1.039500419815281</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="C125" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="D125" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="E125" t="n">
+        <v>12.35</v>
+      </c>
+      <c r="F125" t="n">
+        <v>110</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-66988.36590242136</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="C126" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="D126" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="E126" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="F126" t="n">
+        <v>27361.492</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-39626.87390242136</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="C127" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="D127" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="E127" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="F127" t="n">
+        <v>158930.2328</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-198557.1067024214</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="C128" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="D128" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="E128" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="F128" t="n">
+        <v>99</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-198458.1067024214</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="C129" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="D129" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="E129" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="F129" t="n">
+        <v>8216.151599999999</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-198458.1067024214</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="C130" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="D130" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="E130" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="F130" t="n">
+        <v>41</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-198499.1067024214</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="C131" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="D131" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="E131" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="F131" t="n">
+        <v>83</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-198499.1067024214</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="C132" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="D132" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="E132" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="F132" t="n">
+        <v>16134.8063</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-214633.9130024214</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="C133" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="D133" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="E133" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="F133" t="n">
+        <v>50</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-214583.9130024214</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C134" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="D134" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="E134" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F134" t="n">
+        <v>49</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-214632.9130024214</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="C135" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D135" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E135" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="F135" t="n">
+        <v>21999.8737</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-192633.0393024214</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C136" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D136" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E136" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F136" t="n">
+        <v>121</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-192633.0393024214</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="C137" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="D137" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="E137" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1223.6582</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-192633.0393024214</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="C138" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="D138" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="E138" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="F138" t="n">
+        <v>28739.4609</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-221372.5002024214</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="C139" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="D139" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="E139" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="F139" t="n">
+        <v>29551.3407</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-191821.1595024214</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="C140" t="n">
+        <v>12</v>
+      </c>
+      <c r="D140" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="E140" t="n">
+        <v>12</v>
+      </c>
+      <c r="F140" t="n">
+        <v>265434.0665</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-457255.2260024213</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="C141" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="D141" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="E141" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="F141" t="n">
+        <v>158930.2328</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-616185.4588024213</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="D142" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E142" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F142" t="n">
+        <v>19981.4137</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-596204.0451024213</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="C143" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="D143" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E143" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2433.558</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-598637.6031024213</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>12</v>
+      </c>
+      <c r="C144" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="D144" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="E144" t="n">
+        <v>12</v>
+      </c>
+      <c r="F144" t="n">
+        <v>19412.3212</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-579225.2819024213</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="C145" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="D145" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="E145" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="F145" t="n">
+        <v>33643.14</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-612868.4219024213</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="C146" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="D146" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="E146" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="F146" t="n">
+        <v>14000</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-598868.4219024213</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="C147" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D147" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="E147" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F147" t="n">
+        <v>47</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-598821.4219024213</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="C148" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="D148" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E148" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="F148" t="n">
+        <v>46</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-598775.4219024213</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="C149" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="D149" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="E149" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="F149" t="n">
+        <v>9408.272199999999</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-589367.1497024213</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="C150" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="D150" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="E150" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="F150" t="n">
+        <v>18882.279</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-589367.1497024213</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="C151" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="D151" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="E151" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="F151" t="n">
+        <v>34139.14</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-555228.0097024213</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="C152" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="D152" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="E152" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="F152" t="n">
+        <v>14495.0481</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-540732.9616024212</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="C153" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D153" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E153" t="n">
+        <v>12.18</v>
+      </c>
+      <c r="F153" t="n">
+        <v>29895.1174</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-510837.8442024213</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C154" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="D154" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="E154" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1154.3915</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-509683.4527024212</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C155" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E155" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F155" t="n">
+        <v>9096.7556</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-518780.2083024212</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
         <v>12.15</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C156" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D156" t="n">
         <v>12.15</v>
       </c>
-      <c r="D121" t="n">
+      <c r="E156" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>18818.3285</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-537598.5368024212</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C157" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="D157" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="E157" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="F157" t="n">
+        <v>8257.151599999999</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-545855.6884024212</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="C158" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="D158" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="E158" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="F158" t="n">
+        <v>42</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-545813.6884024212</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
         <v>12.15</v>
       </c>
-      <c r="E121" t="n">
+      <c r="C159" t="n">
         <v>12.15</v>
       </c>
-      <c r="F121" t="n">
+      <c r="D159" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E159" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F159" t="n">
+        <v>6206.91</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-552020.5984024212</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="C160" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D160" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="E160" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2218.4334</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-554239.0318024212</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="C161" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D161" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="E161" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F161" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-554239.0318024212</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>12</v>
+      </c>
+      <c r="C162" t="n">
+        <v>12</v>
+      </c>
+      <c r="D162" t="n">
+        <v>12</v>
+      </c>
+      <c r="E162" t="n">
+        <v>12</v>
+      </c>
+      <c r="F162" t="n">
+        <v>478307.7198</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-1032546.751602421</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="C163" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D163" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E163" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F163" t="n">
+        <v>664.3946</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-1031882.357002421</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="C164" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D164" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E164" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F164" t="n">
+        <v>5264.9453</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-1031882.357002421</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="C165" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="D165" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="E165" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="F165" t="n">
+        <v>11904.5064</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-1043786.863402421</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="C166" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="D166" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E166" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="F166" t="n">
+        <v>67041.3982</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-1110828.261602421</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="C167" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="D167" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="E167" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1283.3944</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-1109544.867202421</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="C168" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="D168" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="E168" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="F168" t="n">
+        <v>51.6775</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-1109544.867202421</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="C169" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="D169" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="E169" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="F169" t="n">
+        <v>18023.7569</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-1109544.867202421</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="C170" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="D170" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="E170" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="F170" t="n">
+        <v>42</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-1109502.867202421</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="C171" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="D171" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="E171" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="F171" t="n">
+        <v>42</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-1109502.867202421</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="C172" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D172" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="E172" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2349</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-1111851.867202421</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="C173" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="D173" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="E173" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="F173" t="n">
+        <v>42</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-1111809.867202421</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="C174" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D174" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E174" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F174" t="n">
+        <v>15068</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-1126877.867202421</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="C175" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="D175" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="E175" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="F175" t="n">
+        <v>42</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-1126835.867202421</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="C176" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D176" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="E176" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F176" t="n">
+        <v>55</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-1126890.867202421</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="C177" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="D177" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="E177" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="F177" t="n">
+        <v>41</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-1126849.867202421</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="C178" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="D178" t="n">
+        <v>12.09</v>
+      </c>
+      <c r="E178" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="F178" t="n">
+        <v>20530.41</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-1147380.277202421</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="C179" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D179" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="E179" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2506</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-1149886.277202421</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="C180" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="D180" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="E180" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F180" t="n">
+        <v>84</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-1149802.277202421</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="C181" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="D181" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="E181" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="F181" t="n">
+        <v>20502.41</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-1170304.687202421</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="C182" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="D182" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="E182" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="F182" t="n">
+        <v>31282.5698</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-1201587.257002421</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="C183" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="D183" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="E183" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="F183" t="n">
+        <v>50</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-1201537.257002421</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D184" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="E184" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F184" t="n">
+        <v>5589</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-1207126.257002421</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="C185" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="D185" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="E185" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="F185" t="n">
+        <v>50</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-1207076.257002421</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C186" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="D186" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="E186" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F186" t="n">
+        <v>36623.8336</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-1207076.257002421</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="C187" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D187" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="E187" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="F187" t="n">
+        <v>23306.8585</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-1230383.115502421</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="C188" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D188" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E188" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F188" t="n">
+        <v>213469.5572</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-1016913.558302421</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="C189" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="D189" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="E189" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="F189" t="n">
+        <v>50</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-1016863.558302421</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="C190" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="D190" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="E190" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F190" t="n">
+        <v>213477.5572</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-1016863.558302421</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="C191" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D191" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E191" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F191" t="n">
+        <v>3436.394</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-1020299.952302421</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="C192" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D192" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="E192" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="F192" t="n">
         <v>67288.3337</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G192" t="n">
         <v>-1020299.952302421</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-22 BackTest TRV.xlsx
+++ b/BackTest/2020-01-22 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N192"/>
+  <dimension ref="A1:M192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,19 @@
         <v>-870348.2006024213</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J36" t="n">
+        <v>12</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1610,23 @@
         <v>-792320.7822024213</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>12.06</v>
+      </c>
+      <c r="J37" t="n">
+        <v>12</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1651,23 @@
         <v>-802762.9415024214</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>12.18</v>
+      </c>
+      <c r="J38" t="n">
+        <v>12</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1694,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1725,19 @@
         <v>-782462.9415024214</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1764,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1801,23 @@
         <v>-861263.6447024214</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>12.02</v>
+      </c>
+      <c r="J42" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1844,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1881,23 @@
         <v>-875703.1327024214</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1922,23 @@
         <v>-875703.1327024214</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>12.11</v>
+      </c>
+      <c r="J45" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1963,23 @@
         <v>-875661.1327024214</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>12.11</v>
+      </c>
+      <c r="J46" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +2006,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2045,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2084,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2123,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2162,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2201,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,22 +2238,23 @@
         <v>-943560.1235024214</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>11.91</v>
       </c>
       <c r="J53" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="K53" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2332,26 +2279,23 @@
         <v>-943560.1235024214</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>11.91</v>
       </c>
       <c r="J54" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="K54" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2376,26 +2320,21 @@
         <v>-933300.2587024214</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="K55" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2420,26 +2359,23 @@
         <v>-927327.8983024214</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>11.97</v>
       </c>
       <c r="J56" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="K56" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2464,26 +2400,23 @@
         <v>-927327.8983024214</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>11.98</v>
       </c>
       <c r="J57" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="K57" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2508,26 +2441,21 @@
         <v>-940910.8983024214</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="K58" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2552,26 +2480,23 @@
         <v>-945198.4027024214</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>11.93</v>
       </c>
       <c r="J59" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="K59" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2596,26 +2521,23 @@
         <v>-945156.4027024214</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>11.87</v>
       </c>
       <c r="J60" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="K60" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2642,22 +2564,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2684,22 +2603,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2726,22 +2642,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2768,22 +2681,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2808,26 +2718,21 @@
         <v>-921587.1420024213</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="K65" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2854,22 +2759,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2894,26 +2796,21 @@
         <v>-1008088.753402421</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="K67" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2938,26 +2835,21 @@
         <v>-1007235.828302421</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="K68" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2982,26 +2874,23 @@
         <v>-1007235.828302421</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>11.91</v>
       </c>
       <c r="J69" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="K69" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3026,26 +2915,23 @@
         <v>-967269.4513024213</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>11.91</v>
       </c>
       <c r="J70" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="K70" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3072,22 +2958,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3114,22 +2997,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3156,22 +3036,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3198,22 +3075,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3240,22 +3114,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3280,26 +3151,21 @@
         <v>-1022892.354502421</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="K76" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3326,22 +3192,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3366,24 +3229,23 @@
         <v>-1024963.725902421</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="J78" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3408,26 +3270,23 @@
         <v>-1024921.725902421</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>11.93</v>
       </c>
       <c r="J79" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="K79" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3454,22 +3313,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3496,22 +3352,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3538,22 +3391,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3578,26 +3428,21 @@
         <v>-1019893.748802421</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="K83" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3622,26 +3467,21 @@
         <v>-1019893.748802421</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="K84" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3666,26 +3506,21 @@
         <v>-1019810.255002421</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="K85" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3712,22 +3547,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3754,22 +3586,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3796,22 +3625,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3838,22 +3664,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3880,22 +3703,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3922,22 +3742,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3964,22 +3781,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4006,22 +3820,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4046,24 +3857,23 @@
         <v>-1106135.845902421</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="J94" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4090,22 +3900,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4132,22 +3939,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4174,22 +3978,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4216,22 +4017,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4258,22 +4056,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4300,22 +4095,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4342,22 +4134,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4382,24 +4171,23 @@
         <v>-1137258.580002421</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J102" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4426,22 +4214,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4466,24 +4251,23 @@
         <v>-1137256.580202421</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+        <v>12.08</v>
+      </c>
+      <c r="J104" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4508,24 +4292,23 @@
         <v>-1155481.460502421</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>12.07</v>
+      </c>
+      <c r="J105" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4550,24 +4333,23 @@
         <v>-1155439.460502421</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>11.95</v>
+      </c>
+      <c r="J106" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4592,24 +4374,23 @@
         <v>-1155439.460502421</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>12.08</v>
+      </c>
+      <c r="J107" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4634,24 +4415,23 @@
         <v>-1170255.460502421</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>12.08</v>
+      </c>
+      <c r="J108" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4678,22 +4458,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4718,24 +4495,23 @@
         <v>-1180036.318702421</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+        <v>12.07</v>
+      </c>
+      <c r="J110" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4762,22 +4538,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4804,22 +4577,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4844,24 +4614,23 @@
         <v>-1181178.978102421</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>11.95</v>
+      </c>
+      <c r="J113" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4888,22 +4657,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4928,24 +4694,23 @@
         <v>-1034913.679802421</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>11.95</v>
+      </c>
+      <c r="J115" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4970,24 +4735,23 @@
         <v>-872629.4029024213</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+        <v>12.02</v>
+      </c>
+      <c r="J116" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5012,24 +4776,23 @@
         <v>-637085.1217024213</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>12.14</v>
+      </c>
+      <c r="J117" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5056,22 +4819,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5098,22 +4858,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5140,22 +4897,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5182,22 +4936,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5222,24 +4973,21 @@
         <v>-66878.36590242136</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1.023099173553719</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5264,24 +5012,15 @@
         <v>-66878.36590242136</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5308,22 +5047,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1.039500419815281</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5350,16 +5080,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5386,16 +5113,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5422,16 +5146,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5458,16 +5179,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5494,16 +5212,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5528,18 +5243,15 @@
         <v>-198499.1067024214</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5564,18 +5276,15 @@
         <v>-198499.1067024214</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5600,18 +5309,15 @@
         <v>-214633.9130024214</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5636,18 +5342,15 @@
         <v>-214583.9130024214</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5672,18 +5375,15 @@
         <v>-214632.9130024214</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5708,18 +5408,15 @@
         <v>-192633.0393024214</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5746,16 +5443,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5782,16 +5476,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5818,16 +5509,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5854,16 +5542,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5890,16 +5575,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5926,16 +5608,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5962,16 +5641,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5998,16 +5674,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6034,16 +5707,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6070,16 +5740,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6106,16 +5773,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6142,16 +5806,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6178,16 +5839,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6214,16 +5872,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6250,16 +5905,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6286,16 +5938,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6322,16 +5971,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6356,18 +6002,15 @@
         <v>-510837.8442024213</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6394,16 +6037,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6430,16 +6070,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6466,16 +6103,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6500,18 +6134,15 @@
         <v>-545855.6884024212</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6538,16 +6169,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6572,18 +6200,15 @@
         <v>-552020.5984024212</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6610,16 +6235,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6644,18 +6266,15 @@
         <v>-554239.0318024212</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6682,16 +6301,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6716,18 +6332,15 @@
         <v>-1031882.357002421</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6754,16 +6367,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6790,16 +6400,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6826,16 +6433,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6862,16 +6466,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6898,16 +6499,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6934,16 +6532,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6970,16 +6565,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7006,16 +6598,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7042,16 +6631,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7078,16 +6664,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7114,16 +6697,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7150,16 +6730,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7186,16 +6763,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7222,16 +6796,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7258,16 +6829,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7294,16 +6862,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7330,16 +6895,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7366,16 +6928,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7402,16 +6961,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7438,16 +6994,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7474,16 +7027,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7510,16 +7060,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7546,16 +7093,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7582,16 +7126,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7618,16 +7159,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7654,16 +7192,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7690,16 +7225,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7726,16 +7258,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7762,18 +7291,15 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest TRV.xlsx
+++ b/BackTest/2020-01-22 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>-320036.3280024213</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1573,14 +1573,10 @@
         <v>-870348.2006024213</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>12</v>
-      </c>
-      <c r="J36" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1610,19 +1606,11 @@
         <v>-792320.7822024213</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="J37" t="n">
-        <v>12</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1651,19 +1639,11 @@
         <v>-802762.9415024214</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="J38" t="n">
-        <v>12</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1725,14 +1705,10 @@
         <v>-782462.9415024214</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
@@ -1765,14 +1741,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1801,19 +1771,11 @@
         <v>-861263.6447024214</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="J42" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1845,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1881,19 +1837,11 @@
         <v>-875703.1327024214</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1922,19 +1870,11 @@
         <v>-875703.1327024214</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="J45" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1963,19 +1903,11 @@
         <v>-875661.1327024214</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="J46" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2007,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2046,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2085,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2124,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2163,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2202,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2238,19 +2134,11 @@
         <v>-943560.1235024214</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="J53" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2279,19 +2167,11 @@
         <v>-943560.1235024214</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="J54" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2323,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2359,19 +2233,11 @@
         <v>-927327.8983024214</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="J56" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2400,19 +2266,11 @@
         <v>-927327.8983024214</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="J57" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2444,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2480,19 +2332,11 @@
         <v>-945198.4027024214</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="J59" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2521,19 +2365,11 @@
         <v>-945156.4027024214</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="J60" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2565,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2604,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2643,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2682,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2721,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2760,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2799,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2835,17 +2629,15 @@
         <v>-1007235.828302421</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>11.87</v>
+      </c>
       <c r="J68" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.87</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2874,17 +2666,17 @@
         <v>-1007235.828302421</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>11.91</v>
       </c>
       <c r="J69" t="n">
-        <v>12.1</v>
+        <v>11.87</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L69" t="n">
@@ -2915,17 +2707,17 @@
         <v>-967269.4513024213</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>11.91</v>
       </c>
       <c r="J70" t="n">
-        <v>12.1</v>
+        <v>11.87</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L70" t="n">
@@ -2959,14 +2751,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2998,14 +2784,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3037,14 +2817,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3073,17 +2847,15 @@
         <v>-981705.5881024213</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>11.89</v>
+      </c>
       <c r="J74" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.89</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3112,15 +2884,17 @@
         <v>-1022933.779602421</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>12.07</v>
+      </c>
       <c r="J75" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -3151,11 +2925,13 @@
         <v>-1022892.354502421</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>11.87</v>
+      </c>
       <c r="J76" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3194,7 +2970,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3229,13 +3005,13 @@
         <v>-1024963.725902421</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>11.9</v>
       </c>
       <c r="J78" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3270,13 +3046,13 @@
         <v>-1024921.725902421</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>11.93</v>
       </c>
       <c r="J79" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3311,11 +3087,13 @@
         <v>-1024921.725902421</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>12.03</v>
+      </c>
       <c r="J80" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3354,7 +3132,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3389,11 +3167,13 @@
         <v>-1044921.725902421</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>11.93</v>
+      </c>
       <c r="J82" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3428,11 +3208,13 @@
         <v>-1019893.748802421</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>11.93</v>
+      </c>
       <c r="J83" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3467,11 +3249,13 @@
         <v>-1019893.748802421</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>11.95</v>
+      </c>
       <c r="J84" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3506,11 +3290,13 @@
         <v>-1019810.255002421</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>11.95</v>
+      </c>
       <c r="J85" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3545,11 +3331,13 @@
         <v>-1019810.761202421</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>12.06</v>
+      </c>
       <c r="J86" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3588,7 +3376,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3623,11 +3411,13 @@
         <v>-1034314.761202421</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>11.87</v>
+      </c>
       <c r="J88" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3666,7 +3456,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3705,7 +3495,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3744,7 +3534,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3783,7 +3573,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3822,7 +3612,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3857,13 +3647,13 @@
         <v>-1106135.845902421</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>11.9</v>
       </c>
       <c r="J94" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3898,11 +3688,13 @@
         <v>-1140834.031202421</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>11.82</v>
+      </c>
       <c r="J95" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3937,11 +3729,13 @@
         <v>-1140792.031202421</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>11.81</v>
+      </c>
       <c r="J96" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3976,11 +3770,13 @@
         <v>-1140792.031202421</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>11.99</v>
+      </c>
       <c r="J97" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4019,7 +3815,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4058,7 +3854,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4097,7 +3893,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4136,7 +3932,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4171,13 +3967,11 @@
         <v>-1137258.580002421</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4216,7 +4010,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4251,13 +4045,11 @@
         <v>-1137256.580202421</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>12.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4292,13 +4084,11 @@
         <v>-1155481.460502421</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>12.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4333,13 +4123,11 @@
         <v>-1155439.460502421</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I106" t="n">
-        <v>11.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4374,13 +4162,11 @@
         <v>-1155439.460502421</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>12.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4415,13 +4201,11 @@
         <v>-1170255.460502421</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>12.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4460,7 +4244,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4495,13 +4279,11 @@
         <v>-1180036.318702421</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>12.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4540,7 +4322,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4579,7 +4361,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4614,13 +4396,11 @@
         <v>-1181178.978102421</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>11.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4659,7 +4439,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4694,13 +4474,11 @@
         <v>-1034913.679802421</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>11.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4735,13 +4513,11 @@
         <v>-872629.4029024213</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>12.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4776,13 +4552,11 @@
         <v>-637085.1217024213</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>12.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4821,7 +4595,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4860,7 +4634,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4899,7 +4673,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4938,7 +4712,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4973,19 +4747,19 @@
         <v>-66878.36590242136</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>12.1</v>
+        <v>11.89</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1.023099173553719</v>
+        <v>1</v>
       </c>
       <c r="M122" t="inlineStr"/>
     </row>
@@ -5012,11 +4786,17 @@
         <v>-66878.36590242136</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5048,8 +4828,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5081,8 +4867,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5114,8 +4906,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5147,8 +4945,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5180,8 +4984,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5213,8 +5023,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5243,11 +5059,17 @@
         <v>-198499.1067024214</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5276,11 +5098,17 @@
         <v>-198499.1067024214</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5309,11 +5137,17 @@
         <v>-214633.9130024214</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5342,11 +5176,17 @@
         <v>-214583.9130024214</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5375,11 +5215,17 @@
         <v>-214632.9130024214</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5408,11 +5254,17 @@
         <v>-192633.0393024214</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5441,13 +5293,19 @@
         <v>-192633.0393024214</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L136" t="n">
-        <v>1</v>
+        <v>1.02948275862069</v>
       </c>
       <c r="M136" t="inlineStr"/>
     </row>
@@ -5474,7 +5332,7 @@
         <v>-192633.0393024214</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5507,7 +5365,7 @@
         <v>-221372.5002024214</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5540,7 +5398,7 @@
         <v>-191821.1595024214</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5573,7 +5431,7 @@
         <v>-457255.2260024213</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5606,7 +5464,7 @@
         <v>-616185.4588024213</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5639,7 +5497,7 @@
         <v>-596204.0451024213</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5672,7 +5530,7 @@
         <v>-598637.6031024213</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -6002,7 +5860,7 @@
         <v>-510837.8442024213</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6035,7 +5893,7 @@
         <v>-509683.4527024212</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6068,7 +5926,7 @@
         <v>-518780.2083024212</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6101,7 +5959,7 @@
         <v>-537598.5368024212</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6134,7 +5992,7 @@
         <v>-545855.6884024212</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6167,7 +6025,7 @@
         <v>-545813.6884024212</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6200,7 +6058,7 @@
         <v>-552020.5984024212</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6266,7 +6124,7 @@
         <v>-554239.0318024212</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6332,7 +6190,7 @@
         <v>-1031882.357002421</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6497,7 +6355,7 @@
         <v>-1109544.867202421</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6530,7 +6388,7 @@
         <v>-1109544.867202421</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6563,7 +6421,7 @@
         <v>-1109502.867202421</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6596,7 +6454,7 @@
         <v>-1109502.867202421</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6629,7 +6487,7 @@
         <v>-1111851.867202421</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6662,7 +6520,7 @@
         <v>-1111809.867202421</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6695,7 +6553,7 @@
         <v>-1126877.867202421</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6728,7 +6586,7 @@
         <v>-1126835.867202421</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6761,7 +6619,7 @@
         <v>-1126890.867202421</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7300,6 +7158,6 @@
       <c r="M192" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest TRV.xlsx
+++ b/BackTest/2020-01-22 BackTest TRV.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-316122.3280024213</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-316122.3280024213</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-320036.3280024213</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-861305.6447024214</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2629,14 +2629,10 @@
         <v>-1007235.828302421</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="J68" t="n">
-        <v>11.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
@@ -2666,19 +2662,11 @@
         <v>-1007235.828302421</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="J69" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2707,19 +2695,11 @@
         <v>-967269.4513024213</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="J70" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2847,14 +2827,10 @@
         <v>-981705.5881024213</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="J74" t="n">
-        <v>11.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
@@ -2884,19 +2860,11 @@
         <v>-1022933.779602421</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="J75" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2925,19 +2893,11 @@
         <v>-1022892.354502421</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="J76" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2966,17 +2926,11 @@
         <v>-1026624.328302421</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3005,19 +2959,11 @@
         <v>-1024963.725902421</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J78" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3046,19 +2992,11 @@
         <v>-1024921.725902421</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="J79" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3087,19 +3025,11 @@
         <v>-1024921.725902421</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="J80" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3131,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3167,19 +3091,11 @@
         <v>-1044921.725902421</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="J82" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3208,19 +3124,11 @@
         <v>-1019893.748802421</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="J83" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3249,19 +3157,11 @@
         <v>-1019893.748802421</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="J84" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3290,19 +3190,11 @@
         <v>-1019810.255002421</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="J85" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3331,19 +3223,11 @@
         <v>-1019810.761202421</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="J86" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3375,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3411,19 +3289,11 @@
         <v>-1034314.761202421</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="J88" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3455,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3494,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3533,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3572,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3611,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3647,19 +3487,11 @@
         <v>-1106135.845902421</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J94" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3694,13 +3526,9 @@
         <v>11.82</v>
       </c>
       <c r="J95" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.82</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3735,11 +3563,11 @@
         <v>11.81</v>
       </c>
       <c r="J96" t="n">
-        <v>11.89</v>
+        <v>11.82</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -3770,17 +3598,15 @@
         <v>-1140792.031202421</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>11.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>11.89</v>
+        <v>11.82</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3814,14 +3640,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3853,14 +3673,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3892,14 +3706,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3931,14 +3739,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3970,14 +3772,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4009,14 +3805,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4045,17 +3835,11 @@
         <v>-1137256.580202421</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4087,14 +3871,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4126,14 +3904,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4165,14 +3937,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4204,14 +3970,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4243,14 +4003,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4282,14 +4036,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4321,14 +4069,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4360,14 +4102,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4399,14 +4135,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4438,14 +4168,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4477,14 +4201,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4516,14 +4234,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4552,17 +4264,11 @@
         <v>-637085.1217024213</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4591,17 +4297,11 @@
         <v>-636053.0964024214</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4633,14 +4333,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4672,14 +4366,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4711,14 +4399,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4750,14 +4432,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4789,14 +4465,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4828,14 +4498,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4867,14 +4531,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4906,14 +4564,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4945,14 +4597,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4984,14 +4630,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5023,14 +4663,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5062,14 +4696,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5101,14 +4729,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5140,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5179,14 +4795,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5218,14 +4828,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5257,14 +4861,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5293,19 +4891,13 @@
         <v>-192633.0393024214</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
-        <v>1.02948275862069</v>
+        <v>1</v>
       </c>
       <c r="M136" t="inlineStr"/>
     </row>
@@ -5332,7 +4924,7 @@
         <v>-192633.0393024214</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5365,7 +4957,7 @@
         <v>-221372.5002024214</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5398,7 +4990,7 @@
         <v>-191821.1595024214</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5431,7 +5023,7 @@
         <v>-457255.2260024213</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5464,7 +5056,7 @@
         <v>-616185.4588024213</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5497,7 +5089,7 @@
         <v>-596204.0451024213</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5530,7 +5122,7 @@
         <v>-598637.6031024213</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5563,7 +5155,7 @@
         <v>-579225.2819024213</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5596,7 +5188,7 @@
         <v>-612868.4219024213</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5629,7 +5221,7 @@
         <v>-598868.4219024213</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5662,7 +5254,7 @@
         <v>-598821.4219024213</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5695,7 +5287,7 @@
         <v>-598775.4219024213</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5728,7 +5320,7 @@
         <v>-589367.1497024213</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5761,7 +5353,7 @@
         <v>-589367.1497024213</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5794,7 +5386,7 @@
         <v>-555228.0097024213</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5827,7 +5419,7 @@
         <v>-540732.9616024212</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5893,7 +5485,7 @@
         <v>-509683.4527024212</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5926,7 +5518,7 @@
         <v>-518780.2083024212</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5959,7 +5551,7 @@
         <v>-537598.5368024212</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5992,7 +5584,7 @@
         <v>-545855.6884024212</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6025,7 +5617,7 @@
         <v>-545813.6884024212</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6190,7 +5782,7 @@
         <v>-1031882.357002421</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6355,7 +5947,7 @@
         <v>-1109544.867202421</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6388,7 +5980,7 @@
         <v>-1109544.867202421</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6421,7 +6013,7 @@
         <v>-1109502.867202421</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6454,7 +6046,7 @@
         <v>-1109502.867202421</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6487,7 +6079,7 @@
         <v>-1111851.867202421</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6520,7 +6112,7 @@
         <v>-1111809.867202421</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6553,7 +6145,7 @@
         <v>-1126877.867202421</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6586,7 +6178,7 @@
         <v>-1126835.867202421</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6619,7 +6211,7 @@
         <v>-1126890.867202421</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -7158,6 +6750,6 @@
       <c r="M192" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest TRV.xlsx
+++ b/BackTest/2020-01-22 BackTest TRV.xlsx
@@ -451,7 +451,7 @@
         <v>-316122.3280024213</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-316122.3280024213</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-861305.6447024214</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2365,10 +2365,14 @@
         <v>-945156.4027024214</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="J60" t="n">
+        <v>11.87</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
@@ -2401,8 +2405,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2444,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2827,10 +2843,14 @@
         <v>-981705.5881024213</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="J74" t="n">
+        <v>11.89</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
@@ -2863,8 +2883,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +2922,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +2958,17 @@
         <v>-1026624.328302421</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +2997,19 @@
         <v>-1024963.725902421</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J78" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3038,19 @@
         <v>-1024921.725902421</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="J79" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3079,19 @@
         <v>-1024921.725902421</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="J80" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3123,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3162,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3198,19 @@
         <v>-1019893.748802421</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="J83" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3239,19 @@
         <v>-1019893.748802421</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="J84" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3280,19 @@
         <v>-1019810.255002421</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="J85" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3324,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3363,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3399,19 @@
         <v>-1034314.761202421</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="J88" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3443,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3482,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3521,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3560,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3599,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3638,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3526,9 +3680,13 @@
         <v>11.82</v>
       </c>
       <c r="J95" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
+        <v>11.89</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3563,11 +3721,11 @@
         <v>11.81</v>
       </c>
       <c r="J96" t="n">
-        <v>11.82</v>
+        <v>11.89</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -3602,11 +3760,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>11.82</v>
+        <v>11.89</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L97" t="n">
@@ -3640,8 +3798,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3673,8 +3837,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3706,8 +3876,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3739,8 +3915,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3772,8 +3954,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3802,11 +3990,19 @@
         <v>-1137215.580102421</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>12</v>
+      </c>
+      <c r="J103" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3835,11 +4031,17 @@
         <v>-1137256.580202421</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3868,11 +4070,19 @@
         <v>-1155481.460502421</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="J105" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3901,11 +4111,19 @@
         <v>-1155439.460502421</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="J106" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3934,11 +4152,19 @@
         <v>-1155439.460502421</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="J107" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3967,11 +4193,19 @@
         <v>-1170255.460502421</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="J108" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4000,11 +4234,19 @@
         <v>-1169255.460502421</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="J109" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4033,11 +4275,19 @@
         <v>-1180036.318702421</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="J110" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4066,11 +4316,19 @@
         <v>-1179994.318702421</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="J111" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4099,11 +4357,19 @@
         <v>-1180336.460502421</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="J112" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4132,11 +4398,19 @@
         <v>-1181178.978102421</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="J113" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4165,11 +4439,19 @@
         <v>-1056671.029102421</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="J114" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4198,11 +4480,19 @@
         <v>-1034913.679802421</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="J115" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4231,11 +4521,19 @@
         <v>-872629.4029024213</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="J116" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4264,11 +4562,19 @@
         <v>-637085.1217024213</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J117" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4297,11 +4603,19 @@
         <v>-636053.0964024214</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="J118" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4330,11 +4644,19 @@
         <v>-395290.3428024214</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="J119" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4366,8 +4688,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4399,8 +4727,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4432,8 +4766,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4465,8 +4805,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4495,13 +4841,19 @@
         <v>-66878.36590242136</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L124" t="n">
-        <v>1</v>
+        <v>1.041257359125315</v>
       </c>
       <c r="M124" t="inlineStr"/>
     </row>
@@ -4528,7 +4880,7 @@
         <v>-66988.36590242136</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4561,7 +4913,7 @@
         <v>-39626.87390242136</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4594,7 +4946,7 @@
         <v>-198557.1067024214</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4627,7 +4979,7 @@
         <v>-198458.1067024214</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4660,7 +5012,7 @@
         <v>-198458.1067024214</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4693,7 +5045,7 @@
         <v>-198499.1067024214</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4726,7 +5078,7 @@
         <v>-198499.1067024214</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4759,7 +5111,7 @@
         <v>-214633.9130024214</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4792,7 +5144,7 @@
         <v>-214583.9130024214</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4957,7 +5309,7 @@
         <v>-221372.5002024214</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5155,7 +5507,7 @@
         <v>-579225.2819024213</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5188,7 +5540,7 @@
         <v>-612868.4219024213</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5221,7 +5573,7 @@
         <v>-598868.4219024213</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5254,7 +5606,7 @@
         <v>-598821.4219024213</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5287,7 +5639,7 @@
         <v>-598775.4219024213</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5320,7 +5672,7 @@
         <v>-589367.1497024213</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5353,7 +5705,7 @@
         <v>-589367.1497024213</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5386,7 +5738,7 @@
         <v>-555228.0097024213</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5419,7 +5771,7 @@
         <v>-540732.9616024212</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5452,7 +5804,7 @@
         <v>-510837.8442024213</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>

--- a/BackTest/2020-01-22 BackTest TRV.xlsx
+++ b/BackTest/2020-01-22 BackTest TRV.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M192"/>
+  <dimension ref="A1:L192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>29339.542</v>
       </c>
       <c r="G2" t="n">
-        <v>-316122.3280024213</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>20000</v>
       </c>
       <c r="G3" t="n">
-        <v>-316122.3280024213</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>10442.1593</v>
       </c>
       <c r="G4" t="n">
-        <v>-316122.3280024213</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>43</v>
       </c>
       <c r="G5" t="n">
-        <v>-316079.3280024213</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>12000</v>
       </c>
       <c r="G6" t="n">
-        <v>-328079.3280024213</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>8043</v>
       </c>
       <c r="G7" t="n">
-        <v>-320036.3280024213</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>10504.6325</v>
       </c>
       <c r="G8" t="n">
-        <v>-309531.6955024213</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1111</v>
       </c>
       <c r="G9" t="n">
-        <v>-309531.6955024213</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>-309481.6955024213</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>102600.0435</v>
       </c>
       <c r="G11" t="n">
-        <v>-412081.7390024213</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>6354.0829</v>
       </c>
       <c r="G12" t="n">
-        <v>-412081.7390024213</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>23344.0791</v>
       </c>
       <c r="G13" t="n">
-        <v>-412081.7390024213</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>641.9048</v>
       </c>
       <c r="G14" t="n">
-        <v>-411439.8342024212</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>8798.176100000001</v>
       </c>
       <c r="G15" t="n">
-        <v>-420238.0103024212</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>28604.6372</v>
       </c>
       <c r="G16" t="n">
-        <v>-391633.3731024212</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>10073.2686</v>
       </c>
       <c r="G17" t="n">
-        <v>-381560.1045024212</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>7822.0942</v>
       </c>
       <c r="G18" t="n">
-        <v>-389382.1987024212</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>196134.9016</v>
       </c>
       <c r="G19" t="n">
-        <v>-585517.1003024213</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1224</v>
       </c>
       <c r="G20" t="n">
-        <v>-586741.1003024213</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>69828.53939999999</v>
       </c>
       <c r="G21" t="n">
-        <v>-656569.6397024213</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1218.915</v>
       </c>
       <c r="G22" t="n">
-        <v>-656569.6397024213</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>21411.3187</v>
       </c>
       <c r="G23" t="n">
-        <v>-656569.6397024213</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>40000</v>
       </c>
       <c r="G24" t="n">
-        <v>-696569.6397024213</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>168409.9931</v>
       </c>
       <c r="G25" t="n">
-        <v>-864979.6328024212</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>52128.192</v>
       </c>
       <c r="G26" t="n">
-        <v>-864979.6328024212</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>28799.328</v>
       </c>
       <c r="G27" t="n">
-        <v>-836180.3048024212</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>10339.6287</v>
       </c>
       <c r="G28" t="n">
-        <v>-846519.9335024212</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>4843.8839</v>
       </c>
       <c r="G29" t="n">
-        <v>-851363.8174024213</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>41017.1594</v>
       </c>
       <c r="G30" t="n">
-        <v>-892380.9768024213</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>2536.1475</v>
       </c>
       <c r="G31" t="n">
-        <v>-889844.8293024213</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>13688.3783</v>
       </c>
       <c r="G32" t="n">
-        <v>-889844.8293024213</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>9617.213400000001</v>
       </c>
       <c r="G33" t="n">
-        <v>-889844.8293024213</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>2957.5888</v>
       </c>
       <c r="G34" t="n">
-        <v>-889844.8293024213</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>4496.6287</v>
       </c>
       <c r="G35" t="n">
-        <v>-885348.2006024213</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>15000</v>
       </c>
       <c r="G36" t="n">
-        <v>-870348.2006024213</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>78027.4184</v>
       </c>
       <c r="G37" t="n">
-        <v>-792320.7822024213</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>10442.1593</v>
       </c>
       <c r="G38" t="n">
-        <v>-802762.9415024214</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>20300</v>
       </c>
       <c r="G39" t="n">
-        <v>-782462.9415024214</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>14639.488</v>
       </c>
       <c r="G40" t="n">
-        <v>-782462.9415024214</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>78842.7032</v>
       </c>
       <c r="G41" t="n">
-        <v>-861305.6447024214</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>42</v>
       </c>
       <c r="G42" t="n">
-        <v>-861263.6447024214</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>14639.488</v>
       </c>
       <c r="G43" t="n">
-        <v>-875903.1327024214</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>200</v>
       </c>
       <c r="G44" t="n">
-        <v>-875703.1327024214</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>13479.8198</v>
       </c>
       <c r="G45" t="n">
-        <v>-875703.1327024214</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>42</v>
       </c>
       <c r="G46" t="n">
-        <v>-875661.1327024214</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>16560.1212</v>
       </c>
       <c r="G47" t="n">
-        <v>-875661.1327024214</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>934.5337</v>
       </c>
       <c r="G48" t="n">
-        <v>-875661.1327024214</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>53303</v>
       </c>
       <c r="G49" t="n">
-        <v>-928964.1327024214</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>2543.5619</v>
       </c>
       <c r="G50" t="n">
-        <v>-931507.6946024214</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>183042</v>
       </c>
       <c r="G51" t="n">
-        <v>-931507.6946024214</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>12052.4289</v>
       </c>
       <c r="G52" t="n">
-        <v>-943560.1235024214</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>50</v>
       </c>
       <c r="G53" t="n">
-        <v>-943560.1235024214</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>5342.8116</v>
       </c>
       <c r="G54" t="n">
-        <v>-943560.1235024214</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>10259.8648</v>
       </c>
       <c r="G55" t="n">
-        <v>-933300.2587024214</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>5972.3604</v>
       </c>
       <c r="G56" t="n">
-        <v>-927327.8983024214</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>4287.5044</v>
       </c>
       <c r="G57" t="n">
-        <v>-927327.8983024214</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>13583</v>
       </c>
       <c r="G58" t="n">
-        <v>-940910.8983024214</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,21 @@
         <v>4287.5044</v>
       </c>
       <c r="G59" t="n">
-        <v>-945198.4027024214</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>11.93</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,22 +2189,21 @@
         <v>42</v>
       </c>
       <c r="G60" t="n">
-        <v>-945156.4027024214</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
         <v>11.87</v>
       </c>
-      <c r="J60" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2399,24 +2225,19 @@
         <v>24691.0125</v>
       </c>
       <c r="G61" t="n">
-        <v>-969847.4152024214</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2438,24 +2259,19 @@
         <v>34440.8622</v>
       </c>
       <c r="G62" t="n">
-        <v>-1004288.277402421</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2477,18 +2293,19 @@
         <v>1726.3091</v>
       </c>
       <c r="G63" t="n">
-        <v>-1006014.586502421</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2510,18 +2327,21 @@
         <v>55531.8986</v>
       </c>
       <c r="G64" t="n">
-        <v>-950482.6879024213</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>11.95</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2543,18 +2363,21 @@
         <v>28895.5459</v>
       </c>
       <c r="G65" t="n">
-        <v>-921587.1420024213</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>11.96</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2576,18 +2399,21 @@
         <v>86501.61139999999</v>
       </c>
       <c r="G66" t="n">
-        <v>-1008088.753402421</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>12.1</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2609,18 +2435,19 @@
         <v>10000</v>
       </c>
       <c r="G67" t="n">
-        <v>-1008088.753402421</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2642,18 +2469,21 @@
         <v>852.9251</v>
       </c>
       <c r="G68" t="n">
-        <v>-1007235.828302421</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>11.87</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2675,18 +2505,21 @@
         <v>6841.9735</v>
       </c>
       <c r="G69" t="n">
-        <v>-1007235.828302421</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>11.91</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2708,18 +2541,21 @@
         <v>39966.377</v>
       </c>
       <c r="G70" t="n">
-        <v>-967269.4513024213</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>11.91</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2741,18 +2577,19 @@
         <v>14967.0747</v>
       </c>
       <c r="G71" t="n">
-        <v>-967269.4513024213</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2774,18 +2611,19 @@
         <v>218.5619</v>
       </c>
       <c r="G72" t="n">
-        <v>-967488.0132024213</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2807,18 +2645,19 @@
         <v>14259</v>
       </c>
       <c r="G73" t="n">
-        <v>-981747.0132024213</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2840,22 +2679,21 @@
         <v>41.4251</v>
       </c>
       <c r="G74" t="n">
-        <v>-981705.5881024213</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
         <v>11.89</v>
       </c>
-      <c r="J74" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2877,24 +2715,21 @@
         <v>41228.1915</v>
       </c>
       <c r="G75" t="n">
-        <v>-1022933.779602421</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>12.07</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2916,24 +2751,21 @@
         <v>41.4251</v>
       </c>
       <c r="G76" t="n">
-        <v>-1022892.354502421</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>11.87</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2955,24 +2787,19 @@
         <v>3731.9738</v>
       </c>
       <c r="G77" t="n">
-        <v>-1026624.328302421</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2994,26 +2821,19 @@
         <v>1660.6024</v>
       </c>
       <c r="G78" t="n">
-        <v>-1024963.725902421</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J78" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3035,26 +2855,19 @@
         <v>42</v>
       </c>
       <c r="G79" t="n">
-        <v>-1024921.725902421</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="J79" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3076,26 +2889,19 @@
         <v>50205.8385</v>
       </c>
       <c r="G80" t="n">
-        <v>-1024921.725902421</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="J80" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3117,24 +2923,19 @@
         <v>20000</v>
       </c>
       <c r="G81" t="n">
-        <v>-1044921.725902421</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3156,24 +2957,19 @@
         <v>17225.2894</v>
       </c>
       <c r="G82" t="n">
-        <v>-1044921.725902421</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3195,26 +2991,19 @@
         <v>25027.9771</v>
       </c>
       <c r="G83" t="n">
-        <v>-1019893.748802421</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="J83" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3236,26 +3025,19 @@
         <v>15351.2296</v>
       </c>
       <c r="G84" t="n">
-        <v>-1019893.748802421</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="J84" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3277,26 +3059,19 @@
         <v>83.49379999999999</v>
       </c>
       <c r="G85" t="n">
-        <v>-1019810.255002421</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="J85" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3318,24 +3093,19 @@
         <v>0.5062</v>
       </c>
       <c r="G86" t="n">
-        <v>-1019810.761202421</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3357,24 +3127,19 @@
         <v>14546</v>
       </c>
       <c r="G87" t="n">
-        <v>-1034356.761202421</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3396,26 +3161,19 @@
         <v>42</v>
       </c>
       <c r="G88" t="n">
-        <v>-1034314.761202421</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="J88" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3437,24 +3195,19 @@
         <v>50</v>
       </c>
       <c r="G89" t="n">
-        <v>-1034314.761202421</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3476,24 +3229,19 @@
         <v>42</v>
       </c>
       <c r="G90" t="n">
-        <v>-1034356.761202421</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3515,24 +3263,19 @@
         <v>61733.4252</v>
       </c>
       <c r="G91" t="n">
-        <v>-1096090.186402421</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3554,24 +3297,19 @@
         <v>3175.0753</v>
       </c>
       <c r="G92" t="n">
-        <v>-1092915.111102421</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3593,24 +3331,19 @@
         <v>3533.4512</v>
       </c>
       <c r="G93" t="n">
-        <v>-1096448.562302421</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3632,24 +3365,19 @@
         <v>9687.283600000001</v>
       </c>
       <c r="G94" t="n">
-        <v>-1106135.845902421</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3671,26 +3399,19 @@
         <v>34698.1853</v>
       </c>
       <c r="G95" t="n">
-        <v>-1140834.031202421</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="J95" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3712,26 +3433,19 @@
         <v>42</v>
       </c>
       <c r="G96" t="n">
-        <v>-1140792.031202421</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>11.81</v>
-      </c>
-      <c r="J96" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3753,24 +3467,19 @@
         <v>127.8395</v>
       </c>
       <c r="G97" t="n">
-        <v>-1140792.031202421</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3792,24 +3501,19 @@
         <v>28667.7315</v>
       </c>
       <c r="G98" t="n">
-        <v>-1140792.031202421</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3831,24 +3535,19 @@
         <v>3533.4512</v>
       </c>
       <c r="G99" t="n">
-        <v>-1137258.580002421</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3870,24 +3569,19 @@
         <v>7676.076</v>
       </c>
       <c r="G100" t="n">
-        <v>-1137258.580002421</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3909,24 +3603,19 @@
         <v>2700</v>
       </c>
       <c r="G101" t="n">
-        <v>-1137258.580002421</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3948,24 +3637,19 @@
         <v>17360.0089</v>
       </c>
       <c r="G102" t="n">
-        <v>-1137258.580002421</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3987,26 +3671,19 @@
         <v>42.9999</v>
       </c>
       <c r="G103" t="n">
-        <v>-1137215.580102421</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>12</v>
-      </c>
-      <c r="J103" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4028,24 +3705,19 @@
         <v>41.0001</v>
       </c>
       <c r="G104" t="n">
-        <v>-1137256.580202421</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4067,26 +3739,19 @@
         <v>18224.8803</v>
       </c>
       <c r="G105" t="n">
-        <v>-1155481.460502421</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="J105" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4108,26 +3773,19 @@
         <v>42</v>
       </c>
       <c r="G106" t="n">
-        <v>-1155439.460502421</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="J106" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4149,26 +3807,19 @@
         <v>862.1411000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>-1155439.460502421</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="J107" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4190,26 +3841,19 @@
         <v>14816</v>
       </c>
       <c r="G108" t="n">
-        <v>-1170255.460502421</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="J108" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4231,26 +3875,19 @@
         <v>1000</v>
       </c>
       <c r="G109" t="n">
-        <v>-1169255.460502421</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="J109" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4272,26 +3909,19 @@
         <v>10780.8582</v>
       </c>
       <c r="G110" t="n">
-        <v>-1180036.318702421</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="J110" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4313,26 +3943,19 @@
         <v>42</v>
       </c>
       <c r="G111" t="n">
-        <v>-1179994.318702421</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="J111" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4354,26 +3977,19 @@
         <v>342.1418</v>
       </c>
       <c r="G112" t="n">
-        <v>-1180336.460502421</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="J112" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4395,26 +4011,19 @@
         <v>842.5176</v>
       </c>
       <c r="G113" t="n">
-        <v>-1181178.978102421</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="J113" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4436,26 +4045,19 @@
         <v>124507.949</v>
       </c>
       <c r="G114" t="n">
-        <v>-1056671.029102421</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="J114" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4477,26 +4079,19 @@
         <v>21757.3493</v>
       </c>
       <c r="G115" t="n">
-        <v>-1034913.679802421</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="J115" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4518,26 +4113,19 @@
         <v>162284.2769</v>
       </c>
       <c r="G116" t="n">
-        <v>-872629.4029024213</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="J116" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4559,26 +4147,19 @@
         <v>235544.2812</v>
       </c>
       <c r="G117" t="n">
-        <v>-637085.1217024213</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="J117" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4600,26 +4181,19 @@
         <v>1032.0253</v>
       </c>
       <c r="G118" t="n">
-        <v>-636053.0964024214</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="J118" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4641,26 +4215,19 @@
         <v>240762.7536</v>
       </c>
       <c r="G119" t="n">
-        <v>-395290.3428024214</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="J119" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4682,24 +4249,19 @@
         <v>226745.5374</v>
       </c>
       <c r="G120" t="n">
-        <v>-168544.8054024214</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4721,24 +4283,19 @@
         <v>102437.2155</v>
       </c>
       <c r="G121" t="n">
-        <v>-66107.58990242136</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4760,24 +4317,19 @@
         <v>770.776</v>
       </c>
       <c r="G122" t="n">
-        <v>-66878.36590242136</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4799,24 +4351,19 @@
         <v>816.3988000000001</v>
       </c>
       <c r="G123" t="n">
-        <v>-66878.36590242136</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4838,24 +4385,19 @@
         <v>44636.6999</v>
       </c>
       <c r="G124" t="n">
-        <v>-66878.36590242136</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1.041257359125315</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4877,18 +4419,19 @@
         <v>110</v>
       </c>
       <c r="G125" t="n">
-        <v>-66988.36590242136</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4910,18 +4453,19 @@
         <v>27361.492</v>
       </c>
       <c r="G126" t="n">
-        <v>-39626.87390242136</v>
-      </c>
-      <c r="H126" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4943,18 +4487,17 @@
         <v>158930.2328</v>
       </c>
       <c r="G127" t="n">
-        <v>-198557.1067024214</v>
-      </c>
-      <c r="H127" t="n">
         <v>2</v>
       </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4976,18 +4519,15 @@
         <v>99</v>
       </c>
       <c r="G128" t="n">
-        <v>-198458.1067024214</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5009,18 +4549,15 @@
         <v>8216.151599999999</v>
       </c>
       <c r="G129" t="n">
-        <v>-198458.1067024214</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5042,18 +4579,15 @@
         <v>41</v>
       </c>
       <c r="G130" t="n">
-        <v>-198499.1067024214</v>
-      </c>
-      <c r="H130" t="n">
         <v>2</v>
       </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5075,18 +4609,15 @@
         <v>83</v>
       </c>
       <c r="G131" t="n">
-        <v>-198499.1067024214</v>
-      </c>
-      <c r="H131" t="n">
         <v>2</v>
       </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5108,18 +4639,15 @@
         <v>16134.8063</v>
       </c>
       <c r="G132" t="n">
-        <v>-214633.9130024214</v>
-      </c>
-      <c r="H132" t="n">
         <v>2</v>
       </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5141,18 +4669,15 @@
         <v>50</v>
       </c>
       <c r="G133" t="n">
-        <v>-214583.9130024214</v>
-      </c>
-      <c r="H133" t="n">
         <v>2</v>
       </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5174,18 +4699,15 @@
         <v>49</v>
       </c>
       <c r="G134" t="n">
-        <v>-214632.9130024214</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5207,18 +4729,15 @@
         <v>21999.8737</v>
       </c>
       <c r="G135" t="n">
-        <v>-192633.0393024214</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5240,18 +4759,15 @@
         <v>121</v>
       </c>
       <c r="G136" t="n">
-        <v>-192633.0393024214</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5273,18 +4789,15 @@
         <v>1223.6582</v>
       </c>
       <c r="G137" t="n">
-        <v>-192633.0393024214</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5306,18 +4819,15 @@
         <v>28739.4609</v>
       </c>
       <c r="G138" t="n">
-        <v>-221372.5002024214</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5339,18 +4849,15 @@
         <v>29551.3407</v>
       </c>
       <c r="G139" t="n">
-        <v>-191821.1595024214</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5372,18 +4879,15 @@
         <v>265434.0665</v>
       </c>
       <c r="G140" t="n">
-        <v>-457255.2260024213</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5405,18 +4909,15 @@
         <v>158930.2328</v>
       </c>
       <c r="G141" t="n">
-        <v>-616185.4588024213</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5438,18 +4939,15 @@
         <v>19981.4137</v>
       </c>
       <c r="G142" t="n">
-        <v>-596204.0451024213</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5471,18 +4969,15 @@
         <v>2433.558</v>
       </c>
       <c r="G143" t="n">
-        <v>-598637.6031024213</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5504,18 +4999,15 @@
         <v>19412.3212</v>
       </c>
       <c r="G144" t="n">
-        <v>-579225.2819024213</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5537,18 +5029,15 @@
         <v>33643.14</v>
       </c>
       <c r="G145" t="n">
-        <v>-612868.4219024213</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5570,18 +5059,15 @@
         <v>14000</v>
       </c>
       <c r="G146" t="n">
-        <v>-598868.4219024213</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5603,18 +5089,15 @@
         <v>47</v>
       </c>
       <c r="G147" t="n">
-        <v>-598821.4219024213</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5636,18 +5119,15 @@
         <v>46</v>
       </c>
       <c r="G148" t="n">
-        <v>-598775.4219024213</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5669,18 +5149,15 @@
         <v>9408.272199999999</v>
       </c>
       <c r="G149" t="n">
-        <v>-589367.1497024213</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5702,18 +5179,15 @@
         <v>18882.279</v>
       </c>
       <c r="G150" t="n">
-        <v>-589367.1497024213</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5735,18 +5209,15 @@
         <v>34139.14</v>
       </c>
       <c r="G151" t="n">
-        <v>-555228.0097024213</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5768,18 +5239,15 @@
         <v>14495.0481</v>
       </c>
       <c r="G152" t="n">
-        <v>-540732.9616024212</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5801,18 +5269,15 @@
         <v>29895.1174</v>
       </c>
       <c r="G153" t="n">
-        <v>-510837.8442024213</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5834,18 +5299,15 @@
         <v>1154.3915</v>
       </c>
       <c r="G154" t="n">
-        <v>-509683.4527024212</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5867,18 +5329,15 @@
         <v>9096.7556</v>
       </c>
       <c r="G155" t="n">
-        <v>-518780.2083024212</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5900,18 +5359,15 @@
         <v>18818.3285</v>
       </c>
       <c r="G156" t="n">
-        <v>-537598.5368024212</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5933,18 +5389,15 @@
         <v>8257.151599999999</v>
       </c>
       <c r="G157" t="n">
-        <v>-545855.6884024212</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5966,18 +5419,15 @@
         <v>42</v>
       </c>
       <c r="G158" t="n">
-        <v>-545813.6884024212</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5999,18 +5449,15 @@
         <v>6206.91</v>
       </c>
       <c r="G159" t="n">
-        <v>-552020.5984024212</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6032,18 +5479,15 @@
         <v>2218.4334</v>
       </c>
       <c r="G160" t="n">
-        <v>-554239.0318024212</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6065,18 +5509,19 @@
         <v>4000</v>
       </c>
       <c r="G161" t="n">
-        <v>-554239.0318024212</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>12.03</v>
+      </c>
+      <c r="I161" t="n">
+        <v>12.03</v>
+      </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6098,18 +5543,21 @@
         <v>478307.7198</v>
       </c>
       <c r="G162" t="n">
-        <v>-1032546.751602421</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6131,18 +5579,23 @@
         <v>664.3946</v>
       </c>
       <c r="G163" t="n">
-        <v>-1031882.357002421</v>
+        <v>1</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="I163" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6164,18 +5617,15 @@
         <v>5264.9453</v>
       </c>
       <c r="G164" t="n">
-        <v>-1031882.357002421</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6197,18 +5647,15 @@
         <v>11904.5064</v>
       </c>
       <c r="G165" t="n">
-        <v>-1043786.863402421</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6230,18 +5677,15 @@
         <v>67041.3982</v>
       </c>
       <c r="G166" t="n">
-        <v>-1110828.261602421</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6263,18 +5707,15 @@
         <v>1283.3944</v>
       </c>
       <c r="G167" t="n">
-        <v>-1109544.867202421</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6296,18 +5737,15 @@
         <v>51.6775</v>
       </c>
       <c r="G168" t="n">
-        <v>-1109544.867202421</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6329,18 +5767,15 @@
         <v>18023.7569</v>
       </c>
       <c r="G169" t="n">
-        <v>-1109544.867202421</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6362,18 +5797,19 @@
         <v>42</v>
       </c>
       <c r="G170" t="n">
-        <v>-1109502.867202421</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>12.02</v>
+      </c>
+      <c r="I170" t="n">
+        <v>12.02</v>
+      </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6395,18 +5831,21 @@
         <v>42</v>
       </c>
       <c r="G171" t="n">
-        <v>-1109502.867202421</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6428,18 +5867,21 @@
         <v>2349</v>
       </c>
       <c r="G172" t="n">
-        <v>-1111851.867202421</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6461,18 +5903,15 @@
         <v>42</v>
       </c>
       <c r="G173" t="n">
-        <v>-1111809.867202421</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6494,18 +5933,15 @@
         <v>15068</v>
       </c>
       <c r="G174" t="n">
-        <v>-1126877.867202421</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6527,18 +5963,15 @@
         <v>42</v>
       </c>
       <c r="G175" t="n">
-        <v>-1126835.867202421</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6560,18 +5993,15 @@
         <v>55</v>
       </c>
       <c r="G176" t="n">
-        <v>-1126890.867202421</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6593,18 +6023,15 @@
         <v>41</v>
       </c>
       <c r="G177" t="n">
-        <v>-1126849.867202421</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6626,18 +6053,15 @@
         <v>20530.41</v>
       </c>
       <c r="G178" t="n">
-        <v>-1147380.277202421</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6659,18 +6083,15 @@
         <v>2506</v>
       </c>
       <c r="G179" t="n">
-        <v>-1149886.277202421</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6692,18 +6113,15 @@
         <v>84</v>
       </c>
       <c r="G180" t="n">
-        <v>-1149802.277202421</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6725,18 +6143,15 @@
         <v>20502.41</v>
       </c>
       <c r="G181" t="n">
-        <v>-1170304.687202421</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6758,18 +6173,15 @@
         <v>31282.5698</v>
       </c>
       <c r="G182" t="n">
-        <v>-1201587.257002421</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6791,18 +6203,15 @@
         <v>50</v>
       </c>
       <c r="G183" t="n">
-        <v>-1201537.257002421</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6824,18 +6233,15 @@
         <v>5589</v>
       </c>
       <c r="G184" t="n">
-        <v>-1207126.257002421</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6857,18 +6263,15 @@
         <v>50</v>
       </c>
       <c r="G185" t="n">
-        <v>-1207076.257002421</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6890,18 +6293,15 @@
         <v>36623.8336</v>
       </c>
       <c r="G186" t="n">
-        <v>-1207076.257002421</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6923,18 +6323,15 @@
         <v>23306.8585</v>
       </c>
       <c r="G187" t="n">
-        <v>-1230383.115502421</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6956,18 +6353,15 @@
         <v>213469.5572</v>
       </c>
       <c r="G188" t="n">
-        <v>-1016913.558302421</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6989,18 +6383,15 @@
         <v>50</v>
       </c>
       <c r="G189" t="n">
-        <v>-1016863.558302421</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7022,18 +6413,15 @@
         <v>213477.5572</v>
       </c>
       <c r="G190" t="n">
-        <v>-1016863.558302421</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7055,18 +6443,15 @@
         <v>3436.394</v>
       </c>
       <c r="G191" t="n">
-        <v>-1020299.952302421</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7088,18 +6473,15 @@
         <v>67288.3337</v>
       </c>
       <c r="G192" t="n">
-        <v>-1020299.952302421</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
